--- a/BackTest/2019-10-24 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-24 BackTest LAMB.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>2.5</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-8.333333333333432</v>
+      </c>
       <c r="L12" t="n">
         <v>34.93</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>2.799999999999997</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-11.99999999999989</v>
+      </c>
       <c r="L13" t="n">
         <v>34.88</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>2.999999999999993</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-12.0000000000002</v>
+      </c>
       <c r="L14" t="n">
         <v>34.87</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>3.199999999999989</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-11.99999999999996</v>
+      </c>
       <c r="L15" t="n">
         <v>34.82</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>3.299999999999983</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-7.69230769230786</v>
+      </c>
       <c r="L16" t="n">
         <v>34.8</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>3.399999999999977</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>34.77</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>3.499999999999972</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-14.28571428571467</v>
+      </c>
       <c r="L18" t="n">
         <v>34.78</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>3.499999999999972</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>20.00000000000019</v>
+      </c>
       <c r="L19" t="n">
         <v>34.75</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>3.499999999999972</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L20" t="n">
         <v>34.78</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>3.499999999999972</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-20.00000000000085</v>
+      </c>
       <c r="L21" t="n">
         <v>34.8</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>3.499999999999972</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>14.285714285714</v>
+      </c>
       <c r="L22" t="n">
         <v>34.78</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3.599999999999973</v>
       </c>
       <c r="K23" t="n">
-        <v>-8.571428571428745</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>34.8</v>
@@ -1466,7 +1488,7 @@
         <v>3.599999999999973</v>
       </c>
       <c r="K24" t="n">
-        <v>-3.030303030303096</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L24" t="n">
         <v>34.8</v>
@@ -1515,7 +1537,7 @@
         <v>3.899999999999977</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>66.66666666666825</v>
       </c>
       <c r="L25" t="n">
         <v>34.85</v>
@@ -1564,7 +1586,7 @@
         <v>4.199999999999982</v>
       </c>
       <c r="K26" t="n">
-        <v>-2.857142857142915</v>
+        <v>24.99999999999933</v>
       </c>
       <c r="L26" t="n">
         <v>34.86</v>
@@ -1613,7 +1635,7 @@
         <v>4.299999999999983</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L27" t="n">
         <v>34.89</v>
@@ -1662,7 +1684,7 @@
         <v>4.499999999999986</v>
       </c>
       <c r="K28" t="n">
-        <v>2.857142857142707</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>34.89</v>
@@ -1711,7 +1733,7 @@
         <v>4.59999999999998</v>
       </c>
       <c r="K29" t="n">
-        <v>-12.50000000000003</v>
+        <v>-9.090909090908504</v>
       </c>
       <c r="L29" t="n">
         <v>34.88</v>
@@ -1760,7 +1782,7 @@
         <v>4.699999999999982</v>
       </c>
       <c r="K30" t="n">
-        <v>3.703703703703782</v>
+        <v>-16.66666666666617</v>
       </c>
       <c r="L30" t="n">
         <v>34.86</v>
@@ -1809,7 +1831,7 @@
         <v>4.699999999999982</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-16.66666666666617</v>
       </c>
       <c r="L31" t="n">
         <v>34.84</v>
@@ -1860,7 +1882,7 @@
         <v>4.699999999999982</v>
       </c>
       <c r="K32" t="n">
-        <v>-18.18181818181827</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L32" t="n">
         <v>34.82</v>
@@ -1911,7 +1933,7 @@
         <v>4.899999999999984</v>
       </c>
       <c r="K33" t="n">
-        <v>-14.28571428571458</v>
+        <v>-38.46153846153813</v>
       </c>
       <c r="L33" t="n">
         <v>34.77</v>
@@ -1962,7 +1984,7 @@
         <v>4.999999999999986</v>
       </c>
       <c r="K34" t="n">
-        <v>-20</v>
+        <v>-63.6363636363634</v>
       </c>
       <c r="L34" t="n">
         <v>34.73</v>
@@ -2013,7 +2035,7 @@
         <v>4.999999999999986</v>
       </c>
       <c r="K35" t="n">
-        <v>-11.11111111111129</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L35" t="n">
         <v>34.66</v>
@@ -2064,7 +2086,7 @@
         <v>5.099999999999987</v>
       </c>
       <c r="K36" t="n">
-        <v>-22.22222222222209</v>
+        <v>-74.99999999999977</v>
       </c>
       <c r="L36" t="n">
         <v>34.61</v>
@@ -2115,7 +2137,7 @@
         <v>5.099999999999987</v>
       </c>
       <c r="K37" t="n">
-        <v>-17.64705882352956</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L37" t="n">
         <v>34.55</v>
@@ -2166,7 +2188,7 @@
         <v>5.199999999999989</v>
       </c>
       <c r="K38" t="n">
-        <v>-29.41176470588206</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L38" t="n">
         <v>34.5</v>
@@ -2217,7 +2239,7 @@
         <v>5.899999999999984</v>
       </c>
       <c r="K39" t="n">
-        <v>-49.99999999999956</v>
+        <v>-83.33333333333314</v>
       </c>
       <c r="L39" t="n">
         <v>34.39</v>
@@ -2268,7 +2290,7 @@
         <v>6.59999999999998</v>
       </c>
       <c r="K40" t="n">
-        <v>-16.12903225806447</v>
+        <v>-15.78947368421076</v>
       </c>
       <c r="L40" t="n">
         <v>34.36</v>
@@ -2323,7 +2345,7 @@
         <v>6.799999999999976</v>
       </c>
       <c r="K41" t="n">
-        <v>-21.21212121212105</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L41" t="n">
         <v>34.31</v>
@@ -2380,7 +2402,7 @@
         <v>6.799999999999976</v>
       </c>
       <c r="K42" t="n">
-        <v>-21.21212121212105</v>
+        <v>-15.78947368421045</v>
       </c>
       <c r="L42" t="n">
         <v>34.26000000000001</v>
@@ -2437,7 +2459,7 @@
         <v>6.899999999999977</v>
       </c>
       <c r="K43" t="n">
-        <v>-21.21212121212105</v>
+        <v>-15.78947368421045</v>
       </c>
       <c r="L43" t="n">
         <v>34.24</v>
@@ -2494,7 +2516,7 @@
         <v>6.899999999999977</v>
       </c>
       <c r="K44" t="n">
-        <v>-21.21212121212105</v>
+        <v>-15.78947368421045</v>
       </c>
       <c r="L44" t="n">
         <v>34.21</v>
@@ -2551,7 +2573,7 @@
         <v>7.199999999999982</v>
       </c>
       <c r="K45" t="n">
-        <v>-39.39393939393947</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L45" t="n">
         <v>34.15</v>
@@ -2608,7 +2630,7 @@
         <v>7.199999999999982</v>
       </c>
       <c r="K46" t="n">
-        <v>-33.33333333333333</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L46" t="n">
         <v>34.1</v>
@@ -2665,7 +2687,7 @@
         <v>7.199999999999982</v>
       </c>
       <c r="K47" t="n">
-        <v>-37.93103448275869</v>
+        <v>-20</v>
       </c>
       <c r="L47" t="n">
         <v>34.05</v>
@@ -2722,7 +2744,7 @@
         <v>7.499999999999986</v>
       </c>
       <c r="K48" t="n">
-        <v>-19.99999999999981</v>
+        <v>37.50000000000006</v>
       </c>
       <c r="L48" t="n">
         <v>34.04</v>
@@ -2779,7 +2801,7 @@
         <v>7.799999999999983</v>
       </c>
       <c r="K49" t="n">
-        <v>-6.250000000000083</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L49" t="n">
         <v>34.13</v>
@@ -2836,7 +2858,7 @@
         <v>7.799999999999983</v>
       </c>
       <c r="K50" t="n">
-        <v>-3.225806451612947</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L50" t="n">
         <v>34.14999999999999</v>
@@ -2887,7 +2909,7 @@
         <v>7.799999999999983</v>
       </c>
       <c r="K51" t="n">
-        <v>-3.225806451612947</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L51" t="n">
         <v>34.18999999999999</v>
@@ -2938,7 +2960,7 @@
         <v>7.899999999999984</v>
       </c>
       <c r="K52" t="n">
-        <v>-6.250000000000083</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L52" t="n">
         <v>34.21999999999998</v>
@@ -2989,7 +3011,7 @@
         <v>7.899999999999984</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L53" t="n">
         <v>34.23999999999999</v>
@@ -3040,7 +3062,7 @@
         <v>7.899999999999984</v>
       </c>
       <c r="K54" t="n">
-        <v>-3.448275862069016</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L54" t="n">
         <v>34.25999999999998</v>
@@ -3091,7 +3113,7 @@
         <v>7.899999999999984</v>
       </c>
       <c r="K55" t="n">
-        <v>-3.448275862069016</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L55" t="n">
         <v>34.30999999999999</v>
@@ -3142,7 +3164,7 @@
         <v>8.09999999999998</v>
       </c>
       <c r="K56" t="n">
-        <v>-6.66666666666654</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L56" t="n">
         <v>34.33999999999999</v>
@@ -3193,7 +3215,7 @@
         <v>8.199999999999982</v>
       </c>
       <c r="K57" t="n">
-        <v>-9.677419354838635</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L57" t="n">
         <v>34.35999999999999</v>
@@ -3244,7 +3266,7 @@
         <v>8.299999999999983</v>
       </c>
       <c r="K58" t="n">
-        <v>-9.677419354838635</v>
+        <v>-100</v>
       </c>
       <c r="L58" t="n">
         <v>34.33999999999999</v>
@@ -3295,7 +3317,7 @@
         <v>8.399999999999984</v>
       </c>
       <c r="K59" t="n">
-        <v>20</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L59" t="n">
         <v>34.3</v>
@@ -3346,7 +3368,7 @@
         <v>8.399999999999984</v>
       </c>
       <c r="K60" t="n">
-        <v>-11.11111111111085</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L60" t="n">
         <v>34.26</v>
@@ -3397,7 +3419,7 @@
         <v>8.399999999999984</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L61" t="n">
         <v>34.22</v>
@@ -3448,7 +3470,7 @@
         <v>8.799999999999983</v>
       </c>
       <c r="K62" t="n">
-        <v>19.99999999999986</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L62" t="n">
         <v>34.23</v>
@@ -3499,7 +3521,7 @@
         <v>9.199999999999982</v>
       </c>
       <c r="K63" t="n">
-        <v>-4.347826086956576</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L63" t="n">
         <v>34.2</v>
@@ -3550,7 +3572,7 @@
         <v>9.499999999999979</v>
       </c>
       <c r="K64" t="n">
-        <v>7.692307692307525</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>34.2</v>
@@ -3601,7 +3623,7 @@
         <v>9.499999999999979</v>
       </c>
       <c r="K65" t="n">
-        <v>21.73913043478263</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L65" t="n">
         <v>34.2</v>
@@ -3652,7 +3674,7 @@
         <v>9.499999999999979</v>
       </c>
       <c r="K66" t="n">
-        <v>21.73913043478263</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L66" t="n">
         <v>34.22000000000001</v>
@@ -3703,7 +3725,7 @@
         <v>9.499999999999979</v>
       </c>
       <c r="K67" t="n">
-        <v>21.73913043478263</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L67" t="n">
         <v>34.25</v>
@@ -3754,7 +3776,7 @@
         <v>9.699999999999982</v>
       </c>
       <c r="K68" t="n">
-        <v>18.18181818181815</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L68" t="n">
         <v>34.31</v>
@@ -3805,7 +3827,7 @@
         <v>9.899999999999977</v>
       </c>
       <c r="K69" t="n">
-        <v>14.28571428571419</v>
+        <v>46.6666666666666</v>
       </c>
       <c r="L69" t="n">
         <v>34.38</v>
@@ -3856,7 +3878,7 @@
         <v>9.999999999999979</v>
       </c>
       <c r="K70" t="n">
-        <v>18.18181818181815</v>
+        <v>50</v>
       </c>
       <c r="L70" t="n">
         <v>34.45999999999999</v>
@@ -3907,7 +3929,7 @@
         <v>10.09999999999998</v>
       </c>
       <c r="K71" t="n">
-        <v>13.04347826086946</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L71" t="n">
         <v>34.52999999999999</v>
@@ -3958,7 +3980,7 @@
         <v>10.39999999999998</v>
       </c>
       <c r="K72" t="n">
-        <v>4.000000000000068</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L72" t="n">
         <v>34.52999999999999</v>
@@ -4009,7 +4031,7 @@
         <v>10.39999999999998</v>
       </c>
       <c r="K73" t="n">
-        <v>4.000000000000068</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L73" t="n">
         <v>34.56999999999999</v>
@@ -4060,7 +4082,7 @@
         <v>10.79999999999998</v>
       </c>
       <c r="K74" t="n">
-        <v>17.24137931034488</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L74" t="n">
         <v>34.61999999999999</v>
@@ -4111,7 +4133,7 @@
         <v>10.79999999999998</v>
       </c>
       <c r="K75" t="n">
-        <v>17.24137931034488</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L75" t="n">
         <v>34.66999999999999</v>
@@ -4162,7 +4184,7 @@
         <v>11.19999999999997</v>
       </c>
       <c r="K76" t="n">
-        <v>35.48387096774182</v>
+        <v>52.94117647058828</v>
       </c>
       <c r="L76" t="n">
         <v>34.76</v>
@@ -4213,7 +4235,7 @@
         <v>11.39999999999998</v>
       </c>
       <c r="K77" t="n">
-        <v>43.75000000000001</v>
+        <v>52.94117647058828</v>
       </c>
       <c r="L77" t="n">
         <v>34.87</v>
@@ -4264,7 +4286,7 @@
         <v>11.39999999999998</v>
       </c>
       <c r="K78" t="n">
-        <v>48.38709677419364</v>
+        <v>46.66666666666686</v>
       </c>
       <c r="L78" t="n">
         <v>34.95999999999999</v>
@@ -4315,7 +4337,7 @@
         <v>11.79999999999998</v>
       </c>
       <c r="K79" t="n">
-        <v>52.94117647058828</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L79" t="n">
         <v>35.06999999999999</v>
@@ -4366,7 +4388,7 @@
         <v>11.89999999999998</v>
       </c>
       <c r="K80" t="n">
-        <v>48.57142857142855</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L80" t="n">
         <v>35.16</v>
@@ -4417,7 +4439,7 @@
         <v>12.39999999999998</v>
       </c>
       <c r="K81" t="n">
-        <v>54.99999999999999</v>
+        <v>89.99999999999986</v>
       </c>
       <c r="L81" t="n">
         <v>35.31</v>
@@ -4468,7 +4490,7 @@
         <v>12.49999999999997</v>
       </c>
       <c r="K82" t="n">
-        <v>45.94594594594616</v>
+        <v>80.9523809523813</v>
       </c>
       <c r="L82" t="n">
         <v>35.48</v>
@@ -4570,7 +4592,7 @@
         <v>13.19999999999997</v>
       </c>
       <c r="K84" t="n">
-        <v>51.35135135135137</v>
+        <v>58.3333333333333</v>
       </c>
       <c r="L84" t="n">
         <v>35.76</v>
@@ -4621,7 +4643,7 @@
         <v>13.39999999999998</v>
       </c>
       <c r="K85" t="n">
-        <v>53.8461538461539</v>
+        <v>54.54545454545461</v>
       </c>
       <c r="L85" t="n">
         <v>35.92</v>
@@ -4672,7 +4694,7 @@
         <v>13.59999999999998</v>
       </c>
       <c r="K86" t="n">
-        <v>56.09756097560984</v>
+        <v>54.54545454545461</v>
       </c>
       <c r="L86" t="n">
         <v>36.06</v>
@@ -4723,7 +4745,7 @@
         <v>13.79999999999998</v>
       </c>
       <c r="K87" t="n">
-        <v>58.13953488372097</v>
+        <v>58.3333333333333</v>
       </c>
       <c r="L87" t="n">
         <v>36.2</v>
@@ -4774,7 +4796,7 @@
         <v>14.09999999999998</v>
       </c>
       <c r="K88" t="n">
-        <v>59.09090909090914</v>
+        <v>56.52173913043487</v>
       </c>
       <c r="L88" t="n">
         <v>36.36999999999999</v>
@@ -4876,7 +4898,7 @@
         <v>14.29999999999998</v>
       </c>
       <c r="K90" t="n">
-        <v>48.83720930232557</v>
+        <v>36.84210526315793</v>
       </c>
       <c r="L90" t="n">
         <v>36.59999999999999</v>
@@ -4927,7 +4949,7 @@
         <v>15.09999999999998</v>
       </c>
       <c r="K91" t="n">
-        <v>28.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>36.58999999999999</v>
@@ -4978,7 +5000,7 @@
         <v>15.49999999999998</v>
       </c>
       <c r="K92" t="n">
-        <v>41.17647058823531</v>
+        <v>25.925925925926</v>
       </c>
       <c r="L92" t="n">
         <v>36.63</v>
@@ -5029,7 +5051,7 @@
         <v>15.49999999999998</v>
       </c>
       <c r="K93" t="n">
-        <v>41.17647058823531</v>
+        <v>13.04347826086973</v>
       </c>
       <c r="L93" t="n">
         <v>36.7</v>
@@ -5080,7 +5102,7 @@
         <v>15.59999999999998</v>
       </c>
       <c r="K94" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>36.72</v>
@@ -5131,7 +5153,7 @@
         <v>15.59999999999998</v>
       </c>
       <c r="K95" t="n">
-        <v>33.33333333333333</v>
+        <v>-10.00000000000014</v>
       </c>
       <c r="L95" t="n">
         <v>36.72</v>
@@ -5182,7 +5204,7 @@
         <v>15.59999999999998</v>
       </c>
       <c r="K96" t="n">
-        <v>27.27272727272731</v>
+        <v>-22.22222222222209</v>
       </c>
       <c r="L96" t="n">
         <v>36.7</v>
@@ -5233,7 +5255,7 @@
         <v>15.59999999999998</v>
       </c>
       <c r="K97" t="n">
-        <v>23.8095238095238</v>
+        <v>-46.66666666666686</v>
       </c>
       <c r="L97" t="n">
         <v>36.66</v>
@@ -5284,7 +5306,7 @@
         <v>16.09999999999998</v>
       </c>
       <c r="K98" t="n">
-        <v>31.91489361702126</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>36.64</v>
@@ -5335,7 +5357,7 @@
         <v>16.49999999999998</v>
       </c>
       <c r="K99" t="n">
-        <v>14.89361702127665</v>
+        <v>-18.18181818181815</v>
       </c>
       <c r="L99" t="n">
         <v>36.60000000000001</v>
@@ -5386,7 +5408,7 @@
         <v>16.79999999999998</v>
       </c>
       <c r="K100" t="n">
-        <v>22.44897959183677</v>
+        <v>41.17647058823515</v>
       </c>
       <c r="L100" t="n">
         <v>36.59</v>
@@ -5437,7 +5459,7 @@
         <v>16.89999999999998</v>
       </c>
       <c r="K101" t="n">
-        <v>15.55555555555562</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L101" t="n">
         <v>36.67</v>
@@ -5488,7 +5510,7 @@
         <v>17.09999999999998</v>
       </c>
       <c r="K102" t="n">
-        <v>21.73913043478257</v>
+        <v>37.50000000000006</v>
       </c>
       <c r="L102" t="n">
         <v>36.73</v>
@@ -5539,7 +5561,7 @@
         <v>17.59999999999998</v>
       </c>
       <c r="K103" t="n">
-        <v>37.50000000000006</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L103" t="n">
         <v>36.84</v>
@@ -5590,7 +5612,7 @@
         <v>17.59999999999998</v>
       </c>
       <c r="K104" t="n">
-        <v>31.81818181818191</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L104" t="n">
         <v>36.95999999999999</v>
@@ -5641,7 +5663,7 @@
         <v>17.79999999999998</v>
       </c>
       <c r="K105" t="n">
-        <v>22.7272727272727</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L105" t="n">
         <v>37.06</v>
@@ -5692,7 +5714,7 @@
         <v>17.89999999999998</v>
       </c>
       <c r="K106" t="n">
-        <v>16.27906976744174</v>
+        <v>39.13043478260856</v>
       </c>
       <c r="L106" t="n">
         <v>37.14999999999999</v>
@@ -5743,7 +5765,7 @@
         <v>17.89999999999998</v>
       </c>
       <c r="K107" t="n">
-        <v>12.19512195121949</v>
+        <v>22.22222222222209</v>
       </c>
       <c r="L107" t="n">
         <v>37.23999999999999</v>
@@ -5794,7 +5816,7 @@
         <v>18.29999999999998</v>
       </c>
       <c r="K108" t="n">
-        <v>-4.761904761904826</v>
+        <v>22.22222222222209</v>
       </c>
       <c r="L108" t="n">
         <v>37.23999999999999</v>
@@ -5845,7 +5867,7 @@
         <v>18.29999999999998</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L109" t="n">
         <v>37.27999999999999</v>
@@ -5896,7 +5918,7 @@
         <v>18.39999999999998</v>
       </c>
       <c r="K110" t="n">
-        <v>-2.439024390243936</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L110" t="n">
         <v>37.27999999999999</v>
@@ -5947,7 +5969,7 @@
         <v>18.89999999999998</v>
       </c>
       <c r="K111" t="n">
-        <v>31.57894736842091</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L111" t="n">
         <v>37.31999999999999</v>
@@ -5998,7 +6020,7 @@
         <v>19.29999999999998</v>
       </c>
       <c r="K112" t="n">
-        <v>10.52631578947364</v>
+        <v>-41.17647058823539</v>
       </c>
       <c r="L112" t="n">
         <v>37.29999999999999</v>
@@ -6049,7 +6071,7 @@
         <v>19.39999999999998</v>
       </c>
       <c r="K113" t="n">
-        <v>7.692307692307608</v>
+        <v>-44.44444444444458</v>
       </c>
       <c r="L113" t="n">
         <v>37.21999999999998</v>
@@ -6100,7 +6122,7 @@
         <v>19.69999999999999</v>
       </c>
       <c r="K114" t="n">
-        <v>17.07317073170735</v>
+        <v>-15.78947368421033</v>
       </c>
       <c r="L114" t="n">
         <v>37.16999999999999</v>
@@ -6151,7 +6173,7 @@
         <v>19.69999999999999</v>
       </c>
       <c r="K115" t="n">
-        <v>17.07317073170735</v>
+        <v>-11.11111111111085</v>
       </c>
       <c r="L115" t="n">
         <v>37.13999999999999</v>
@@ -6202,7 +6224,7 @@
         <v>19.89999999999999</v>
       </c>
       <c r="K116" t="n">
-        <v>11.62790697674416</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L116" t="n">
         <v>37.09999999999999</v>
@@ -6253,7 +6275,7 @@
         <v>19.99999999999999</v>
       </c>
       <c r="K117" t="n">
-        <v>13.63636363636363</v>
+        <v>5.88235294117652</v>
       </c>
       <c r="L117" t="n">
         <v>37.06999999999999</v>
@@ -6304,7 +6326,7 @@
         <v>20.2</v>
       </c>
       <c r="K118" t="n">
-        <v>-2.439024390243928</v>
+        <v>-5.263157894736882</v>
       </c>
       <c r="L118" t="n">
         <v>37.05999999999999</v>
@@ -6355,7 +6377,7 @@
         <v>20.8</v>
       </c>
       <c r="K119" t="n">
-        <v>-6.976744186046581</v>
+        <v>-24.99999999999993</v>
       </c>
       <c r="L119" t="n">
         <v>36.98999999999999</v>
@@ -6406,7 +6428,7 @@
         <v>20.9</v>
       </c>
       <c r="K120" t="n">
-        <v>-12.19512195121944</v>
+        <v>-49.99999999999964</v>
       </c>
       <c r="L120" t="n">
         <v>36.93999999999999</v>
@@ -6457,7 +6479,7 @@
         <v>21.09999999999999</v>
       </c>
       <c r="K121" t="n">
-        <v>-19.0476190476189</v>
+        <v>-44.444444444444</v>
       </c>
       <c r="L121" t="n">
         <v>36.81999999999999</v>
@@ -6508,7 +6530,7 @@
         <v>21.39999999999999</v>
       </c>
       <c r="K122" t="n">
-        <v>-16.27906976744188</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L122" t="n">
         <v>36.77</v>
@@ -6559,7 +6581,7 @@
         <v>21.49999999999999</v>
       </c>
       <c r="K123" t="n">
-        <v>-33.33333333333333</v>
+        <v>-44.44444444444458</v>
       </c>
       <c r="L123" t="n">
         <v>36.71999999999999</v>
@@ -6661,7 +6683,7 @@
         <v>21.8</v>
       </c>
       <c r="K125" t="n">
-        <v>-19.99999999999986</v>
+        <v>-15.78947368421033</v>
       </c>
       <c r="L125" t="n">
         <v>36.61999999999999</v>
@@ -6712,7 +6734,7 @@
         <v>21.8</v>
       </c>
       <c r="K126" t="n">
-        <v>-17.94871794871778</v>
+        <v>-22.22222222222209</v>
       </c>
       <c r="L126" t="n">
         <v>36.58999999999999</v>
@@ -6763,7 +6785,7 @@
         <v>22</v>
       </c>
       <c r="K127" t="n">
-        <v>-21.951219512195</v>
+        <v>-22.22222222222209</v>
       </c>
       <c r="L127" t="n">
         <v>36.52999999999999</v>
@@ -6814,7 +6836,7 @@
         <v>22</v>
       </c>
       <c r="K128" t="n">
-        <v>-13.51351351351345</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L128" t="n">
         <v>36.48999999999999</v>
@@ -6865,7 +6887,7 @@
         <v>22.1</v>
       </c>
       <c r="K129" t="n">
-        <v>-15.78947368421049</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>36.49999999999999</v>
@@ -6916,7 +6938,7 @@
         <v>22.6</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>46.66666666666616</v>
       </c>
       <c r="L130" t="n">
         <v>36.54999999999999</v>
@@ -6967,7 +6989,7 @@
         <v>22.6</v>
       </c>
       <c r="K131" t="n">
-        <v>-13.51351351351345</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L131" t="n">
         <v>36.61999999999999</v>
@@ -7018,7 +7040,7 @@
         <v>23.1</v>
       </c>
       <c r="K132" t="n">
-        <v>-15.78947368421049</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
         <v>36.60999999999999</v>
@@ -7069,7 +7091,7 @@
         <v>23.90000000000001</v>
       </c>
       <c r="K133" t="n">
-        <v>6.66666666666673</v>
+        <v>23.80952380952371</v>
       </c>
       <c r="L133" t="n">
         <v>36.68999999999998</v>
@@ -7120,7 +7142,7 @@
         <v>24.1</v>
       </c>
       <c r="K134" t="n">
-        <v>4.545454545454435</v>
+        <v>30.43478260869541</v>
       </c>
       <c r="L134" t="n">
         <v>36.75999999999998</v>
@@ -7171,7 +7193,7 @@
         <v>24.8</v>
       </c>
       <c r="K135" t="n">
-        <v>-9.803921568627434</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
         <v>36.75999999999998</v>
@@ -7222,7 +7244,7 @@
         <v>24.8</v>
       </c>
       <c r="K136" t="n">
-        <v>-6.122448979591772</v>
+        <v>7.142857142857252</v>
       </c>
       <c r="L136" t="n">
         <v>36.75999999999998</v>
@@ -7273,7 +7295,7 @@
         <v>24.8</v>
       </c>
       <c r="K137" t="n">
-        <v>-8.333333333333297</v>
+        <v>7.142857142857252</v>
       </c>
       <c r="L137" t="n">
         <v>36.77999999999999</v>
@@ -7324,7 +7346,7 @@
         <v>25</v>
       </c>
       <c r="K138" t="n">
-        <v>-8.333333333333297</v>
+        <v>3.448275862069016</v>
       </c>
       <c r="L138" t="n">
         <v>36.77999999999999</v>
@@ -7375,7 +7397,7 @@
         <v>25.1</v>
       </c>
       <c r="K139" t="n">
-        <v>2.325581395348868</v>
+        <v>-20</v>
       </c>
       <c r="L139" t="n">
         <v>36.77999999999999</v>
@@ -7426,7 +7448,7 @@
         <v>25.1</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L140" t="n">
         <v>36.72999999999998</v>
@@ -7477,7 +7499,7 @@
         <v>25.1</v>
       </c>
       <c r="K141" t="n">
-        <v>4.999999999999885</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>36.67999999999999</v>
@@ -7528,7 +7550,7 @@
         <v>25.1</v>
       </c>
       <c r="K142" t="n">
-        <v>-2.702702702702734</v>
+        <v>-66.66666666666727</v>
       </c>
       <c r="L142" t="n">
         <v>36.67999999999999</v>
@@ -7579,7 +7601,7 @@
         <v>25.3</v>
       </c>
       <c r="K143" t="n">
-        <v>5.263157894736901</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L143" t="n">
         <v>36.61999999999999</v>
@@ -7630,7 +7652,7 @@
         <v>25.50000000000001</v>
       </c>
       <c r="K144" t="n">
-        <v>-8.108108108108201</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L144" t="n">
         <v>36.51999999999999</v>
@@ -7681,7 +7703,7 @@
         <v>25.50000000000001</v>
       </c>
       <c r="K145" t="n">
-        <v>-8.108108108108201</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L145" t="n">
         <v>36.48999999999999</v>
@@ -7732,7 +7754,7 @@
         <v>25.60000000000001</v>
       </c>
       <c r="K146" t="n">
-        <v>-10.5263157894738</v>
+        <v>-50</v>
       </c>
       <c r="L146" t="n">
         <v>36.44999999999999</v>
@@ -7783,7 +7805,7 @@
         <v>25.7</v>
       </c>
       <c r="K147" t="n">
-        <v>-8.108108108108025</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L147" t="n">
         <v>36.39999999999999</v>
@@ -7834,7 +7856,7 @@
         <v>26.2</v>
       </c>
       <c r="K148" t="n">
-        <v>-19.04761904761897</v>
+        <v>-63.63636363636317</v>
       </c>
       <c r="L148" t="n">
         <v>36.31999999999999</v>
@@ -7885,7 +7907,7 @@
         <v>26.3</v>
       </c>
       <c r="K149" t="n">
-        <v>-19.04761904761897</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L149" t="n">
         <v>36.23999999999999</v>
@@ -7936,7 +7958,7 @@
         <v>26.40000000000001</v>
       </c>
       <c r="K150" t="n">
-        <v>-36.84210526315781</v>
+        <v>-69.2307692307689</v>
       </c>
       <c r="L150" t="n">
         <v>36.14999999999999</v>
@@ -7987,7 +8009,7 @@
         <v>26.50000000000001</v>
       </c>
       <c r="K151" t="n">
-        <v>-33.33333333333321</v>
+        <v>-57.14285714285671</v>
       </c>
       <c r="L151" t="n">
         <v>36.07</v>
@@ -8038,7 +8060,7 @@
         <v>27.30000000000001</v>
       </c>
       <c r="K152" t="n">
-        <v>-38.09523809523804</v>
+        <v>-89.99999999999989</v>
       </c>
       <c r="L152" t="n">
         <v>35.91</v>
@@ -8089,7 +8111,7 @@
         <v>27.90000000000001</v>
       </c>
       <c r="K153" t="n">
-        <v>-45.00000000000003</v>
+        <v>-41.66666666666657</v>
       </c>
       <c r="L153" t="n">
         <v>35.79</v>
@@ -8140,7 +8162,7 @@
         <v>28.00000000000001</v>
       </c>
       <c r="K154" t="n">
-        <v>-48.71794871794852</v>
+        <v>-35.99999999999984</v>
       </c>
       <c r="L154" t="n">
         <v>35.7</v>
@@ -8191,7 +8213,7 @@
         <v>28.10000000000002</v>
       </c>
       <c r="K155" t="n">
-        <v>-33.33333333333319</v>
+        <v>-27.99999999999975</v>
       </c>
       <c r="L155" t="n">
         <v>35.62</v>
@@ -8242,7 +8264,7 @@
         <v>28.20000000000002</v>
       </c>
       <c r="K156" t="n">
-        <v>-29.41176470588218</v>
+        <v>-19.99999999999989</v>
       </c>
       <c r="L156" t="n">
         <v>35.56</v>
@@ -8293,7 +8315,7 @@
         <v>28.30000000000002</v>
       </c>
       <c r="K157" t="n">
-        <v>-31.42857142857128</v>
+        <v>-4.761904761904794</v>
       </c>
       <c r="L157" t="n">
         <v>35.50000000000001</v>
@@ -8344,7 +8366,7 @@
         <v>28.30000000000002</v>
       </c>
       <c r="K158" t="n">
-        <v>-27.27272727272708</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
         <v>35.49000000000001</v>
@@ -8395,7 +8417,7 @@
         <v>28.50000000000002</v>
       </c>
       <c r="K159" t="n">
-        <v>-29.41176470588218</v>
+        <v>-4.761904761904794</v>
       </c>
       <c r="L159" t="n">
         <v>35.47000000000001</v>
@@ -8446,7 +8468,7 @@
         <v>28.50000000000002</v>
       </c>
       <c r="K160" t="n">
-        <v>-29.41176470588218</v>
+        <v>-10.00000000000007</v>
       </c>
       <c r="L160" t="n">
         <v>35.46</v>
@@ -8497,7 +8519,7 @@
         <v>28.90000000000002</v>
       </c>
       <c r="K161" t="n">
-        <v>-36.84210526315768</v>
+        <v>12.50000000000011</v>
       </c>
       <c r="L161" t="n">
         <v>35.4</v>
@@ -8548,7 +8570,7 @@
         <v>28.90000000000002</v>
       </c>
       <c r="K162" t="n">
-        <v>-36.84210526315768</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L162" t="n">
         <v>35.42</v>
@@ -8599,7 +8621,7 @@
         <v>28.90000000000002</v>
       </c>
       <c r="K163" t="n">
-        <v>-44.44444444444429</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L163" t="n">
         <v>35.38</v>
@@ -8650,7 +8672,7 @@
         <v>28.90000000000002</v>
       </c>
       <c r="K164" t="n">
-        <v>-41.1764705882351</v>
+        <v>-74.99999999999977</v>
       </c>
       <c r="L164" t="n">
         <v>35.33</v>
@@ -8701,7 +8723,7 @@
         <v>29.10000000000002</v>
       </c>
       <c r="K165" t="n">
-        <v>-44.44444444444429</v>
+        <v>-100</v>
       </c>
       <c r="L165" t="n">
         <v>35.25</v>
@@ -8752,7 +8774,7 @@
         <v>29.70000000000002</v>
       </c>
       <c r="K166" t="n">
-        <v>-21.951219512195</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L166" t="n">
         <v>35.22</v>
@@ -8803,7 +8825,7 @@
         <v>29.70000000000002</v>
       </c>
       <c r="K167" t="n">
-        <v>-20</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L167" t="n">
         <v>35.2</v>
@@ -8854,7 +8876,7 @@
         <v>29.70000000000002</v>
       </c>
       <c r="K168" t="n">
-        <v>-8.57142857142864</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
         <v>35.17999999999999</v>
@@ -8905,7 +8927,7 @@
         <v>29.70000000000002</v>
       </c>
       <c r="K169" t="n">
-        <v>-5.88235294117652</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
         <v>35.17999999999999</v>
@@ -8956,7 +8978,7 @@
         <v>29.80000000000003</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L170" t="n">
         <v>35.18999999999999</v>
@@ -9007,7 +9029,7 @@
         <v>30.20000000000002</v>
       </c>
       <c r="K171" t="n">
-        <v>-13.51351351351345</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L171" t="n">
         <v>35.2</v>
@@ -9058,7 +9080,7 @@
         <v>30.70000000000002</v>
       </c>
       <c r="K172" t="n">
-        <v>23.52941176470592</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L172" t="n">
         <v>35.26</v>
@@ -9109,7 +9131,7 @@
         <v>30.70000000000002</v>
       </c>
       <c r="K173" t="n">
-        <v>7.142857142857216</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L173" t="n">
         <v>35.32</v>
@@ -9160,7 +9182,7 @@
         <v>30.70000000000002</v>
       </c>
       <c r="K174" t="n">
-        <v>3.703703703703742</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L174" t="n">
         <v>35.38</v>
@@ -9211,7 +9233,7 @@
         <v>30.80000000000003</v>
       </c>
       <c r="K175" t="n">
-        <v>3.703703703703742</v>
+        <v>27.27272727272763</v>
       </c>
       <c r="L175" t="n">
         <v>35.47</v>
@@ -9262,7 +9284,7 @@
         <v>30.80000000000003</v>
       </c>
       <c r="K176" t="n">
-        <v>0</v>
+        <v>27.27272727272763</v>
       </c>
       <c r="L176" t="n">
         <v>35.5</v>
@@ -9313,7 +9335,7 @@
         <v>31.00000000000003</v>
       </c>
       <c r="K177" t="n">
-        <v>-3.703703703703742</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L177" t="n">
         <v>35.51000000000001</v>
@@ -9364,7 +9386,7 @@
         <v>31.70000000000003</v>
       </c>
       <c r="K178" t="n">
-        <v>17.64705882352939</v>
+        <v>40.00000000000007</v>
       </c>
       <c r="L178" t="n">
         <v>35.59</v>
@@ -9415,7 +9437,7 @@
         <v>31.90000000000003</v>
       </c>
       <c r="K179" t="n">
-        <v>17.64705882352939</v>
+        <v>23.80952380952371</v>
       </c>
       <c r="L179" t="n">
         <v>35.65000000000001</v>
@@ -9466,7 +9488,7 @@
         <v>32.10000000000004</v>
       </c>
       <c r="K180" t="n">
-        <v>11.11111111111102</v>
+        <v>36.84210526315742</v>
       </c>
       <c r="L180" t="n">
         <v>35.68000000000001</v>
@@ -9517,7 +9539,7 @@
         <v>32.30000000000004</v>
       </c>
       <c r="K181" t="n">
-        <v>29.41176470588218</v>
+        <v>24.99999999999967</v>
       </c>
       <c r="L181" t="n">
         <v>35.77</v>
@@ -9568,7 +9590,7 @@
         <v>32.70000000000004</v>
       </c>
       <c r="K182" t="n">
-        <v>36.84210526315768</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L182" t="n">
         <v>35.85</v>
@@ -9619,7 +9641,7 @@
         <v>32.70000000000004</v>
       </c>
       <c r="K183" t="n">
-        <v>36.84210526315768</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L183" t="n">
         <v>35.92999999999999</v>
@@ -9670,7 +9692,7 @@
         <v>32.70000000000004</v>
       </c>
       <c r="K184" t="n">
-        <v>36.84210526315768</v>
+        <v>36.84210526315742</v>
       </c>
       <c r="L184" t="n">
         <v>36.00999999999999</v>
@@ -9721,7 +9743,7 @@
         <v>32.90000000000004</v>
       </c>
       <c r="K185" t="n">
-        <v>47.36842105263146</v>
+        <v>42.85714285714247</v>
       </c>
       <c r="L185" t="n">
         <v>36.09999999999999</v>
@@ -9772,7 +9794,7 @@
         <v>33.00000000000004</v>
       </c>
       <c r="K186" t="n">
-        <v>33.33333333333319</v>
+        <v>49.99999999999964</v>
       </c>
       <c r="L186" t="n">
         <v>36.17999999999999</v>
@@ -9823,7 +9845,7 @@
         <v>33.10000000000004</v>
       </c>
       <c r="K187" t="n">
-        <v>29.41176470588218</v>
+        <v>14.28571428571385</v>
       </c>
       <c r="L187" t="n">
         <v>36.27</v>
@@ -9874,7 +9896,7 @@
         <v>33.10000000000004</v>
       </c>
       <c r="K188" t="n">
-        <v>29.41176470588218</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L188" t="n">
         <v>36.28999999999999</v>
@@ -9925,7 +9947,7 @@
         <v>33.10000000000004</v>
       </c>
       <c r="K189" t="n">
-        <v>29.41176470588218</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L189" t="n">
         <v>36.32999999999999</v>
@@ -9976,7 +9998,7 @@
         <v>33.10000000000004</v>
       </c>
       <c r="K190" t="n">
-        <v>27.27272727272708</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L190" t="n">
         <v>36.38999999999999</v>
@@ -10027,7 +10049,7 @@
         <v>33.40000000000004</v>
       </c>
       <c r="K191" t="n">
-        <v>31.24999999999983</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L191" t="n">
         <v>36.39999999999999</v>
@@ -10078,7 +10100,7 @@
         <v>33.80000000000004</v>
       </c>
       <c r="K192" t="n">
-        <v>29.03225806451594</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L192" t="n">
         <v>36.40999999999999</v>
@@ -10129,7 +10151,7 @@
         <v>34.10000000000004</v>
       </c>
       <c r="K193" t="n">
-        <v>17.64705882352939</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L193" t="n">
         <v>36.38999999999999</v>
@@ -10180,7 +10202,7 @@
         <v>34.20000000000003</v>
       </c>
       <c r="K194" t="n">
-        <v>19.99999999999984</v>
+        <v>-23.07692307692358</v>
       </c>
       <c r="L194" t="n">
         <v>36.38</v>
@@ -10231,7 +10253,7 @@
         <v>34.30000000000003</v>
       </c>
       <c r="K195" t="n">
-        <v>19.99999999999984</v>
+        <v>-7.69230769230786</v>
       </c>
       <c r="L195" t="n">
         <v>36.35999999999999</v>
@@ -10282,7 +10304,7 @@
         <v>34.50000000000004</v>
       </c>
       <c r="K196" t="n">
-        <v>24.32432432432422</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L196" t="n">
         <v>36.36999999999999</v>
@@ -10333,7 +10355,7 @@
         <v>34.60000000000004</v>
       </c>
       <c r="K197" t="n">
-        <v>27.77777777777771</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L197" t="n">
         <v>36.38</v>
@@ -10384,7 +10406,7 @@
         <v>34.90000000000003</v>
       </c>
       <c r="K198" t="n">
-        <v>0</v>
+        <v>-11.11111111111093</v>
       </c>
       <c r="L198" t="n">
         <v>36.36</v>
@@ -10435,7 +10457,7 @@
         <v>35.10000000000004</v>
       </c>
       <c r="K199" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L199" t="n">
         <v>36.32</v>
@@ -10486,7 +10508,7 @@
         <v>35.20000000000004</v>
       </c>
       <c r="K200" t="n">
-        <v>9.677419354838843</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>36.29000000000001</v>
@@ -10537,7 +10559,7 @@
         <v>35.20000000000004</v>
       </c>
       <c r="K201" t="n">
-        <v>3.448275862069016</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L201" t="n">
         <v>36.29000000000001</v>
@@ -10588,7 +10610,7 @@
         <v>35.30000000000004</v>
       </c>
       <c r="K202" t="n">
-        <v>-15.38461538461532</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L202" t="n">
         <v>36.24</v>
@@ -10639,7 +10661,7 @@
         <v>35.60000000000004</v>
       </c>
       <c r="K203" t="n">
-        <v>-24.13793103448262</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L203" t="n">
         <v>36.19</v>
@@ -10690,7 +10712,7 @@
         <v>36.40000000000004</v>
       </c>
       <c r="K204" t="n">
-        <v>-40.54054054054051</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L204" t="n">
         <v>36.05</v>
@@ -10741,7 +10763,7 @@
         <v>36.60000000000004</v>
       </c>
       <c r="K205" t="n">
-        <v>-51.35135135135137</v>
+        <v>-90.47619047619034</v>
       </c>
       <c r="L205" t="n">
         <v>35.88</v>
@@ -10792,7 +10814,7 @@
         <v>37.40000000000003</v>
       </c>
       <c r="K206" t="n">
-        <v>-22.72727272727277</v>
+        <v>-35.71428571428575</v>
       </c>
       <c r="L206" t="n">
         <v>35.77</v>
@@ -10843,7 +10865,7 @@
         <v>37.70000000000003</v>
       </c>
       <c r="K207" t="n">
-        <v>-26.08695652173911</v>
+        <v>-35.71428571428575</v>
       </c>
       <c r="L207" t="n">
         <v>35.64</v>
@@ -10894,7 +10916,7 @@
         <v>38.00000000000003</v>
       </c>
       <c r="K208" t="n">
-        <v>-18.36734693877554</v>
+        <v>-17.24137931034488</v>
       </c>
       <c r="L208" t="n">
         <v>35.57</v>
@@ -10945,7 +10967,7 @@
         <v>38.30000000000003</v>
       </c>
       <c r="K209" t="n">
-        <v>-23.07692307692308</v>
+        <v>-29.0322580645162</v>
       </c>
       <c r="L209" t="n">
         <v>35.48999999999999</v>
@@ -10996,7 +11018,7 @@
         <v>38.50000000000002</v>
       </c>
       <c r="K210" t="n">
-        <v>-18.51851851851859</v>
+        <v>-21.21212121212141</v>
       </c>
       <c r="L210" t="n">
         <v>35.41999999999999</v>
@@ -11047,7 +11069,7 @@
         <v>38.50000000000002</v>
       </c>
       <c r="K211" t="n">
-        <v>-13.72549019607854</v>
+        <v>-18.75000000000015</v>
       </c>
       <c r="L211" t="n">
         <v>35.34999999999999</v>
@@ -11098,7 +11120,7 @@
         <v>38.70000000000002</v>
       </c>
       <c r="K212" t="n">
-        <v>-26.53061224489802</v>
+        <v>-16.12903225806462</v>
       </c>
       <c r="L212" t="n">
         <v>35.26999999999999</v>
@@ -11149,7 +11171,7 @@
         <v>39.00000000000001</v>
       </c>
       <c r="K213" t="n">
-        <v>-14.28571428571441</v>
+        <v>23.07692307692337</v>
       </c>
       <c r="L213" t="n">
         <v>35.24999999999999</v>
@@ -11200,7 +11222,7 @@
         <v>39.00000000000001</v>
       </c>
       <c r="K214" t="n">
-        <v>-16.66666666666666</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L214" t="n">
         <v>35.30999999999999</v>
@@ -11251,7 +11273,7 @@
         <v>39.00000000000001</v>
       </c>
       <c r="K215" t="n">
-        <v>-19.14893617021281</v>
+        <v>0</v>
       </c>
       <c r="L215" t="n">
         <v>35.38999999999999</v>
@@ -11302,7 +11324,7 @@
         <v>39.20000000000002</v>
       </c>
       <c r="K216" t="n">
-        <v>-19.14893617021281</v>
+        <v>33.33333333333365</v>
       </c>
       <c r="L216" t="n">
         <v>35.40999999999999</v>
@@ -11353,7 +11375,7 @@
         <v>39.50000000000001</v>
       </c>
       <c r="K217" t="n">
-        <v>-10.20408163265311</v>
+        <v>33.33333333333365</v>
       </c>
       <c r="L217" t="n">
         <v>35.48999999999999</v>
@@ -11404,7 +11426,7 @@
         <v>39.70000000000002</v>
       </c>
       <c r="K218" t="n">
-        <v>0</v>
+        <v>71.42857142857186</v>
       </c>
       <c r="L218" t="n">
         <v>35.55999999999999</v>
@@ -11455,7 +11477,7 @@
         <v>39.70000000000002</v>
       </c>
       <c r="K219" t="n">
-        <v>4.347826086956602</v>
+        <v>66.66666666666727</v>
       </c>
       <c r="L219" t="n">
         <v>35.65999999999999</v>
@@ -11506,7 +11528,7 @@
         <v>39.90000000000001</v>
       </c>
       <c r="K220" t="n">
-        <v>6.382978723404229</v>
+        <v>71.42857142857186</v>
       </c>
       <c r="L220" t="n">
         <v>35.75999999999999</v>
@@ -11557,7 +11579,7 @@
         <v>40.00000000000001</v>
       </c>
       <c r="K221" t="n">
-        <v>4.166666666666599</v>
+        <v>84.61538461538436</v>
       </c>
       <c r="L221" t="n">
         <v>35.84999999999999</v>
@@ -11608,7 +11630,7 @@
         <v>40.10000000000001</v>
       </c>
       <c r="K222" t="n">
-        <v>4.166666666666753</v>
+        <v>63.63636363636422</v>
       </c>
       <c r="L222" t="n">
         <v>35.95</v>
@@ -11659,7 +11681,7 @@
         <v>40.20000000000001</v>
       </c>
       <c r="K223" t="n">
-        <v>8.695652173913064</v>
+        <v>50.0000000000003</v>
       </c>
       <c r="L223" t="n">
         <v>36.01</v>
@@ -11710,7 +11732,7 @@
         <v>40.50000000000001</v>
       </c>
       <c r="K224" t="n">
-        <v>36.58536585365884</v>
+        <v>60.00000000000018</v>
       </c>
       <c r="L224" t="n">
         <v>36.09999999999999</v>
@@ -11761,7 +11783,7 @@
         <v>40.7</v>
       </c>
       <c r="K225" t="n">
-        <v>36.58536585365884</v>
+        <v>33.33333333333365</v>
       </c>
       <c r="L225" t="n">
         <v>36.16999999999999</v>
@@ -11812,7 +11834,7 @@
         <v>40.7</v>
       </c>
       <c r="K226" t="n">
-        <v>21.2121212121215</v>
+        <v>16.66666666666706</v>
       </c>
       <c r="L226" t="n">
         <v>36.21999999999999</v>
@@ -11863,7 +11885,7 @@
         <v>40.8</v>
       </c>
       <c r="K227" t="n">
-        <v>29.03225806451634</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L227" t="n">
         <v>36.23</v>
@@ -11914,7 +11936,7 @@
         <v>41</v>
       </c>
       <c r="K228" t="n">
-        <v>26.66666666666683</v>
+        <v>7.692307692307356</v>
       </c>
       <c r="L228" t="n">
         <v>36.23999999999999</v>
@@ -11965,7 +11987,7 @@
         <v>41.1</v>
       </c>
       <c r="K229" t="n">
-        <v>42.85714285714307</v>
+        <v>0</v>
       </c>
       <c r="L229" t="n">
         <v>36.26</v>
@@ -12016,7 +12038,7 @@
         <v>41.3</v>
       </c>
       <c r="K230" t="n">
-        <v>28.57142857142897</v>
+        <v>-7.692307692307356</v>
       </c>
       <c r="L230" t="n">
         <v>36.23999999999999</v>
@@ -12067,7 +12089,7 @@
         <v>41.49999999999999</v>
       </c>
       <c r="K231" t="n">
-        <v>33.33333333333365</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L231" t="n">
         <v>36.24999999999999</v>
@@ -12118,7 +12140,7 @@
         <v>41.59999999999999</v>
       </c>
       <c r="K232" t="n">
-        <v>44.82758620689681</v>
+        <v>28.57142857142879</v>
       </c>
       <c r="L232" t="n">
         <v>36.27999999999999</v>
@@ -12169,7 +12191,7 @@
         <v>41.59999999999999</v>
       </c>
       <c r="K233" t="n">
-        <v>38.46153846153876</v>
+        <v>9.090909090909326</v>
       </c>
       <c r="L233" t="n">
         <v>36.31999999999999</v>
@@ -12220,7 +12242,7 @@
         <v>41.7</v>
       </c>
       <c r="K234" t="n">
-        <v>40.74074074074107</v>
+        <v>40.00000000000014</v>
       </c>
       <c r="L234" t="n">
         <v>36.34</v>
@@ -12271,7 +12293,7 @@
         <v>41.7</v>
       </c>
       <c r="K235" t="n">
-        <v>40.74074074074107</v>
+        <v>40.00000000000014</v>
       </c>
       <c r="L235" t="n">
         <v>36.38</v>
@@ -12322,7 +12344,7 @@
         <v>41.9</v>
       </c>
       <c r="K236" t="n">
-        <v>25.92592592592595</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L236" t="n">
         <v>36.4</v>
@@ -12373,7 +12395,7 @@
         <v>42</v>
       </c>
       <c r="K237" t="n">
-        <v>11.99999999999996</v>
+        <v>0</v>
       </c>
       <c r="L237" t="n">
         <v>36.42</v>
@@ -12424,7 +12446,7 @@
         <v>42</v>
       </c>
       <c r="K238" t="n">
-        <v>4.347826086956307</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L238" t="n">
         <v>36.42</v>
@@ -12475,7 +12497,7 @@
         <v>42</v>
       </c>
       <c r="K239" t="n">
-        <v>4.347826086956307</v>
+        <v>14.28571428571342</v>
       </c>
       <c r="L239" t="n">
         <v>36.41</v>
@@ -12526,7 +12548,7 @@
         <v>42.2</v>
       </c>
       <c r="K240" t="n">
-        <v>4.347826086956602</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L240" t="n">
         <v>36.44</v>
@@ -12577,7 +12599,7 @@
         <v>42.2</v>
       </c>
       <c r="K241" t="n">
-        <v>9.090909090909268</v>
+        <v>0</v>
       </c>
       <c r="L241" t="n">
         <v>36.45</v>
@@ -12628,7 +12650,7 @@
         <v>42.3</v>
       </c>
       <c r="K242" t="n">
-        <v>18.18181818181815</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L242" t="n">
         <v>36.46000000000001</v>
@@ -12679,7 +12701,7 @@
         <v>43.10000000000001</v>
       </c>
       <c r="K243" t="n">
-        <v>-10.34482758620705</v>
+        <v>-57.14285714285693</v>
       </c>
       <c r="L243" t="n">
         <v>36.39000000000001</v>
@@ -12730,7 +12752,7 @@
         <v>43.80000000000001</v>
       </c>
       <c r="K244" t="n">
-        <v>3.03030303030307</v>
+        <v>-4.761904761904794</v>
       </c>
       <c r="L244" t="n">
         <v>36.38000000000001</v>
@@ -12781,7 +12803,7 @@
         <v>43.80000000000001</v>
       </c>
       <c r="K245" t="n">
-        <v>9.677419354838591</v>
+        <v>5.263157894736882</v>
       </c>
       <c r="L245" t="n">
         <v>36.37</v>
@@ -12832,7 +12854,7 @@
         <v>43.80000000000001</v>
       </c>
       <c r="K246" t="n">
-        <v>9.677419354838591</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L246" t="n">
         <v>36.38000000000001</v>
@@ -12883,7 +12905,7 @@
         <v>43.90000000000001</v>
       </c>
       <c r="K247" t="n">
-        <v>9.677419354838591</v>
+        <v>5.263157894736882</v>
       </c>
       <c r="L247" t="n">
         <v>36.39</v>
@@ -12934,7 +12956,7 @@
         <v>44.10000000000002</v>
       </c>
       <c r="K248" t="n">
-        <v>9.677419354838799</v>
+        <v>14.28571428571438</v>
       </c>
       <c r="L248" t="n">
         <v>36.42</v>
@@ -12985,7 +13007,7 @@
         <v>44.30000000000001</v>
       </c>
       <c r="K249" t="n">
-        <v>12.49999999999992</v>
+        <v>14.28571428571409</v>
       </c>
       <c r="L249" t="n">
         <v>36.47000000000001</v>
@@ -13036,7 +13058,7 @@
         <v>44.40000000000001</v>
       </c>
       <c r="K250" t="n">
-        <v>16.12903225806447</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L250" t="n">
         <v>36.49</v>
@@ -13087,7 +13109,7 @@
         <v>44.40000000000001</v>
       </c>
       <c r="K251" t="n">
-        <v>10.344827586207</v>
+        <v>4.761904761904826</v>
       </c>
       <c r="L251" t="n">
         <v>36.51000000000001</v>
@@ -13138,7 +13160,7 @@
         <v>44.50000000000001</v>
       </c>
       <c r="K252" t="n">
-        <v>3.448275862068999</v>
+        <v>57.14285714285751</v>
       </c>
       <c r="L252" t="n">
         <v>36.51000000000001</v>
@@ -13189,7 +13211,7 @@
         <v>44.50000000000001</v>
       </c>
       <c r="K253" t="n">
-        <v>3.448275862068999</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L253" t="n">
         <v>36.59</v>
@@ -13240,7 +13262,7 @@
         <v>44.50000000000001</v>
       </c>
       <c r="K254" t="n">
-        <v>0</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L254" t="n">
         <v>36.60000000000001</v>
@@ -13291,7 +13313,7 @@
         <v>44.60000000000001</v>
       </c>
       <c r="K255" t="n">
-        <v>-3.448275862068999</v>
+        <v>0</v>
       </c>
       <c r="L255" t="n">
         <v>36.60000000000001</v>
@@ -13342,7 +13364,7 @@
         <v>44.90000000000001</v>
       </c>
       <c r="K256" t="n">
-        <v>13.33333333333326</v>
+        <v>40.00000000000014</v>
       </c>
       <c r="L256" t="n">
         <v>36.63000000000001</v>
@@ -13393,7 +13415,7 @@
         <v>45.1</v>
       </c>
       <c r="K257" t="n">
-        <v>9.677419354838843</v>
+        <v>0</v>
       </c>
       <c r="L257" t="n">
         <v>36.65000000000001</v>
@@ -13444,7 +13466,7 @@
         <v>45.3</v>
       </c>
       <c r="K258" t="n">
-        <v>3.03030303030307</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L258" t="n">
         <v>36.63000000000001</v>
@@ -13495,7 +13517,7 @@
         <v>45.40000000000001</v>
       </c>
       <c r="K259" t="n">
-        <v>5.882352941176544</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L259" t="n">
         <v>36.60000000000001</v>
@@ -13546,7 +13568,7 @@
         <v>45.40000000000001</v>
       </c>
       <c r="K260" t="n">
-        <v>0</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L260" t="n">
         <v>36.58000000000001</v>
@@ -13597,7 +13619,7 @@
         <v>45.40000000000001</v>
       </c>
       <c r="K261" t="n">
-        <v>0</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L261" t="n">
         <v>36.56000000000001</v>
@@ -13648,7 +13670,7 @@
         <v>45.40000000000001</v>
       </c>
       <c r="K262" t="n">
-        <v>-3.225806451612947</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L262" t="n">
         <v>36.55</v>
@@ -13699,7 +13721,7 @@
         <v>45.50000000000001</v>
       </c>
       <c r="K263" t="n">
-        <v>25.00000000000007</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L263" t="n">
         <v>36.53</v>
@@ -13750,7 +13772,7 @@
         <v>45.50000000000001</v>
       </c>
       <c r="K264" t="n">
-        <v>-5.882352941176569</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L264" t="n">
         <v>36.51</v>
@@ -13805,7 +13827,7 @@
         <v>45.60000000000001</v>
       </c>
       <c r="K265" t="n">
-        <v>-11.11111111111129</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L265" t="n">
         <v>36.48999999999999</v>
@@ -13862,7 +13884,7 @@
         <v>45.7</v>
       </c>
       <c r="K266" t="n">
-        <v>-15.78947368421045</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L266" t="n">
         <v>36.42999999999999</v>
@@ -13919,7 +13941,7 @@
         <v>45.8</v>
       </c>
       <c r="K267" t="n">
-        <v>-5.263157894736961</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L267" t="n">
         <v>36.39999999999999</v>
@@ -13976,7 +13998,7 @@
         <v>45.8</v>
       </c>
       <c r="K268" t="n">
-        <v>-17.64705882352985</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L268" t="n">
         <v>36.39</v>
@@ -14035,7 +14057,7 @@
         <v>45.9</v>
       </c>
       <c r="K269" t="n">
-        <v>-25.00000000000011</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L269" t="n">
         <v>36.38</v>
@@ -14096,7 +14118,7 @@
         <v>46.09999999999999</v>
       </c>
       <c r="K270" t="n">
-        <v>-29.41176470588255</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L270" t="n">
         <v>36.34999999999999</v>
@@ -14159,7 +14181,7 @@
         <v>46.29999999999999</v>
       </c>
       <c r="K271" t="n">
-        <v>-15.78947368421088</v>
+        <v>-11.11111111111146</v>
       </c>
       <c r="L271" t="n">
         <v>36.33999999999999</v>
@@ -14220,7 +14242,7 @@
         <v>46.39999999999999</v>
       </c>
       <c r="K272" t="n">
-        <v>-15.78947368421088</v>
+        <v>-11.11111111111146</v>
       </c>
       <c r="L272" t="n">
         <v>36.31999999999999</v>
@@ -14283,7 +14305,7 @@
         <v>46.8</v>
       </c>
       <c r="K273" t="n">
-        <v>4.347826086956602</v>
+        <v>23.07692307692358</v>
       </c>
       <c r="L273" t="n">
         <v>36.34999999999999</v>
@@ -14344,7 +14366,7 @@
         <v>47.1</v>
       </c>
       <c r="K274" t="n">
-        <v>-7.692307692307819</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L274" t="n">
         <v>36.34999999999999</v>
@@ -14405,7 +14427,7 @@
         <v>47.2</v>
       </c>
       <c r="K275" t="n">
-        <v>0</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="L275" t="n">
         <v>36.36999999999999</v>
@@ -14466,7 +14488,7 @@
         <v>47.3</v>
       </c>
       <c r="K276" t="n">
-        <v>-16.66666666666662</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L276" t="n">
         <v>36.38999999999999</v>
@@ -14527,7 +14549,7 @@
         <v>47.40000000000001</v>
       </c>
       <c r="K277" t="n">
-        <v>-4.347826086956576</v>
+        <v>12.50000000000011</v>
       </c>
       <c r="L277" t="n">
         <v>36.40999999999999</v>
@@ -14588,7 +14610,7 @@
         <v>47.60000000000001</v>
       </c>
       <c r="K278" t="n">
-        <v>-4.347826086956576</v>
+        <v>-5.88235294117652</v>
       </c>
       <c r="L278" t="n">
         <v>36.40999999999999</v>
@@ -14645,7 +14667,7 @@
         <v>47.60000000000001</v>
       </c>
       <c r="K279" t="n">
-        <v>-9.090909090909207</v>
+        <v>6.666666666666224</v>
       </c>
       <c r="L279" t="n">
         <v>36.39999999999999</v>
@@ -14702,7 +14724,7 @@
         <v>47.70000000000001</v>
       </c>
       <c r="K280" t="n">
-        <v>-4.347826086956576</v>
+        <v>0</v>
       </c>
       <c r="L280" t="n">
         <v>36.41999999999999</v>
@@ -14759,7 +14781,7 @@
         <v>47.70000000000001</v>
       </c>
       <c r="K281" t="n">
-        <v>-4.347826086956576</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L281" t="n">
         <v>36.41999999999999</v>
@@ -14816,7 +14838,7 @@
         <v>47.80000000000001</v>
       </c>
       <c r="K282" t="n">
-        <v>-8.333333333333432</v>
+        <v>-40</v>
       </c>
       <c r="L282" t="n">
         <v>36.41999999999999</v>
@@ -14873,7 +14895,7 @@
         <v>47.80000000000001</v>
       </c>
       <c r="K283" t="n">
-        <v>-4.347826086956576</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L283" t="n">
         <v>36.38</v>
@@ -14930,7 +14952,7 @@
         <v>47.80000000000001</v>
       </c>
       <c r="K284" t="n">
-        <v>-4.347826086956576</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L284" t="n">
         <v>36.37</v>
@@ -14987,7 +15009,7 @@
         <v>47.80000000000001</v>
       </c>
       <c r="K285" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L285" t="n">
         <v>36.35</v>
@@ -15038,7 +15060,7 @@
         <v>48.10000000000002</v>
       </c>
       <c r="K286" t="n">
-        <v>16.66666666666652</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L286" t="n">
         <v>36.37</v>
@@ -15191,7 +15213,7 @@
         <v>48.40000000000002</v>
       </c>
       <c r="K289" t="n">
-        <v>-4.000000000000023</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L289" t="n">
         <v>36.35000000000001</v>
@@ -15242,7 +15264,7 @@
         <v>48.40000000000002</v>
       </c>
       <c r="K290" t="n">
-        <v>4.347826086956226</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L290" t="n">
         <v>36.34000000000001</v>
@@ -15293,7 +15315,7 @@
         <v>48.40000000000002</v>
       </c>
       <c r="K291" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L291" t="n">
         <v>36.33000000000001</v>
@@ -15344,7 +15366,7 @@
         <v>48.80000000000002</v>
       </c>
       <c r="K292" t="n">
-        <v>-16.66666666666642</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L292" t="n">
         <v>36.29000000000001</v>
@@ -15395,7 +15417,7 @@
         <v>49.30000000000002</v>
       </c>
       <c r="K293" t="n">
-        <v>-12.00000000000007</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L293" t="n">
         <v>36.3</v>
@@ -15446,7 +15468,7 @@
         <v>49.50000000000001</v>
       </c>
       <c r="K294" t="n">
-        <v>-8.33333333333311</v>
+        <v>-5.882352941176126</v>
       </c>
       <c r="L294" t="n">
         <v>36.29000000000001</v>
@@ -15497,7 +15519,7 @@
         <v>49.50000000000001</v>
       </c>
       <c r="K295" t="n">
-        <v>-13.04347826086938</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L295" t="n">
         <v>36.28</v>
@@ -15548,7 +15570,7 @@
         <v>49.80000000000002</v>
       </c>
       <c r="K296" t="n">
-        <v>-19.99999999999989</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L296" t="n">
         <v>36.20999999999999</v>
@@ -15599,7 +15621,7 @@
         <v>50.10000000000002</v>
       </c>
       <c r="K297" t="n">
-        <v>-11.11111111111093</v>
+        <v>-5.882352941176126</v>
       </c>
       <c r="L297" t="n">
         <v>36.2</v>

--- a/BackTest/2019-10-24 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-24 BackTest LAMB.xlsx
@@ -1851,17 +1851,13 @@
         <v>34.86333333333334</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="K42" t="n">
-        <v>34.1</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
@@ -1890,22 +1886,14 @@
         <v>34.85500000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="K43" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1933,22 +1921,14 @@
         <v>34.84166666666668</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="K44" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1976,22 +1956,14 @@
         <v>34.82000000000001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="K45" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2028,13 +2000,9 @@
         <v>33.9</v>
       </c>
       <c r="K46" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>33.9</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2071,11 +2039,11 @@
         <v>33.9</v>
       </c>
       <c r="K47" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M47" t="n">
@@ -2111,14 +2079,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="K48" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M48" t="n">
@@ -2154,16 +2122,12 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="K49" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>34.2</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2164,11 @@
         <v>34.5</v>
       </c>
       <c r="K50" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M50" t="n">
@@ -2243,11 +2207,11 @@
         <v>34.5</v>
       </c>
       <c r="K51" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M51" t="n">
@@ -2277,22 +2241,14 @@
         <v>34.71166666666669</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K52" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2320,22 +2276,14 @@
         <v>34.69500000000003</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K53" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2363,22 +2311,14 @@
         <v>34.68333333333337</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K54" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2406,22 +2346,14 @@
         <v>34.67000000000004</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K55" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2449,22 +2381,14 @@
         <v>34.65333333333337</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K56" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2492,22 +2416,14 @@
         <v>34.63333333333336</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K57" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2535,22 +2451,14 @@
         <v>34.61166666666669</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K58" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2578,22 +2486,14 @@
         <v>34.59166666666669</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K59" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2621,22 +2521,14 @@
         <v>34.57166666666669</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="K60" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2664,22 +2556,14 @@
         <v>34.55333333333336</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="K61" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2707,22 +2591,14 @@
         <v>34.54000000000001</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K62" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2750,22 +2626,14 @@
         <v>34.52166666666668</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K63" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2793,22 +2661,14 @@
         <v>34.51166666666668</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K64" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2836,22 +2696,14 @@
         <v>34.49833333333336</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K65" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2879,22 +2731,14 @@
         <v>34.48833333333336</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K66" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2922,22 +2766,14 @@
         <v>34.47833333333336</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K67" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2965,22 +2801,14 @@
         <v>34.47666666666669</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K68" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3008,22 +2836,14 @@
         <v>34.4716666666667</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K69" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3051,22 +2871,14 @@
         <v>34.47833333333337</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="K70" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3094,22 +2906,14 @@
         <v>34.4816666666667</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="K71" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3143,14 +2947,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3184,14 +2982,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3225,14 +3017,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3266,14 +3052,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3307,14 +3087,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3348,14 +3122,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3389,14 +3157,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3430,14 +3192,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3471,14 +3227,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3512,14 +3262,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3553,14 +3297,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3594,14 +3332,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3635,14 +3367,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3676,14 +3402,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3717,14 +3437,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3758,14 +3472,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3796,17 +3504,11 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3837,17 +3539,11 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3878,17 +3574,11 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3919,17 +3609,11 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3960,19 +3644,13 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>1.068313782991202</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -4001,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -4036,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4071,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4141,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4281,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4421,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4456,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4491,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4526,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4561,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>

--- a/BackTest/2019-10-24 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-24 BackTest LAMB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M276"/>
+  <dimension ref="A1:M277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="C2" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="D2" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="E2" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="F2" t="n">
-        <v>1537.9054</v>
+        <v>941.7807</v>
       </c>
       <c r="G2" t="n">
-        <v>35.41833333333334</v>
+        <v>35.43833333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="C3" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="D3" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="E3" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2071.2523</v>
+        <v>1537.9054</v>
       </c>
       <c r="G3" t="n">
-        <v>35.405</v>
+        <v>35.41833333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>35.2</v>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="D4" t="n">
         <v>35.2</v>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="F4" t="n">
-        <v>17068.921</v>
+        <v>2071.2523</v>
       </c>
       <c r="G4" t="n">
-        <v>35.38833333333334</v>
+        <v>35.405</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,10 +538,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="C5" t="n">
         <v>35</v>
-      </c>
-      <c r="C5" t="n">
-        <v>35.2</v>
       </c>
       <c r="D5" t="n">
         <v>35.2</v>
@@ -550,10 +550,10 @@
         <v>35</v>
       </c>
       <c r="F5" t="n">
-        <v>941.199</v>
+        <v>17068.921</v>
       </c>
       <c r="G5" t="n">
-        <v>35.36333333333334</v>
+        <v>35.38833333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,10 +573,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>35</v>
+      </c>
+      <c r="C6" t="n">
         <v>35.2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>35</v>
       </c>
       <c r="D6" t="n">
         <v>35.2</v>
@@ -585,10 +585,10 @@
         <v>35</v>
       </c>
       <c r="F6" t="n">
-        <v>5630.6587</v>
+        <v>941.199</v>
       </c>
       <c r="G6" t="n">
-        <v>35.34</v>
+        <v>35.36333333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="C7" t="n">
         <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="E7" t="n">
         <v>35</v>
       </c>
       <c r="F7" t="n">
-        <v>512.5599999999999</v>
+        <v>5630.6587</v>
       </c>
       <c r="G7" t="n">
-        <v>35.32166666666667</v>
+        <v>35.34</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="C8" t="n">
-        <v>34.7</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="E8" t="n">
-        <v>34.7</v>
+        <v>35</v>
       </c>
       <c r="F8" t="n">
-        <v>13294.607</v>
+        <v>512.5599999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>35.30333333333333</v>
+        <v>35.32166666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="C9" t="n">
-        <v>35.1</v>
+        <v>34.7</v>
       </c>
       <c r="D9" t="n">
-        <v>35.1</v>
+        <v>34.9</v>
       </c>
       <c r="E9" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="F9" t="n">
-        <v>110</v>
+        <v>13294.607</v>
       </c>
       <c r="G9" t="n">
-        <v>35.29999999999999</v>
+        <v>35.30333333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>34.8</v>
       </c>
       <c r="C10" t="n">
-        <v>34.5</v>
+        <v>35.1</v>
       </c>
       <c r="D10" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="E10" t="n">
         <v>34.8</v>
       </c>
-      <c r="E10" t="n">
-        <v>34.5</v>
-      </c>
       <c r="F10" t="n">
-        <v>44111.5567</v>
+        <v>110</v>
       </c>
       <c r="G10" t="n">
-        <v>35.27166666666666</v>
+        <v>35.29999999999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="C11" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D11" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="E11" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F11" t="n">
-        <v>26936.2446</v>
+        <v>44111.5567</v>
       </c>
       <c r="G11" t="n">
-        <v>35.24666666666666</v>
+        <v>35.27166666666666</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>35</v>
+        <v>34.6</v>
       </c>
       <c r="C12" t="n">
-        <v>35</v>
+        <v>34.6</v>
       </c>
       <c r="D12" t="n">
-        <v>35</v>
+        <v>34.6</v>
       </c>
       <c r="E12" t="n">
-        <v>35</v>
+        <v>34.6</v>
       </c>
       <c r="F12" t="n">
-        <v>2857.1428</v>
+        <v>26936.2446</v>
       </c>
       <c r="G12" t="n">
-        <v>35.23833333333333</v>
+        <v>35.24666666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>34.7</v>
+        <v>35</v>
       </c>
       <c r="C13" t="n">
-        <v>34.7</v>
+        <v>35</v>
       </c>
       <c r="D13" t="n">
-        <v>34.7</v>
+        <v>35</v>
       </c>
       <c r="E13" t="n">
-        <v>34.7</v>
+        <v>35</v>
       </c>
       <c r="F13" t="n">
-        <v>1634.4708</v>
+        <v>2857.1428</v>
       </c>
       <c r="G13" t="n">
-        <v>35.21666666666666</v>
+        <v>35.23833333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="C14" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="D14" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="E14" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="F14" t="n">
-        <v>77.4498</v>
+        <v>1634.4708</v>
       </c>
       <c r="G14" t="n">
-        <v>35.20166666666666</v>
+        <v>35.21666666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="C15" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="D15" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="E15" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="F15" t="n">
-        <v>724.0595</v>
+        <v>77.4498</v>
       </c>
       <c r="G15" t="n">
-        <v>35.18333333333332</v>
+        <v>35.20166666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C16" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="D16" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E16" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="F16" t="n">
-        <v>1279.6369</v>
+        <v>724.0595</v>
       </c>
       <c r="G16" t="n">
-        <v>35.16499999999998</v>
+        <v>35.18333333333332</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C17" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="D17" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E17" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="F17" t="n">
-        <v>3048.4922</v>
+        <v>1279.6369</v>
       </c>
       <c r="G17" t="n">
-        <v>35.14499999999998</v>
+        <v>35.16499999999998</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C18" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="D18" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E18" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="F18" t="n">
-        <v>1564.0306</v>
+        <v>3048.4922</v>
       </c>
       <c r="G18" t="n">
-        <v>35.12999999999999</v>
+        <v>35.14499999999998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>34.8</v>
       </c>
       <c r="F19" t="n">
-        <v>43400</v>
+        <v>1564.0306</v>
       </c>
       <c r="G19" t="n">
-        <v>35.11499999999999</v>
+        <v>35.12999999999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>34.8</v>
       </c>
       <c r="F20" t="n">
-        <v>42600</v>
+        <v>43400</v>
       </c>
       <c r="G20" t="n">
-        <v>35.10166666666667</v>
+        <v>35.11499999999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>34.8</v>
       </c>
       <c r="F21" t="n">
-        <v>27265</v>
+        <v>42600</v>
       </c>
       <c r="G21" t="n">
-        <v>35.09166666666667</v>
+        <v>35.10166666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>34.8</v>
       </c>
       <c r="F22" t="n">
-        <v>7471.3126</v>
+        <v>27265</v>
       </c>
       <c r="G22" t="n">
-        <v>35.08166666666667</v>
+        <v>35.09166666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="C23" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="D23" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="E23" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="F23" t="n">
-        <v>50820.0947</v>
+        <v>7471.3126</v>
       </c>
       <c r="G23" t="n">
-        <v>35.08000000000001</v>
+        <v>35.08166666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1209,16 +1209,16 @@
         <v>34.9</v>
       </c>
       <c r="D24" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="E24" t="n">
         <v>34.9</v>
       </c>
       <c r="F24" t="n">
-        <v>783.5796</v>
+        <v>50820.0947</v>
       </c>
       <c r="G24" t="n">
-        <v>35.07833333333334</v>
+        <v>35.08000000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>34.9</v>
       </c>
       <c r="C25" t="n">
-        <v>35.2</v>
+        <v>34.9</v>
       </c>
       <c r="D25" t="n">
-        <v>35.2</v>
+        <v>34.9</v>
       </c>
       <c r="E25" t="n">
         <v>34.9</v>
       </c>
       <c r="F25" t="n">
-        <v>12348.56067642045</v>
+        <v>783.5796</v>
       </c>
       <c r="G25" t="n">
-        <v>35.08166666666667</v>
+        <v>35.07833333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>34.9</v>
       </c>
       <c r="C26" t="n">
-        <v>34.9</v>
+        <v>35.2</v>
       </c>
       <c r="D26" t="n">
-        <v>34.9</v>
+        <v>35.2</v>
       </c>
       <c r="E26" t="n">
         <v>34.9</v>
       </c>
       <c r="F26" t="n">
-        <v>38748.9541</v>
+        <v>12348.56067642045</v>
       </c>
       <c r="G26" t="n">
-        <v>35.08000000000001</v>
+        <v>35.08166666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="C27" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="D27" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="E27" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>38748.9541</v>
       </c>
       <c r="G27" t="n">
-        <v>35.08166666666667</v>
+        <v>35.08000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="C28" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="D28" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="E28" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="F28" t="n">
-        <v>806.6808</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>35.065</v>
+        <v>35.08166666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C29" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="D29" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E29" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="F29" t="n">
-        <v>25054.9039</v>
+        <v>806.6808</v>
       </c>
       <c r="G29" t="n">
-        <v>35.04833333333333</v>
+        <v>35.065</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C30" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="D30" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E30" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="F30" t="n">
-        <v>1469.1704</v>
+        <v>25054.9039</v>
       </c>
       <c r="G30" t="n">
-        <v>35.03166666666667</v>
+        <v>35.04833333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="C31" t="n">
         <v>34.6</v>
       </c>
       <c r="D31" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="E31" t="n">
         <v>34.6</v>
       </c>
       <c r="F31" t="n">
-        <v>5434.4364</v>
+        <v>1469.1704</v>
       </c>
       <c r="G31" t="n">
-        <v>35.02333333333333</v>
+        <v>35.03166666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>34.6</v>
       </c>
       <c r="F32" t="n">
-        <v>3714.5982</v>
+        <v>5434.4364</v>
       </c>
       <c r="G32" t="n">
-        <v>35.01166666666666</v>
+        <v>35.02333333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>34.6</v>
       </c>
       <c r="C33" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="D33" t="n">
         <v>34.6</v>
       </c>
       <c r="E33" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="F33" t="n">
-        <v>42800</v>
+        <v>3714.5982</v>
       </c>
       <c r="G33" t="n">
-        <v>35</v>
+        <v>35.01166666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C34" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="D34" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E34" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F34" t="n">
-        <v>3611.3139</v>
+        <v>42800</v>
       </c>
       <c r="G34" t="n">
-        <v>34.985</v>
+        <v>35</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>34.5</v>
       </c>
       <c r="F35" t="n">
-        <v>5341.9222</v>
+        <v>3611.3139</v>
       </c>
       <c r="G35" t="n">
-        <v>34.97333333333334</v>
+        <v>34.985</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>34.5</v>
       </c>
       <c r="C36" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="D36" t="n">
         <v>34.5</v>
       </c>
       <c r="E36" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F36" t="n">
-        <v>53032.5217</v>
+        <v>5341.9222</v>
       </c>
       <c r="G36" t="n">
-        <v>34.95500000000001</v>
+        <v>34.97333333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C37" t="n">
         <v>34.4</v>
       </c>
       <c r="D37" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="E37" t="n">
         <v>34.4</v>
       </c>
       <c r="F37" t="n">
-        <v>37022.803</v>
+        <v>53032.5217</v>
       </c>
       <c r="G37" t="n">
-        <v>34.94333333333334</v>
+        <v>34.95500000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="C38" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="D38" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="E38" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="F38" t="n">
-        <v>11661.0109</v>
+        <v>37022.803</v>
       </c>
       <c r="G38" t="n">
-        <v>34.93000000000001</v>
+        <v>34.94333333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>34.3</v>
       </c>
       <c r="C39" t="n">
-        <v>33.6</v>
+        <v>34.3</v>
       </c>
       <c r="D39" t="n">
         <v>34.3</v>
       </c>
       <c r="E39" t="n">
-        <v>33.6</v>
+        <v>34.3</v>
       </c>
       <c r="F39" t="n">
-        <v>91591.92819999999</v>
+        <v>11661.0109</v>
       </c>
       <c r="G39" t="n">
-        <v>34.90500000000001</v>
+        <v>34.93000000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>33.8</v>
+        <v>34.3</v>
       </c>
       <c r="C40" t="n">
-        <v>34.3</v>
+        <v>33.6</v>
       </c>
       <c r="D40" t="n">
         <v>34.3</v>
       </c>
       <c r="E40" t="n">
-        <v>33.8</v>
+        <v>33.6</v>
       </c>
       <c r="F40" t="n">
-        <v>27568.7607</v>
+        <v>91591.92819999999</v>
       </c>
       <c r="G40" t="n">
-        <v>34.89166666666668</v>
+        <v>34.90500000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="C41" t="n">
-        <v>34.1</v>
+        <v>34.3</v>
       </c>
       <c r="D41" t="n">
-        <v>34.1</v>
+        <v>34.3</v>
       </c>
       <c r="E41" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="F41" t="n">
-        <v>4332.4838</v>
+        <v>27568.7607</v>
       </c>
       <c r="G41" t="n">
-        <v>34.87666666666668</v>
+        <v>34.89166666666668</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>34.1</v>
       </c>
       <c r="F42" t="n">
-        <v>4000</v>
+        <v>4332.4838</v>
       </c>
       <c r="G42" t="n">
-        <v>34.86333333333334</v>
+        <v>34.87666666666668</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="C43" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="D43" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="E43" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="F43" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="G43" t="n">
-        <v>34.85500000000001</v>
+        <v>34.86333333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>4500</v>
       </c>
       <c r="G44" t="n">
-        <v>34.84166666666668</v>
+        <v>34.85500000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="C45" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E45" t="n">
         <v>33.9</v>
       </c>
-      <c r="D45" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="E45" t="n">
-        <v>33.8</v>
-      </c>
       <c r="F45" t="n">
-        <v>29258.3841</v>
+        <v>4500</v>
       </c>
       <c r="G45" t="n">
-        <v>34.82000000000001</v>
+        <v>34.84166666666668</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,35 +1973,31 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="C46" t="n">
         <v>33.9</v>
       </c>
       <c r="D46" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="E46" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="F46" t="n">
-        <v>90.9447</v>
+        <v>29258.3841</v>
       </c>
       <c r="G46" t="n">
-        <v>34.79833333333335</v>
+        <v>34.82000000000001</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="K46" t="n">
-        <v>33.9</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
@@ -2024,10 +2020,10 @@
         <v>33.9</v>
       </c>
       <c r="F47" t="n">
-        <v>123</v>
+        <v>90.9447</v>
       </c>
       <c r="G47" t="n">
-        <v>34.77666666666669</v>
+        <v>34.79833333333335</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
@@ -2041,11 +2037,7 @@
       <c r="K47" t="n">
         <v>33.9</v>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2055,22 +2047,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="C48" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="D48" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="E48" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="F48" t="n">
-        <v>10000</v>
+        <v>123</v>
       </c>
       <c r="G48" t="n">
-        <v>34.75500000000002</v>
+        <v>34.77666666666669</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
@@ -2098,22 +2090,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="C49" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="D49" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="E49" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="F49" t="n">
-        <v>21400</v>
+        <v>10000</v>
       </c>
       <c r="G49" t="n">
-        <v>34.74333333333335</v>
+        <v>34.75500000000002</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
@@ -2122,12 +2114,16 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="K49" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L49" t="inlineStr"/>
+        <v>33.9</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2137,7 +2133,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C50" t="n">
         <v>34.5</v>
@@ -2146,13 +2142,13 @@
         <v>34.5</v>
       </c>
       <c r="E50" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>21400</v>
       </c>
       <c r="G50" t="n">
-        <v>34.73166666666669</v>
+        <v>34.74333333333335</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -2161,16 +2157,12 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="K50" t="n">
         <v>34.2</v>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2192,10 +2184,10 @@
         <v>34.5</v>
       </c>
       <c r="F51" t="n">
-        <v>2355.1063</v>
+        <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>34.72333333333336</v>
+        <v>34.73166666666669</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -2223,22 +2215,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C52" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="D52" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="E52" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F52" t="n">
-        <v>99.75</v>
+        <v>2355.1063</v>
       </c>
       <c r="G52" t="n">
-        <v>34.71166666666669</v>
+        <v>34.72333333333336</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2247,8 +2239,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2270,10 +2268,10 @@
         <v>34.4</v>
       </c>
       <c r="F53" t="n">
-        <v>20000</v>
+        <v>99.75</v>
       </c>
       <c r="G53" t="n">
-        <v>34.69500000000003</v>
+        <v>34.71166666666669</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2293,22 +2291,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C54" t="n">
         <v>34.4</v>
       </c>
       <c r="D54" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="E54" t="n">
         <v>34.4</v>
       </c>
       <c r="F54" t="n">
-        <v>6126.7777</v>
+        <v>20000</v>
       </c>
       <c r="G54" t="n">
-        <v>34.68333333333337</v>
+        <v>34.69500000000003</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2328,22 +2326,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C55" t="n">
         <v>34.4</v>
       </c>
       <c r="D55" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="E55" t="n">
         <v>34.4</v>
       </c>
       <c r="F55" t="n">
-        <v>6157.1132</v>
+        <v>6126.7777</v>
       </c>
       <c r="G55" t="n">
-        <v>34.67000000000004</v>
+        <v>34.68333333333337</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2366,28 +2364,32 @@
         <v>34.4</v>
       </c>
       <c r="C56" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="D56" t="n">
         <v>34.4</v>
       </c>
       <c r="E56" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="F56" t="n">
-        <v>36988.2067</v>
+        <v>6157.1132</v>
       </c>
       <c r="G56" t="n">
-        <v>34.65333333333337</v>
+        <v>34.67000000000004</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="K56" t="n">
+        <v>34.4</v>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
@@ -2398,32 +2400,40 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="C57" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="D57" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="E57" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="F57" t="n">
-        <v>38476.1576</v>
+        <v>36988.2067</v>
       </c>
       <c r="G57" t="n">
-        <v>34.63333333333336</v>
+        <v>34.65333333333337</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="K57" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2433,22 +2443,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="C58" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="D58" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="E58" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="F58" t="n">
-        <v>2000</v>
+        <v>38476.1576</v>
       </c>
       <c r="G58" t="n">
-        <v>34.61166666666669</v>
+        <v>34.63333333333336</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2457,8 +2467,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2471,19 +2487,19 @@
         <v>34.2</v>
       </c>
       <c r="C59" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="D59" t="n">
         <v>34.2</v>
       </c>
       <c r="E59" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="F59" t="n">
-        <v>18500</v>
+        <v>2000</v>
       </c>
       <c r="G59" t="n">
-        <v>34.59166666666669</v>
+        <v>34.61166666666669</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2492,8 +2508,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2503,22 +2525,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="C60" t="n">
         <v>34.1</v>
       </c>
       <c r="D60" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="E60" t="n">
         <v>34.1</v>
       </c>
       <c r="F60" t="n">
-        <v>2500</v>
+        <v>18500</v>
       </c>
       <c r="G60" t="n">
-        <v>34.57166666666669</v>
+        <v>34.59166666666669</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2527,8 +2549,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2550,10 +2578,10 @@
         <v>34.1</v>
       </c>
       <c r="F61" t="n">
-        <v>3930.3971</v>
+        <v>2500</v>
       </c>
       <c r="G61" t="n">
-        <v>34.55333333333336</v>
+        <v>34.57166666666669</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2562,8 +2590,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2573,32 +2607,40 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="C62" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="D62" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="E62" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="F62" t="n">
-        <v>12.56</v>
+        <v>3930.3971</v>
       </c>
       <c r="G62" t="n">
-        <v>34.54000000000001</v>
+        <v>34.55333333333336</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2608,22 +2650,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="C63" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="D63" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="E63" t="n">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="F63" t="n">
-        <v>824.254</v>
+        <v>12.56</v>
       </c>
       <c r="G63" t="n">
-        <v>34.52166666666668</v>
+        <v>34.54000000000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2632,8 +2674,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2643,32 +2691,38 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C64" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E64" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>824.254</v>
+      </c>
+      <c r="G64" t="n">
+        <v>34.52166666666668</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
         <v>34.4</v>
       </c>
-      <c r="C64" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="D64" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E64" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1385.8808</v>
-      </c>
-      <c r="G64" t="n">
-        <v>34.51166666666668</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2678,7 +2732,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="C65" t="n">
         <v>34.4</v>
@@ -2687,13 +2741,13 @@
         <v>34.4</v>
       </c>
       <c r="E65" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="F65" t="n">
-        <v>4847.3957</v>
+        <v>1385.8808</v>
       </c>
       <c r="G65" t="n">
-        <v>34.49833333333336</v>
+        <v>34.51166666666668</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2702,8 +2756,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2713,7 +2773,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="C66" t="n">
         <v>34.4</v>
@@ -2722,23 +2782,29 @@
         <v>34.4</v>
       </c>
       <c r="E66" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4847.3957</v>
+      </c>
+      <c r="G66" t="n">
+        <v>34.49833333333336</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
         <v>34.4</v>
       </c>
-      <c r="F66" t="n">
-        <v>6069</v>
-      </c>
-      <c r="G66" t="n">
-        <v>34.48833333333336</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2760,10 +2826,10 @@
         <v>34.4</v>
       </c>
       <c r="F67" t="n">
-        <v>914.1281</v>
+        <v>6069</v>
       </c>
       <c r="G67" t="n">
-        <v>34.47833333333336</v>
+        <v>34.48833333333336</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2772,8 +2838,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2783,22 +2855,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C68" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="D68" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="E68" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="F68" t="n">
-        <v>29496.7434</v>
+        <v>914.1281</v>
       </c>
       <c r="G68" t="n">
-        <v>34.47666666666669</v>
+        <v>34.47833333333336</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2807,8 +2879,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2818,22 +2896,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C69" t="n">
         <v>34.6</v>
       </c>
-      <c r="C69" t="n">
-        <v>34.8</v>
-      </c>
       <c r="D69" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="E69" t="n">
-        <v>34.6</v>
+        <v>34.3</v>
       </c>
       <c r="F69" t="n">
-        <v>2393.3086</v>
+        <v>29496.7434</v>
       </c>
       <c r="G69" t="n">
-        <v>34.4716666666667</v>
+        <v>34.47666666666669</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2842,8 +2920,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2853,22 +2937,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>34.9</v>
+        <v>34.6</v>
       </c>
       <c r="C70" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="D70" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="E70" t="n">
-        <v>34.9</v>
+        <v>34.6</v>
       </c>
       <c r="F70" t="n">
-        <v>28797.5598</v>
+        <v>2393.3086</v>
       </c>
       <c r="G70" t="n">
-        <v>34.47833333333337</v>
+        <v>34.4716666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2877,8 +2961,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2891,19 +2981,19 @@
         <v>34.9</v>
       </c>
       <c r="C71" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="D71" t="n">
         <v>34.9</v>
       </c>
       <c r="E71" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="F71" t="n">
-        <v>49600</v>
+        <v>28797.5598</v>
       </c>
       <c r="G71" t="n">
-        <v>34.4816666666667</v>
+        <v>34.47833333333337</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2912,8 +3002,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2923,22 +3019,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>34.5</v>
+        <v>34.9</v>
       </c>
       <c r="C72" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="D72" t="n">
-        <v>34.5</v>
+        <v>34.9</v>
       </c>
       <c r="E72" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="F72" t="n">
-        <v>65990.3536</v>
+        <v>49600</v>
       </c>
       <c r="G72" t="n">
-        <v>34.47333333333337</v>
+        <v>34.4816666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2947,8 +3043,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2958,22 +3060,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>34.7</v>
+        <v>34.5</v>
       </c>
       <c r="C73" t="n">
         <v>34.5</v>
       </c>
       <c r="D73" t="n">
-        <v>34.7</v>
+        <v>34.5</v>
       </c>
       <c r="E73" t="n">
         <v>34.5</v>
       </c>
       <c r="F73" t="n">
-        <v>947.6799</v>
+        <v>65990.3536</v>
       </c>
       <c r="G73" t="n">
-        <v>34.47000000000004</v>
+        <v>34.47333333333337</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2982,8 +3084,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2993,19 +3101,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="C74" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="D74" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="E74" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F74" t="n">
-        <v>2603.9456</v>
+        <v>947.6799</v>
       </c>
       <c r="G74" t="n">
         <v>34.47000000000004</v>
@@ -3017,8 +3125,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3028,7 +3142,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>34.9</v>
+        <v>34.6</v>
       </c>
       <c r="C75" t="n">
         <v>34.9</v>
@@ -3037,13 +3151,13 @@
         <v>34.9</v>
       </c>
       <c r="E75" t="n">
-        <v>34.9</v>
+        <v>34.6</v>
       </c>
       <c r="F75" t="n">
-        <v>1000</v>
+        <v>2603.9456</v>
       </c>
       <c r="G75" t="n">
-        <v>34.47333333333338</v>
+        <v>34.47000000000004</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3052,8 +3166,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3066,19 +3186,19 @@
         <v>34.9</v>
       </c>
       <c r="C76" t="n">
-        <v>35.3</v>
+        <v>34.9</v>
       </c>
       <c r="D76" t="n">
-        <v>35.3</v>
+        <v>34.9</v>
       </c>
       <c r="E76" t="n">
         <v>34.9</v>
       </c>
       <c r="F76" t="n">
-        <v>109995.0837</v>
+        <v>1000</v>
       </c>
       <c r="G76" t="n">
-        <v>34.48166666666671</v>
+        <v>34.47333333333338</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3087,8 +3207,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3098,22 +3224,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>35.4</v>
+        <v>34.9</v>
       </c>
       <c r="C77" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="D77" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="E77" t="n">
-        <v>35.4</v>
+        <v>34.9</v>
       </c>
       <c r="F77" t="n">
-        <v>29473.814</v>
+        <v>109995.0837</v>
       </c>
       <c r="G77" t="n">
-        <v>34.49500000000005</v>
+        <v>34.48166666666671</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3122,8 +3248,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3133,22 +3265,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="C78" t="n">
         <v>35.5</v>
       </c>
       <c r="D78" t="n">
-        <v>36</v>
+        <v>35.5</v>
       </c>
       <c r="E78" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="F78" t="n">
-        <v>126210.1328</v>
+        <v>29473.814</v>
       </c>
       <c r="G78" t="n">
-        <v>34.50666666666671</v>
+        <v>34.49500000000005</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3157,8 +3289,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3168,22 +3306,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="C79" t="n">
-        <v>35.9</v>
+        <v>35.5</v>
       </c>
       <c r="D79" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="E79" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="F79" t="n">
-        <v>15311.9154</v>
+        <v>126210.1328</v>
       </c>
       <c r="G79" t="n">
-        <v>34.52500000000005</v>
+        <v>34.50666666666671</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3192,8 +3330,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3206,7 +3350,7 @@
         <v>35.6</v>
       </c>
       <c r="C80" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="D80" t="n">
         <v>35.9</v>
@@ -3215,10 +3359,10 @@
         <v>35.6</v>
       </c>
       <c r="F80" t="n">
-        <v>33262.8654</v>
+        <v>15311.9154</v>
       </c>
       <c r="G80" t="n">
-        <v>34.54166666666671</v>
+        <v>34.52500000000005</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3227,8 +3371,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3238,22 +3388,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C81" t="n">
         <v>35.8</v>
       </c>
-      <c r="C81" t="n">
-        <v>36.3</v>
-      </c>
       <c r="D81" t="n">
-        <v>36.3</v>
+        <v>35.9</v>
       </c>
       <c r="E81" t="n">
         <v>35.6</v>
       </c>
       <c r="F81" t="n">
-        <v>4217.0469</v>
+        <v>33262.8654</v>
       </c>
       <c r="G81" t="n">
-        <v>34.56666666666671</v>
+        <v>34.54166666666671</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3262,8 +3412,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3273,22 +3429,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>36.2</v>
+        <v>35.8</v>
       </c>
       <c r="C82" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="D82" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="E82" t="n">
-        <v>36.2</v>
+        <v>35.6</v>
       </c>
       <c r="F82" t="n">
-        <v>5763.505</v>
+        <v>4217.0469</v>
       </c>
       <c r="G82" t="n">
-        <v>34.59000000000004</v>
+        <v>34.56666666666671</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3297,8 +3453,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3308,22 +3470,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="C83" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="D83" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="E83" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="F83" t="n">
-        <v>1565.2307</v>
+        <v>5763.505</v>
       </c>
       <c r="G83" t="n">
-        <v>34.6066666666667</v>
+        <v>34.59000000000004</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3332,8 +3494,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3343,22 +3511,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="C84" t="n">
-        <v>36.3</v>
+        <v>35.9</v>
       </c>
       <c r="D84" t="n">
-        <v>36.3</v>
+        <v>35.9</v>
       </c>
       <c r="E84" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="F84" t="n">
-        <v>6784.9728</v>
+        <v>1565.2307</v>
       </c>
       <c r="G84" t="n">
-        <v>34.63000000000004</v>
+        <v>34.6066666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3367,8 +3535,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3378,22 +3552,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>36.5</v>
+        <v>36.1</v>
       </c>
       <c r="C85" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="D85" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="E85" t="n">
-        <v>36.5</v>
+        <v>36.1</v>
       </c>
       <c r="F85" t="n">
-        <v>11600</v>
+        <v>6784.9728</v>
       </c>
       <c r="G85" t="n">
-        <v>34.65166666666671</v>
+        <v>34.63000000000004</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3402,8 +3576,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3416,19 +3596,19 @@
         <v>36.5</v>
       </c>
       <c r="C86" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="D86" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="E86" t="n">
         <v>36.5</v>
       </c>
       <c r="F86" t="n">
-        <v>40327</v>
+        <v>11600</v>
       </c>
       <c r="G86" t="n">
-        <v>34.68166666666671</v>
+        <v>34.65166666666671</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3437,8 +3617,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3448,22 +3634,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C87" t="n">
         <v>36.7</v>
       </c>
-      <c r="C87" t="n">
-        <v>36.9</v>
-      </c>
       <c r="D87" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="E87" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="F87" t="n">
-        <v>127</v>
+        <v>40327</v>
       </c>
       <c r="G87" t="n">
-        <v>34.71333333333337</v>
+        <v>34.68166666666671</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3472,8 +3658,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3483,32 +3675,38 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C88" t="n">
         <v>36.9</v>
       </c>
-      <c r="C88" t="n">
-        <v>37.2</v>
-      </c>
       <c r="D88" t="n">
-        <v>37.2</v>
+        <v>36.9</v>
       </c>
       <c r="E88" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="F88" t="n">
-        <v>9882</v>
+        <v>127</v>
       </c>
       <c r="G88" t="n">
-        <v>34.75333333333337</v>
+        <v>34.71333333333337</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3518,22 +3716,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="C89" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="D89" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="E89" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="F89" t="n">
-        <v>32239.0001</v>
+        <v>9882</v>
       </c>
       <c r="G89" t="n">
-        <v>34.79166666666671</v>
+        <v>34.75333333333337</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3542,10 +3740,16 @@
         <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M89" t="n">
-        <v>1</v>
+        <v>1.07639534883721</v>
       </c>
     </row>
     <row r="90">
@@ -3553,7 +3757,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="C90" t="n">
         <v>37</v>
@@ -3562,19 +3766,19 @@
         <v>37</v>
       </c>
       <c r="E90" t="n">
-        <v>37</v>
+        <v>36.7</v>
       </c>
       <c r="F90" t="n">
-        <v>17021.565</v>
+        <v>32239.0001</v>
       </c>
       <c r="G90" t="n">
-        <v>34.83166666666671</v>
+        <v>34.79166666666671</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3588,22 +3792,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>36.6</v>
+        <v>37</v>
       </c>
       <c r="C91" t="n">
-        <v>36.2</v>
+        <v>37</v>
       </c>
       <c r="D91" t="n">
-        <v>36.6</v>
+        <v>37</v>
       </c>
       <c r="E91" t="n">
-        <v>36.2</v>
+        <v>37</v>
       </c>
       <c r="F91" t="n">
-        <v>787.3101</v>
+        <v>17021.565</v>
       </c>
       <c r="G91" t="n">
-        <v>34.85833333333337</v>
+        <v>34.83166666666671</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3626,25 +3830,25 @@
         <v>36.6</v>
       </c>
       <c r="C92" t="n">
-        <v>36.6</v>
+        <v>36.2</v>
       </c>
       <c r="D92" t="n">
         <v>36.6</v>
       </c>
       <c r="E92" t="n">
-        <v>36.6</v>
+        <v>36.2</v>
       </c>
       <c r="F92" t="n">
-        <v>741.0905</v>
+        <v>787.3101</v>
       </c>
       <c r="G92" t="n">
-        <v>34.8916666666667</v>
+        <v>34.85833333333337</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3664,22 +3868,22 @@
         <v>36.6</v>
       </c>
       <c r="D93" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="E93" t="n">
         <v>36.6</v>
       </c>
       <c r="F93" t="n">
-        <v>10432.2996</v>
+        <v>741.0905</v>
       </c>
       <c r="G93" t="n">
-        <v>34.92833333333337</v>
+        <v>34.8916666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3696,19 +3900,19 @@
         <v>36.6</v>
       </c>
       <c r="C94" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="D94" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E94" t="n">
         <v>36.6</v>
       </c>
-      <c r="E94" t="n">
-        <v>36.5</v>
-      </c>
       <c r="F94" t="n">
-        <v>7777.0363</v>
+        <v>10432.2996</v>
       </c>
       <c r="G94" t="n">
-        <v>34.9616666666667</v>
+        <v>34.92833333333337</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3728,22 +3932,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="C95" t="n">
         <v>36.5</v>
       </c>
       <c r="D95" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E95" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="F95" t="n">
-        <v>2439.1569</v>
+        <v>7777.0363</v>
       </c>
       <c r="G95" t="n">
-        <v>34.99500000000003</v>
+        <v>34.9616666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3763,7 +3967,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C96" t="n">
         <v>36.5</v>
@@ -3775,10 +3979,10 @@
         <v>36.4</v>
       </c>
       <c r="F96" t="n">
-        <v>36780.3156</v>
+        <v>2439.1569</v>
       </c>
       <c r="G96" t="n">
-        <v>35.03000000000004</v>
+        <v>34.99500000000003</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3807,13 +4011,13 @@
         <v>36.5</v>
       </c>
       <c r="E97" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F97" t="n">
-        <v>43580.0968</v>
+        <v>36780.3156</v>
       </c>
       <c r="G97" t="n">
-        <v>35.06500000000003</v>
+        <v>35.03000000000004</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3836,19 +4040,19 @@
         <v>36.5</v>
       </c>
       <c r="C98" t="n">
-        <v>37</v>
+        <v>36.5</v>
       </c>
       <c r="D98" t="n">
-        <v>37</v>
+        <v>36.5</v>
       </c>
       <c r="E98" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="F98" t="n">
-        <v>64214.42</v>
+        <v>43580.0968</v>
       </c>
       <c r="G98" t="n">
-        <v>35.11000000000003</v>
+        <v>35.06500000000003</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3871,19 +4075,19 @@
         <v>36.5</v>
       </c>
       <c r="C99" t="n">
-        <v>36.6</v>
+        <v>37</v>
       </c>
       <c r="D99" t="n">
-        <v>36.6</v>
+        <v>37</v>
       </c>
       <c r="E99" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F99" t="n">
-        <v>14954.7279</v>
+        <v>64214.42</v>
       </c>
       <c r="G99" t="n">
-        <v>35.16000000000003</v>
+        <v>35.11000000000003</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3903,22 +4107,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C100" t="n">
         <v>36.6</v>
       </c>
-      <c r="C100" t="n">
-        <v>36.9</v>
-      </c>
       <c r="D100" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="E100" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F100" t="n">
-        <v>7316.4228</v>
+        <v>14954.7279</v>
       </c>
       <c r="G100" t="n">
-        <v>35.20333333333336</v>
+        <v>35.16000000000003</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3938,22 +4142,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C101" t="n">
         <v>36.9</v>
       </c>
-      <c r="C101" t="n">
-        <v>37</v>
-      </c>
       <c r="D101" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="E101" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="F101" t="n">
-        <v>8842.919900000001</v>
+        <v>7316.4228</v>
       </c>
       <c r="G101" t="n">
-        <v>35.25166666666669</v>
+        <v>35.20333333333336</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3973,22 +4177,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="C102" t="n">
         <v>37</v>
       </c>
-      <c r="C102" t="n">
-        <v>37.2</v>
-      </c>
       <c r="D102" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="E102" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="F102" t="n">
-        <v>23368.8717</v>
+        <v>8842.919900000001</v>
       </c>
       <c r="G102" t="n">
-        <v>35.30333333333336</v>
+        <v>35.25166666666669</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4008,22 +4212,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>37</v>
+      </c>
+      <c r="C103" t="n">
         <v>37.2</v>
       </c>
-      <c r="C103" t="n">
-        <v>37.7</v>
-      </c>
       <c r="D103" t="n">
-        <v>37.7</v>
+        <v>37.2</v>
       </c>
       <c r="E103" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="F103" t="n">
-        <v>83608.6143</v>
+        <v>23368.8717</v>
       </c>
       <c r="G103" t="n">
-        <v>35.36166666666669</v>
+        <v>35.30333333333336</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4043,7 +4247,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>37.7</v>
+        <v>37.2</v>
       </c>
       <c r="C104" t="n">
         <v>37.7</v>
@@ -4052,13 +4256,13 @@
         <v>37.7</v>
       </c>
       <c r="E104" t="n">
-        <v>37.7</v>
+        <v>37.2</v>
       </c>
       <c r="F104" t="n">
-        <v>18645.4922</v>
+        <v>83608.6143</v>
       </c>
       <c r="G104" t="n">
-        <v>35.42000000000003</v>
+        <v>35.36166666666669</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4078,22 +4282,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>37.2</v>
+        <v>37.7</v>
       </c>
       <c r="C105" t="n">
-        <v>37.5</v>
+        <v>37.7</v>
       </c>
       <c r="D105" t="n">
-        <v>37.5</v>
+        <v>37.7</v>
       </c>
       <c r="E105" t="n">
-        <v>37.2</v>
+        <v>37.7</v>
       </c>
       <c r="F105" t="n">
-        <v>11406.2526</v>
+        <v>18645.4922</v>
       </c>
       <c r="G105" t="n">
-        <v>35.48000000000003</v>
+        <v>35.42000000000003</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4113,22 +4317,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="C106" t="n">
         <v>37.5</v>
-      </c>
-      <c r="C106" t="n">
-        <v>37.4</v>
       </c>
       <c r="D106" t="n">
         <v>37.5</v>
       </c>
       <c r="E106" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="F106" t="n">
-        <v>3902.2939</v>
+        <v>11406.2526</v>
       </c>
       <c r="G106" t="n">
-        <v>35.53833333333336</v>
+        <v>35.48000000000003</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4148,22 +4352,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="C107" t="n">
         <v>37.4</v>
       </c>
       <c r="D107" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E107" t="n">
         <v>37.4</v>
       </c>
-      <c r="E107" t="n">
-        <v>36.5</v>
-      </c>
       <c r="F107" t="n">
-        <v>17710.9704</v>
+        <v>3902.2939</v>
       </c>
       <c r="G107" t="n">
-        <v>35.59666666666669</v>
+        <v>35.53833333333336</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4183,22 +4387,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>37</v>
+        <v>37.4</v>
       </c>
       <c r="C108" t="n">
-        <v>37</v>
+        <v>37.4</v>
       </c>
       <c r="D108" t="n">
-        <v>37</v>
+        <v>37.4</v>
       </c>
       <c r="E108" t="n">
-        <v>37</v>
+        <v>36.5</v>
       </c>
       <c r="F108" t="n">
-        <v>4000</v>
+        <v>17710.9704</v>
       </c>
       <c r="G108" t="n">
-        <v>35.64333333333336</v>
+        <v>35.59666666666669</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4218,7 +4422,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>36.7</v>
+        <v>37</v>
       </c>
       <c r="C109" t="n">
         <v>37</v>
@@ -4227,13 +4431,13 @@
         <v>37</v>
       </c>
       <c r="E109" t="n">
-        <v>36.6</v>
+        <v>37</v>
       </c>
       <c r="F109" t="n">
-        <v>12585.1597</v>
+        <v>4000</v>
       </c>
       <c r="G109" t="n">
-        <v>35.68500000000003</v>
+        <v>35.64333333333336</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4256,19 +4460,19 @@
         <v>36.7</v>
       </c>
       <c r="C110" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="D110" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="E110" t="n">
         <v>36.6</v>
       </c>
       <c r="F110" t="n">
-        <v>11603.0359</v>
+        <v>12585.1597</v>
       </c>
       <c r="G110" t="n">
-        <v>35.72500000000003</v>
+        <v>35.68500000000003</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4288,22 +4492,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="C111" t="n">
-        <v>37.4</v>
+        <v>36.9</v>
       </c>
       <c r="D111" t="n">
-        <v>37.4</v>
+        <v>36.9</v>
       </c>
       <c r="E111" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="F111" t="n">
-        <v>44641.0716</v>
+        <v>11603.0359</v>
       </c>
       <c r="G111" t="n">
-        <v>35.77333333333336</v>
+        <v>35.72500000000003</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4323,22 +4527,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="C112" t="n">
-        <v>37</v>
+        <v>37.4</v>
       </c>
       <c r="D112" t="n">
-        <v>37</v>
+        <v>37.4</v>
       </c>
       <c r="E112" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="F112" t="n">
-        <v>680.3607</v>
+        <v>44641.0716</v>
       </c>
       <c r="G112" t="n">
-        <v>35.8166666666667</v>
+        <v>35.77333333333336</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4358,22 +4562,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="C113" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="D113" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="E113" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="F113" t="n">
-        <v>200</v>
+        <v>680.3607</v>
       </c>
       <c r="G113" t="n">
-        <v>35.85833333333336</v>
+        <v>35.8166666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4396,19 +4600,19 @@
         <v>36.9</v>
       </c>
       <c r="C114" t="n">
-        <v>37.2</v>
+        <v>36.9</v>
       </c>
       <c r="D114" t="n">
-        <v>37.2</v>
+        <v>36.9</v>
       </c>
       <c r="E114" t="n">
         <v>36.9</v>
       </c>
       <c r="F114" t="n">
-        <v>6576.7657</v>
+        <v>200</v>
       </c>
       <c r="G114" t="n">
-        <v>35.90500000000002</v>
+        <v>35.85833333333336</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4428,7 +4632,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>37.2</v>
+        <v>36.9</v>
       </c>
       <c r="C115" t="n">
         <v>37.2</v>
@@ -4437,13 +4641,13 @@
         <v>37.2</v>
       </c>
       <c r="E115" t="n">
-        <v>37.2</v>
+        <v>36.9</v>
       </c>
       <c r="F115" t="n">
-        <v>500</v>
+        <v>6576.7657</v>
       </c>
       <c r="G115" t="n">
-        <v>35.95166666666669</v>
+        <v>35.90500000000002</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4463,22 +4667,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="C116" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="D116" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="E116" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="F116" t="n">
-        <v>9145.7634</v>
+        <v>500</v>
       </c>
       <c r="G116" t="n">
-        <v>35.99833333333336</v>
+        <v>35.95166666666669</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4498,22 +4702,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="C117" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="D117" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="E117" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="F117" t="n">
-        <v>8395.3369</v>
+        <v>9145.7634</v>
       </c>
       <c r="G117" t="n">
-        <v>36.04833333333336</v>
+        <v>35.99833333333336</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4533,22 +4737,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="C118" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="D118" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="E118" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="F118" t="n">
-        <v>8440.8536</v>
+        <v>8395.3369</v>
       </c>
       <c r="G118" t="n">
-        <v>36.09666666666669</v>
+        <v>36.04833333333336</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4568,22 +4772,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>36.6</v>
+        <v>36.9</v>
       </c>
       <c r="C119" t="n">
-        <v>36.3</v>
+        <v>36.9</v>
       </c>
       <c r="D119" t="n">
-        <v>36.6</v>
+        <v>36.9</v>
       </c>
       <c r="E119" t="n">
-        <v>36.3</v>
+        <v>36.9</v>
       </c>
       <c r="F119" t="n">
-        <v>48383</v>
+        <v>8440.8536</v>
       </c>
       <c r="G119" t="n">
-        <v>36.13333333333336</v>
+        <v>36.09666666666669</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4603,22 +4807,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="C120" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="D120" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="E120" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="F120" t="n">
-        <v>12146.7381</v>
+        <v>48383</v>
       </c>
       <c r="G120" t="n">
-        <v>36.1716666666667</v>
+        <v>36.13333333333336</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4638,10 +4842,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="C121" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="D121" t="n">
         <v>36.4</v>
@@ -4650,10 +4854,10 @@
         <v>36.2</v>
       </c>
       <c r="F121" t="n">
-        <v>12287.3164</v>
+        <v>12146.7381</v>
       </c>
       <c r="G121" t="n">
-        <v>36.2066666666667</v>
+        <v>36.1716666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4676,19 +4880,19 @@
         <v>36.4</v>
       </c>
       <c r="C122" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
       <c r="D122" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="E122" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="F122" t="n">
-        <v>13388.9606</v>
+        <v>12287.3164</v>
       </c>
       <c r="G122" t="n">
-        <v>36.24000000000003</v>
+        <v>36.2066666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4711,19 +4915,19 @@
         <v>36.4</v>
       </c>
       <c r="C123" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="D123" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="E123" t="n">
         <v>36.4</v>
       </c>
       <c r="F123" t="n">
-        <v>8004.2912</v>
+        <v>13388.9606</v>
       </c>
       <c r="G123" t="n">
-        <v>36.27833333333337</v>
+        <v>36.24000000000003</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4743,22 +4947,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="C124" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="D124" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="E124" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="F124" t="n">
-        <v>85750.13890000001</v>
+        <v>8004.2912</v>
       </c>
       <c r="G124" t="n">
-        <v>36.3166666666667</v>
+        <v>36.27833333333337</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4778,7 +4982,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="C125" t="n">
         <v>36.7</v>
@@ -4787,13 +4991,13 @@
         <v>36.7</v>
       </c>
       <c r="E125" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="F125" t="n">
-        <v>3772.1099</v>
+        <v>85750.13890000001</v>
       </c>
       <c r="G125" t="n">
-        <v>36.35500000000003</v>
+        <v>36.3166666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4819,16 +5023,16 @@
         <v>36.7</v>
       </c>
       <c r="D126" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="E126" t="n">
         <v>36.7</v>
       </c>
       <c r="F126" t="n">
-        <v>65402.9483</v>
+        <v>3772.1099</v>
       </c>
       <c r="G126" t="n">
-        <v>36.39333333333335</v>
+        <v>36.35500000000003</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4851,19 +5055,19 @@
         <v>36.7</v>
       </c>
       <c r="C127" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="D127" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="E127" t="n">
         <v>36.7</v>
       </c>
-      <c r="E127" t="n">
-        <v>36.5</v>
-      </c>
       <c r="F127" t="n">
-        <v>1500</v>
+        <v>65402.9483</v>
       </c>
       <c r="G127" t="n">
-        <v>36.42833333333336</v>
+        <v>36.39333333333335</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4883,22 +5087,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="C128" t="n">
         <v>36.5</v>
       </c>
       <c r="D128" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="E128" t="n">
         <v>36.5</v>
       </c>
       <c r="F128" t="n">
-        <v>1330.0016</v>
+        <v>1500</v>
       </c>
       <c r="G128" t="n">
-        <v>36.46000000000002</v>
+        <v>36.42833333333336</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4921,19 +5125,19 @@
         <v>36.5</v>
       </c>
       <c r="C129" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="D129" t="n">
         <v>36.5</v>
       </c>
       <c r="E129" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="F129" t="n">
-        <v>1000</v>
+        <v>1330.0016</v>
       </c>
       <c r="G129" t="n">
-        <v>36.48666666666669</v>
+        <v>36.46000000000002</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4953,22 +5157,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="C130" t="n">
-        <v>36.9</v>
+        <v>36.4</v>
       </c>
       <c r="D130" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="E130" t="n">
-        <v>36.9</v>
+        <v>36.4</v>
       </c>
       <c r="F130" t="n">
-        <v>10.56</v>
+        <v>1000</v>
       </c>
       <c r="G130" t="n">
-        <v>36.52000000000002</v>
+        <v>36.48666666666669</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5000,10 +5204,10 @@
         <v>36.9</v>
       </c>
       <c r="F131" t="n">
-        <v>14537.5338</v>
+        <v>10.56</v>
       </c>
       <c r="G131" t="n">
-        <v>36.55500000000002</v>
+        <v>36.52000000000002</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5023,22 +5227,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>36.4</v>
+        <v>36.9</v>
       </c>
       <c r="C132" t="n">
-        <v>36.4</v>
+        <v>36.9</v>
       </c>
       <c r="D132" t="n">
-        <v>36.4</v>
+        <v>36.9</v>
       </c>
       <c r="E132" t="n">
-        <v>36.4</v>
+        <v>36.9</v>
       </c>
       <c r="F132" t="n">
-        <v>831.8286000000001</v>
+        <v>14537.5338</v>
       </c>
       <c r="G132" t="n">
-        <v>36.58666666666669</v>
+        <v>36.55500000000002</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5058,22 +5262,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>37</v>
+        <v>36.4</v>
       </c>
       <c r="C133" t="n">
-        <v>37.2</v>
+        <v>36.4</v>
       </c>
       <c r="D133" t="n">
-        <v>37.2</v>
+        <v>36.4</v>
       </c>
       <c r="E133" t="n">
-        <v>37</v>
+        <v>36.4</v>
       </c>
       <c r="F133" t="n">
-        <v>25400</v>
+        <v>831.8286000000001</v>
       </c>
       <c r="G133" t="n">
-        <v>36.63166666666668</v>
+        <v>36.58666666666669</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5093,22 +5297,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>37.3</v>
+        <v>37</v>
       </c>
       <c r="C134" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="D134" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="E134" t="n">
-        <v>37.3</v>
+        <v>37</v>
       </c>
       <c r="F134" t="n">
-        <v>24082.97728609626</v>
+        <v>25400</v>
       </c>
       <c r="G134" t="n">
-        <v>36.67333333333335</v>
+        <v>36.63166666666668</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5128,22 +5332,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>36.7</v>
+        <v>37.3</v>
       </c>
       <c r="C135" t="n">
-        <v>36.7</v>
+        <v>37.4</v>
       </c>
       <c r="D135" t="n">
-        <v>36.7</v>
+        <v>37.4</v>
       </c>
       <c r="E135" t="n">
-        <v>36.7</v>
+        <v>37.3</v>
       </c>
       <c r="F135" t="n">
-        <v>500</v>
+        <v>24082.97728609626</v>
       </c>
       <c r="G135" t="n">
-        <v>36.70333333333335</v>
+        <v>36.67333333333335</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5175,10 +5379,10 @@
         <v>36.7</v>
       </c>
       <c r="F136" t="n">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="G136" t="n">
-        <v>36.72666666666667</v>
+        <v>36.70333333333335</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5210,10 +5414,10 @@
         <v>36.7</v>
       </c>
       <c r="F137" t="n">
-        <v>16415.2072</v>
+        <v>5000</v>
       </c>
       <c r="G137" t="n">
-        <v>36.74666666666667</v>
+        <v>36.72666666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5233,22 +5437,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="C138" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="D138" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="E138" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="F138" t="n">
-        <v>3000</v>
+        <v>16415.2072</v>
       </c>
       <c r="G138" t="n">
-        <v>36.76333333333334</v>
+        <v>36.74666666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5271,19 +5475,19 @@
         <v>36.5</v>
       </c>
       <c r="C139" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="D139" t="n">
         <v>36.5</v>
       </c>
       <c r="E139" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="F139" t="n">
         <v>3000</v>
       </c>
       <c r="G139" t="n">
-        <v>36.77166666666667</v>
+        <v>36.76333333333334</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5303,22 +5507,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="C140" t="n">
         <v>36.4</v>
       </c>
       <c r="D140" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="E140" t="n">
         <v>36.4</v>
       </c>
       <c r="F140" t="n">
-        <v>12567.8627</v>
+        <v>3000</v>
       </c>
       <c r="G140" t="n">
-        <v>36.78166666666667</v>
+        <v>36.77166666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5350,10 +5554,10 @@
         <v>36.4</v>
       </c>
       <c r="F141" t="n">
-        <v>11919.7201</v>
+        <v>12567.8627</v>
       </c>
       <c r="G141" t="n">
-        <v>36.78333333333333</v>
+        <v>36.78166666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5385,10 +5589,10 @@
         <v>36.4</v>
       </c>
       <c r="F142" t="n">
-        <v>11162.284</v>
+        <v>11919.7201</v>
       </c>
       <c r="G142" t="n">
-        <v>36.78666666666667</v>
+        <v>36.78333333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5408,22 +5612,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="C143" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="D143" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="E143" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="F143" t="n">
-        <v>1563.1545</v>
+        <v>11162.284</v>
       </c>
       <c r="G143" t="n">
-        <v>36.79833333333333</v>
+        <v>36.78666666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5443,22 +5647,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="C144" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="D144" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="E144" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="F144" t="n">
-        <v>29406.154</v>
+        <v>1563.1545</v>
       </c>
       <c r="G144" t="n">
-        <v>36.8</v>
+        <v>36.79833333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5490,10 +5694,10 @@
         <v>36.4</v>
       </c>
       <c r="F145" t="n">
-        <v>40779.155</v>
+        <v>29406.154</v>
       </c>
       <c r="G145" t="n">
-        <v>36.79833333333333</v>
+        <v>36.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5513,22 +5717,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="C146" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="D146" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="E146" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="F146" t="n">
-        <v>20000</v>
+        <v>40779.155</v>
       </c>
       <c r="G146" t="n">
-        <v>36.79166666666667</v>
+        <v>36.79833333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5551,19 +5755,19 @@
         <v>36.3</v>
       </c>
       <c r="C147" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="D147" t="n">
         <v>36.3</v>
       </c>
       <c r="E147" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="F147" t="n">
-        <v>51700</v>
+        <v>20000</v>
       </c>
       <c r="G147" t="n">
-        <v>36.78</v>
+        <v>36.79166666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5583,22 +5787,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C148" t="n">
         <v>36.2</v>
       </c>
-      <c r="C148" t="n">
-        <v>35.7</v>
-      </c>
       <c r="D148" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="E148" t="n">
         <v>36.2</v>
       </c>
-      <c r="E148" t="n">
-        <v>35.7</v>
-      </c>
       <c r="F148" t="n">
-        <v>69090</v>
+        <v>51700</v>
       </c>
       <c r="G148" t="n">
-        <v>36.755</v>
+        <v>36.78</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5618,22 +5822,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="C149" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="D149" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="E149" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="F149" t="n">
-        <v>24724.1111</v>
+        <v>69090</v>
       </c>
       <c r="G149" t="n">
-        <v>36.73166666666667</v>
+        <v>36.755</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5653,22 +5857,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>35.5</v>
+        <v>35.9</v>
       </c>
       <c r="C150" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="D150" t="n">
-        <v>35.5</v>
+        <v>35.9</v>
       </c>
       <c r="E150" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="F150" t="n">
-        <v>1588.4336</v>
+        <v>24724.1111</v>
       </c>
       <c r="G150" t="n">
-        <v>36.70666666666667</v>
+        <v>36.73166666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5688,22 +5892,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="C151" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="D151" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="E151" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="F151" t="n">
-        <v>500</v>
+        <v>1588.4336</v>
       </c>
       <c r="G151" t="n">
-        <v>36.69666666666667</v>
+        <v>36.70666666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5726,19 +5930,19 @@
         <v>35.6</v>
       </c>
       <c r="C152" t="n">
-        <v>34.8</v>
+        <v>35.6</v>
       </c>
       <c r="D152" t="n">
         <v>35.6</v>
       </c>
       <c r="E152" t="n">
-        <v>34.8</v>
+        <v>35.6</v>
       </c>
       <c r="F152" t="n">
-        <v>24458</v>
+        <v>500</v>
       </c>
       <c r="G152" t="n">
-        <v>36.66666666666667</v>
+        <v>36.69666666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5758,22 +5962,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>35.3</v>
+        <v>35.6</v>
       </c>
       <c r="C153" t="n">
-        <v>35.4</v>
+        <v>34.8</v>
       </c>
       <c r="D153" t="n">
         <v>35.6</v>
       </c>
       <c r="E153" t="n">
-        <v>35.3</v>
+        <v>34.8</v>
       </c>
       <c r="F153" t="n">
-        <v>20672.7224</v>
+        <v>24458</v>
       </c>
       <c r="G153" t="n">
-        <v>36.64666666666668</v>
+        <v>36.66666666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5793,22 +5997,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="C154" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="D154" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="E154" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="F154" t="n">
-        <v>997.5</v>
+        <v>20672.7224</v>
       </c>
       <c r="G154" t="n">
-        <v>36.63000000000001</v>
+        <v>36.64666666666668</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5828,22 +6032,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="C155" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="D155" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="E155" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="F155" t="n">
-        <v>1306.3127</v>
+        <v>997.5</v>
       </c>
       <c r="G155" t="n">
-        <v>36.61500000000001</v>
+        <v>36.63000000000001</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5863,22 +6067,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
       <c r="C156" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="D156" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
       <c r="E156" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="F156" t="n">
-        <v>16640.2087</v>
+        <v>1306.3127</v>
       </c>
       <c r="G156" t="n">
-        <v>36.60166666666667</v>
+        <v>36.61500000000001</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5898,22 +6102,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>35.6</v>
+        <v>35.8</v>
       </c>
       <c r="C157" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="D157" t="n">
-        <v>35.6</v>
+        <v>35.8</v>
       </c>
       <c r="E157" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="F157" t="n">
-        <v>7747.1775</v>
+        <v>16640.2087</v>
       </c>
       <c r="G157" t="n">
-        <v>36.58666666666667</v>
+        <v>36.60166666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5933,22 +6137,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>35.9</v>
+        <v>35.6</v>
       </c>
       <c r="C158" t="n">
         <v>35.6</v>
       </c>
       <c r="D158" t="n">
-        <v>35.9</v>
+        <v>35.6</v>
       </c>
       <c r="E158" t="n">
         <v>35.6</v>
       </c>
       <c r="F158" t="n">
-        <v>1185.0696</v>
+        <v>7747.1775</v>
       </c>
       <c r="G158" t="n">
-        <v>36.56333333333334</v>
+        <v>36.58666666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5968,22 +6172,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="C159" t="n">
-        <v>35.4</v>
+        <v>35.6</v>
       </c>
       <c r="D159" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="E159" t="n">
-        <v>35.4</v>
+        <v>35.6</v>
       </c>
       <c r="F159" t="n">
-        <v>1000</v>
+        <v>1185.0696</v>
       </c>
       <c r="G159" t="n">
-        <v>36.54333333333334</v>
+        <v>36.56333333333334</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6003,22 +6207,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="C160" t="n">
         <v>35.4</v>
       </c>
       <c r="D160" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="E160" t="n">
         <v>35.4</v>
       </c>
       <c r="F160" t="n">
-        <v>25909.1553</v>
+        <v>1000</v>
       </c>
       <c r="G160" t="n">
-        <v>36.51833333333334</v>
+        <v>36.54333333333334</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6038,22 +6242,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="C161" t="n">
-        <v>35</v>
+        <v>35.4</v>
       </c>
       <c r="D161" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="E161" t="n">
-        <v>35</v>
+        <v>35.4</v>
       </c>
       <c r="F161" t="n">
-        <v>32646.43</v>
+        <v>25909.1553</v>
       </c>
       <c r="G161" t="n">
-        <v>36.48500000000001</v>
+        <v>36.51833333333334</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6073,22 +6277,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>35.1</v>
+        <v>35.5</v>
       </c>
       <c r="C162" t="n">
         <v>35</v>
       </c>
       <c r="D162" t="n">
-        <v>35.1</v>
+        <v>35.5</v>
       </c>
       <c r="E162" t="n">
         <v>35</v>
       </c>
       <c r="F162" t="n">
-        <v>20400</v>
+        <v>32646.43</v>
       </c>
       <c r="G162" t="n">
-        <v>36.44833333333334</v>
+        <v>36.48500000000001</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6108,7 +6312,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="C163" t="n">
         <v>35</v>
@@ -6120,10 +6324,10 @@
         <v>35</v>
       </c>
       <c r="F163" t="n">
-        <v>17800</v>
+        <v>20400</v>
       </c>
       <c r="G163" t="n">
-        <v>36.40333333333334</v>
+        <v>36.44833333333334</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6149,16 +6353,16 @@
         <v>35</v>
       </c>
       <c r="D164" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="E164" t="n">
         <v>35</v>
       </c>
       <c r="F164" t="n">
-        <v>30800</v>
+        <v>17800</v>
       </c>
       <c r="G164" t="n">
-        <v>36.35833333333335</v>
+        <v>36.40333333333334</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6181,19 +6385,19 @@
         <v>35</v>
       </c>
       <c r="C165" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="D165" t="n">
         <v>35</v>
       </c>
       <c r="E165" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="F165" t="n">
-        <v>21200</v>
+        <v>30800</v>
       </c>
       <c r="G165" t="n">
-        <v>36.31333333333335</v>
+        <v>36.35833333333335</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6213,22 +6417,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="C166" t="n">
-        <v>35.4</v>
+        <v>34.8</v>
       </c>
       <c r="D166" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="E166" t="n">
-        <v>35.4</v>
+        <v>34.8</v>
       </c>
       <c r="F166" t="n">
-        <v>14.56</v>
+        <v>21200</v>
       </c>
       <c r="G166" t="n">
-        <v>36.28000000000002</v>
+        <v>36.31333333333335</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6248,22 +6452,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>35</v>
+        <v>35.4</v>
       </c>
       <c r="C167" t="n">
         <v>35.4</v>
       </c>
       <c r="D167" t="n">
-        <v>35.6</v>
+        <v>35.4</v>
       </c>
       <c r="E167" t="n">
-        <v>35</v>
+        <v>35.4</v>
       </c>
       <c r="F167" t="n">
-        <v>67275.59970000001</v>
+        <v>14.56</v>
       </c>
       <c r="G167" t="n">
-        <v>36.24666666666668</v>
+        <v>36.28000000000002</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6283,22 +6487,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="C168" t="n">
         <v>35.4</v>
       </c>
       <c r="D168" t="n">
-        <v>35.4</v>
+        <v>35.6</v>
       </c>
       <c r="E168" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="F168" t="n">
-        <v>39800</v>
+        <v>67275.59970000001</v>
       </c>
       <c r="G168" t="n">
-        <v>36.22000000000002</v>
+        <v>36.24666666666668</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6330,10 +6534,10 @@
         <v>35.4</v>
       </c>
       <c r="F169" t="n">
-        <v>3000</v>
+        <v>39800</v>
       </c>
       <c r="G169" t="n">
-        <v>36.19333333333336</v>
+        <v>36.22000000000002</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6353,22 +6557,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>35.6</v>
+        <v>35.4</v>
       </c>
       <c r="C170" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="D170" t="n">
-        <v>35.6</v>
+        <v>35.4</v>
       </c>
       <c r="E170" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="F170" t="n">
-        <v>4526.316</v>
+        <v>3000</v>
       </c>
       <c r="G170" t="n">
-        <v>36.17000000000002</v>
+        <v>36.19333333333336</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6388,22 +6592,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>35.1</v>
+        <v>35.6</v>
       </c>
       <c r="C171" t="n">
-        <v>35.1</v>
+        <v>35.5</v>
       </c>
       <c r="D171" t="n">
-        <v>35.1</v>
+        <v>35.6</v>
       </c>
       <c r="E171" t="n">
-        <v>35.1</v>
+        <v>35.5</v>
       </c>
       <c r="F171" t="n">
-        <v>785.8972</v>
+        <v>4526.316</v>
       </c>
       <c r="G171" t="n">
-        <v>36.13166666666668</v>
+        <v>36.17000000000002</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6426,19 +6630,19 @@
         <v>35.1</v>
       </c>
       <c r="C172" t="n">
-        <v>35.6</v>
+        <v>35.1</v>
       </c>
       <c r="D172" t="n">
-        <v>35.6</v>
+        <v>35.1</v>
       </c>
       <c r="E172" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="F172" t="n">
-        <v>23035.8692</v>
+        <v>785.8972</v>
       </c>
       <c r="G172" t="n">
-        <v>36.10833333333335</v>
+        <v>36.13166666666668</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6458,7 +6662,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>35.6</v>
+        <v>35.1</v>
       </c>
       <c r="C173" t="n">
         <v>35.6</v>
@@ -6467,13 +6671,13 @@
         <v>35.6</v>
       </c>
       <c r="E173" t="n">
-        <v>35.6</v>
+        <v>35</v>
       </c>
       <c r="F173" t="n">
-        <v>10</v>
+        <v>23035.8692</v>
       </c>
       <c r="G173" t="n">
-        <v>36.08666666666668</v>
+        <v>36.10833333333335</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6505,10 +6709,10 @@
         <v>35.6</v>
       </c>
       <c r="F174" t="n">
-        <v>4746</v>
+        <v>10</v>
       </c>
       <c r="G174" t="n">
-        <v>36.06000000000002</v>
+        <v>36.08666666666668</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6531,19 +6735,19 @@
         <v>35.6</v>
       </c>
       <c r="C175" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="D175" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="E175" t="n">
         <v>35.6</v>
       </c>
       <c r="F175" t="n">
-        <v>16313.015</v>
+        <v>4746</v>
       </c>
       <c r="G175" t="n">
-        <v>36.03500000000001</v>
+        <v>36.06000000000002</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6563,22 +6767,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>35.9</v>
+        <v>35.6</v>
       </c>
       <c r="C176" t="n">
         <v>35.7</v>
       </c>
       <c r="D176" t="n">
-        <v>36</v>
+        <v>35.7</v>
       </c>
       <c r="E176" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="F176" t="n">
-        <v>7101.1047</v>
+        <v>16313.015</v>
       </c>
       <c r="G176" t="n">
-        <v>36.01333333333334</v>
+        <v>36.03500000000001</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6598,22 +6802,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="C177" t="n">
-        <v>35.5</v>
+        <v>35.7</v>
       </c>
       <c r="D177" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="E177" t="n">
-        <v>35.3</v>
+        <v>35.7</v>
       </c>
       <c r="F177" t="n">
-        <v>20969.0764</v>
+        <v>7101.1047</v>
       </c>
       <c r="G177" t="n">
-        <v>35.98666666666668</v>
+        <v>36.01333333333334</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6636,19 +6840,19 @@
         <v>36.1</v>
       </c>
       <c r="C178" t="n">
-        <v>36.2</v>
+        <v>35.5</v>
       </c>
       <c r="D178" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="E178" t="n">
-        <v>36.1</v>
+        <v>35.3</v>
       </c>
       <c r="F178" t="n">
-        <v>11968.434</v>
+        <v>20969.0764</v>
       </c>
       <c r="G178" t="n">
-        <v>35.97500000000001</v>
+        <v>35.98666666666668</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6671,19 +6875,19 @@
         <v>36.1</v>
       </c>
       <c r="C179" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="D179" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="E179" t="n">
         <v>36.1</v>
       </c>
-      <c r="E179" t="n">
-        <v>35.7</v>
-      </c>
       <c r="F179" t="n">
-        <v>11128.6128</v>
+        <v>11968.434</v>
       </c>
       <c r="G179" t="n">
-        <v>35.97000000000001</v>
+        <v>35.97500000000001</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6703,22 +6907,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>35.9</v>
+        <v>36.1</v>
       </c>
       <c r="C180" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="D180" t="n">
         <v>36.1</v>
       </c>
       <c r="E180" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="F180" t="n">
-        <v>10215.3601</v>
+        <v>11128.6128</v>
       </c>
       <c r="G180" t="n">
-        <v>35.96000000000001</v>
+        <v>35.97000000000001</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6741,19 +6945,19 @@
         <v>35.9</v>
       </c>
       <c r="C181" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="D181" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="E181" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="F181" t="n">
-        <v>1500</v>
+        <v>10215.3601</v>
       </c>
       <c r="G181" t="n">
-        <v>35.95666666666668</v>
+        <v>35.96000000000001</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6773,22 +6977,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>36.4</v>
+        <v>35.9</v>
       </c>
       <c r="C182" t="n">
-        <v>36.4</v>
+        <v>36</v>
       </c>
       <c r="D182" t="n">
-        <v>36.5</v>
+        <v>36</v>
       </c>
       <c r="E182" t="n">
-        <v>36.4</v>
+        <v>35.9</v>
       </c>
       <c r="F182" t="n">
-        <v>35724.5148</v>
+        <v>1500</v>
       </c>
       <c r="G182" t="n">
-        <v>35.95500000000001</v>
+        <v>35.95666666666668</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6808,19 +7012,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>36.8</v>
+        <v>36.4</v>
       </c>
       <c r="C183" t="n">
         <v>36.4</v>
       </c>
       <c r="D183" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="E183" t="n">
         <v>36.4</v>
       </c>
       <c r="F183" t="n">
-        <v>77357.75930000001</v>
+        <v>35724.5148</v>
       </c>
       <c r="G183" t="n">
         <v>35.95500000000001</v>
@@ -6843,22 +7047,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>36.4</v>
+        <v>36.8</v>
       </c>
       <c r="C184" t="n">
         <v>36.4</v>
       </c>
       <c r="D184" t="n">
-        <v>36.4</v>
+        <v>36.8</v>
       </c>
       <c r="E184" t="n">
         <v>36.4</v>
       </c>
       <c r="F184" t="n">
-        <v>5340.8885</v>
+        <v>77357.75930000001</v>
       </c>
       <c r="G184" t="n">
-        <v>35.95000000000002</v>
+        <v>35.95500000000001</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6878,22 +7082,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="C185" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="D185" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="E185" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="F185" t="n">
-        <v>1433.4934</v>
+        <v>5340.8885</v>
       </c>
       <c r="G185" t="n">
-        <v>35.94833333333335</v>
+        <v>35.95000000000002</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6916,19 +7120,19 @@
         <v>36.6</v>
       </c>
       <c r="C186" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="D186" t="n">
         <v>36.6</v>
       </c>
       <c r="E186" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F186" t="n">
-        <v>821</v>
+        <v>1433.4934</v>
       </c>
       <c r="G186" t="n">
-        <v>35.94500000000002</v>
+        <v>35.94833333333335</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6948,22 +7152,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C187" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="D187" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E187" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="F187" t="n">
-        <v>5405.4622</v>
+        <v>821</v>
       </c>
       <c r="G187" t="n">
-        <v>35.94333333333336</v>
+        <v>35.94500000000002</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6995,10 +7199,10 @@
         <v>36.4</v>
       </c>
       <c r="F188" t="n">
-        <v>1760.2132</v>
+        <v>5405.4622</v>
       </c>
       <c r="G188" t="n">
-        <v>35.94166666666669</v>
+        <v>35.94333333333336</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7018,7 +7222,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="C189" t="n">
         <v>36.4</v>
@@ -7030,7 +7234,7 @@
         <v>36.4</v>
       </c>
       <c r="F189" t="n">
-        <v>3333.8</v>
+        <v>1760.2132</v>
       </c>
       <c r="G189" t="n">
         <v>35.94166666666669</v>
@@ -7059,16 +7263,16 @@
         <v>36.4</v>
       </c>
       <c r="D190" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="E190" t="n">
         <v>36.4</v>
       </c>
       <c r="F190" t="n">
-        <v>3727.4407</v>
+        <v>3333.8</v>
       </c>
       <c r="G190" t="n">
-        <v>35.93333333333336</v>
+        <v>35.94166666666669</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7091,19 +7295,19 @@
         <v>36.4</v>
       </c>
       <c r="C191" t="n">
-        <v>36.1</v>
+        <v>36.4</v>
       </c>
       <c r="D191" t="n">
         <v>36.4</v>
       </c>
       <c r="E191" t="n">
-        <v>36.1</v>
+        <v>36.4</v>
       </c>
       <c r="F191" t="n">
-        <v>2500</v>
+        <v>3727.4407</v>
       </c>
       <c r="G191" t="n">
-        <v>35.92000000000002</v>
+        <v>35.93333333333336</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7123,22 +7327,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="C192" t="n">
         <v>36.1</v>
       </c>
-      <c r="C192" t="n">
-        <v>36.5</v>
-      </c>
       <c r="D192" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="E192" t="n">
         <v>36.1</v>
       </c>
       <c r="F192" t="n">
-        <v>8926.7408</v>
+        <v>2500</v>
       </c>
       <c r="G192" t="n">
-        <v>35.92166666666669</v>
+        <v>35.92000000000002</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7158,22 +7362,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="C193" t="n">
-        <v>36.2</v>
+        <v>36.5</v>
       </c>
       <c r="D193" t="n">
-        <v>36.2</v>
+        <v>36.5</v>
       </c>
       <c r="E193" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="F193" t="n">
-        <v>954.4789</v>
+        <v>8926.7408</v>
       </c>
       <c r="G193" t="n">
-        <v>35.90500000000002</v>
+        <v>35.92166666666669</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7193,22 +7397,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="C194" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="D194" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="E194" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="F194" t="n">
-        <v>2900</v>
+        <v>954.4789</v>
       </c>
       <c r="G194" t="n">
-        <v>35.88666666666668</v>
+        <v>35.90500000000002</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7228,22 +7432,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="C195" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="D195" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="E195" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="F195" t="n">
-        <v>736.0137</v>
+        <v>2900</v>
       </c>
       <c r="G195" t="n">
-        <v>35.88166666666669</v>
+        <v>35.88666666666668</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7266,19 +7470,19 @@
         <v>36.4</v>
       </c>
       <c r="C196" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="D196" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="E196" t="n">
         <v>36.4</v>
       </c>
       <c r="F196" t="n">
-        <v>7386.3867</v>
+        <v>736.0137</v>
       </c>
       <c r="G196" t="n">
-        <v>35.88000000000002</v>
+        <v>35.88166666666669</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7298,22 +7502,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C197" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="D197" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E197" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F197" t="n">
-        <v>17527.6589</v>
+        <v>7386.3867</v>
       </c>
       <c r="G197" t="n">
-        <v>35.87666666666669</v>
+        <v>35.88000000000002</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7336,19 +7540,19 @@
         <v>36.5</v>
       </c>
       <c r="C198" t="n">
-        <v>36.2</v>
+        <v>36.5</v>
       </c>
       <c r="D198" t="n">
         <v>36.5</v>
       </c>
       <c r="E198" t="n">
-        <v>36.2</v>
+        <v>36.5</v>
       </c>
       <c r="F198" t="n">
-        <v>8706.4506</v>
+        <v>17527.6589</v>
       </c>
       <c r="G198" t="n">
-        <v>35.87166666666669</v>
+        <v>35.87666666666669</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7368,22 +7572,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>36.1</v>
+        <v>36.5</v>
       </c>
       <c r="C199" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="D199" t="n">
-        <v>36.1</v>
+        <v>36.5</v>
       </c>
       <c r="E199" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="F199" t="n">
-        <v>3099.1468</v>
+        <v>8706.4506</v>
       </c>
       <c r="G199" t="n">
-        <v>35.86500000000002</v>
+        <v>35.87166666666669</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7406,19 +7610,19 @@
         <v>36.1</v>
       </c>
       <c r="C200" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="D200" t="n">
         <v>36.1</v>
       </c>
       <c r="E200" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="F200" t="n">
-        <v>2350.2697</v>
+        <v>3099.1468</v>
       </c>
       <c r="G200" t="n">
-        <v>35.86000000000002</v>
+        <v>35.86500000000002</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7450,10 +7654,10 @@
         <v>36.1</v>
       </c>
       <c r="F201" t="n">
-        <v>1559.4773</v>
+        <v>2350.2697</v>
       </c>
       <c r="G201" t="n">
-        <v>35.85500000000002</v>
+        <v>35.86000000000002</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7476,19 +7680,19 @@
         <v>36.1</v>
       </c>
       <c r="C202" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="D202" t="n">
         <v>36.1</v>
       </c>
       <c r="E202" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="F202" t="n">
-        <v>52745.6212</v>
+        <v>1559.4773</v>
       </c>
       <c r="G202" t="n">
-        <v>35.84833333333335</v>
+        <v>35.85500000000002</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7508,22 +7712,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>35.8</v>
+        <v>36.1</v>
       </c>
       <c r="C203" t="n">
-        <v>35.7</v>
+        <v>36</v>
       </c>
       <c r="D203" t="n">
-        <v>35.8</v>
+        <v>36.1</v>
       </c>
       <c r="E203" t="n">
-        <v>35.7</v>
+        <v>36</v>
       </c>
       <c r="F203" t="n">
-        <v>1537.7742</v>
+        <v>52745.6212</v>
       </c>
       <c r="G203" t="n">
-        <v>35.83333333333335</v>
+        <v>35.84833333333335</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7543,22 +7747,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>35.1</v>
+        <v>35.8</v>
       </c>
       <c r="C204" t="n">
-        <v>34.9</v>
+        <v>35.7</v>
       </c>
       <c r="D204" t="n">
-        <v>35.1</v>
+        <v>35.8</v>
       </c>
       <c r="E204" t="n">
-        <v>34.9</v>
+        <v>35.7</v>
       </c>
       <c r="F204" t="n">
-        <v>66629.97040000001</v>
+        <v>1537.7742</v>
       </c>
       <c r="G204" t="n">
-        <v>35.80833333333335</v>
+        <v>35.83333333333335</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7578,22 +7782,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="C205" t="n">
         <v>34.9</v>
       </c>
-      <c r="C205" t="n">
-        <v>34.7</v>
-      </c>
       <c r="D205" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="E205" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="F205" t="n">
-        <v>51230.598</v>
+        <v>66629.97040000001</v>
       </c>
       <c r="G205" t="n">
-        <v>35.78000000000001</v>
+        <v>35.80833333333335</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7613,22 +7817,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>35.1</v>
+        <v>34.9</v>
       </c>
       <c r="C206" t="n">
-        <v>35.5</v>
+        <v>34.7</v>
       </c>
       <c r="D206" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="E206" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="F206" t="n">
-        <v>43800.6135</v>
+        <v>51230.598</v>
       </c>
       <c r="G206" t="n">
-        <v>35.76666666666667</v>
+        <v>35.78000000000001</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7651,19 +7855,19 @@
         <v>35.1</v>
       </c>
       <c r="C207" t="n">
-        <v>35.2</v>
+        <v>35.5</v>
       </c>
       <c r="D207" t="n">
-        <v>35.2</v>
+        <v>35.5</v>
       </c>
       <c r="E207" t="n">
-        <v>35.1</v>
+        <v>34.8</v>
       </c>
       <c r="F207" t="n">
-        <v>19427.4014</v>
+        <v>43800.6135</v>
       </c>
       <c r="G207" t="n">
-        <v>35.75000000000001</v>
+        <v>35.76666666666667</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7683,22 +7887,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="C208" t="n">
         <v>35.2</v>
       </c>
-      <c r="C208" t="n">
-        <v>35.5</v>
-      </c>
       <c r="D208" t="n">
-        <v>35.5</v>
+        <v>35.2</v>
       </c>
       <c r="E208" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="F208" t="n">
-        <v>49800</v>
+        <v>19427.4014</v>
       </c>
       <c r="G208" t="n">
-        <v>35.74666666666668</v>
+        <v>35.75000000000001</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7721,19 +7925,19 @@
         <v>35.2</v>
       </c>
       <c r="C209" t="n">
-        <v>35.2</v>
+        <v>35.5</v>
       </c>
       <c r="D209" t="n">
-        <v>35.2</v>
+        <v>35.5</v>
       </c>
       <c r="E209" t="n">
         <v>35.2</v>
       </c>
       <c r="F209" t="n">
-        <v>998.0758</v>
+        <v>49800</v>
       </c>
       <c r="G209" t="n">
-        <v>35.74000000000001</v>
+        <v>35.74666666666668</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7753,22 +7957,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="C210" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="D210" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="E210" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="F210" t="n">
-        <v>6719.8337</v>
+        <v>998.0758</v>
       </c>
       <c r="G210" t="n">
-        <v>35.73833333333334</v>
+        <v>35.74000000000001</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7800,10 +8004,10 @@
         <v>35.4</v>
       </c>
       <c r="F211" t="n">
-        <v>4000</v>
+        <v>6719.8337</v>
       </c>
       <c r="G211" t="n">
-        <v>35.73500000000001</v>
+        <v>35.73833333333334</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7826,19 +8030,19 @@
         <v>35.4</v>
       </c>
       <c r="C212" t="n">
-        <v>35.2</v>
+        <v>35.4</v>
       </c>
       <c r="D212" t="n">
         <v>35.4</v>
       </c>
       <c r="E212" t="n">
-        <v>35.2</v>
+        <v>35.4</v>
       </c>
       <c r="F212" t="n">
-        <v>3397.0298</v>
+        <v>4000</v>
       </c>
       <c r="G212" t="n">
-        <v>35.74166666666667</v>
+        <v>35.73500000000001</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7858,22 +8062,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="C213" t="n">
-        <v>35.5</v>
+        <v>35.2</v>
       </c>
       <c r="D213" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="E213" t="n">
-        <v>35.5</v>
+        <v>35.2</v>
       </c>
       <c r="F213" t="n">
-        <v>5000</v>
+        <v>3397.0298</v>
       </c>
       <c r="G213" t="n">
-        <v>35.74333333333334</v>
+        <v>35.74166666666667</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7905,7 +8109,7 @@
         <v>35.5</v>
       </c>
       <c r="F214" t="n">
-        <v>514.5599999999999</v>
+        <v>5000</v>
       </c>
       <c r="G214" t="n">
         <v>35.74333333333334</v>
@@ -7940,10 +8144,10 @@
         <v>35.5</v>
       </c>
       <c r="F215" t="n">
-        <v>264.9129</v>
+        <v>514.5599999999999</v>
       </c>
       <c r="G215" t="n">
-        <v>35.74166666666667</v>
+        <v>35.74333333333334</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7966,16 +8170,16 @@
         <v>35.5</v>
       </c>
       <c r="C216" t="n">
-        <v>35.7</v>
+        <v>35.5</v>
       </c>
       <c r="D216" t="n">
-        <v>35.7</v>
+        <v>35.5</v>
       </c>
       <c r="E216" t="n">
-        <v>35.3</v>
+        <v>35.5</v>
       </c>
       <c r="F216" t="n">
-        <v>30966.0451</v>
+        <v>264.9129</v>
       </c>
       <c r="G216" t="n">
         <v>35.74166666666667</v>
@@ -7998,22 +8202,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="C217" t="n">
         <v>35.7</v>
       </c>
-      <c r="C217" t="n">
-        <v>36</v>
-      </c>
       <c r="D217" t="n">
-        <v>36</v>
+        <v>35.7</v>
       </c>
       <c r="E217" t="n">
-        <v>35.7</v>
+        <v>35.3</v>
       </c>
       <c r="F217" t="n">
-        <v>19100</v>
+        <v>30966.0451</v>
       </c>
       <c r="G217" t="n">
-        <v>35.74833333333334</v>
+        <v>35.74166666666667</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8033,22 +8237,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>36.1</v>
+        <v>35.7</v>
       </c>
       <c r="C218" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="D218" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="E218" t="n">
-        <v>36.1</v>
+        <v>35.7</v>
       </c>
       <c r="F218" t="n">
-        <v>10009</v>
+        <v>19100</v>
       </c>
       <c r="G218" t="n">
-        <v>35.75833333333334</v>
+        <v>35.74833333333334</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8068,7 +8272,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="C219" t="n">
         <v>36.2</v>
@@ -8077,13 +8281,13 @@
         <v>36.2</v>
       </c>
       <c r="E219" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="F219" t="n">
-        <v>1445.441</v>
+        <v>10009</v>
       </c>
       <c r="G219" t="n">
-        <v>35.77166666666667</v>
+        <v>35.75833333333334</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8106,19 +8310,19 @@
         <v>36.2</v>
       </c>
       <c r="C220" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="D220" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="E220" t="n">
         <v>36.2</v>
       </c>
       <c r="F220" t="n">
-        <v>3065.1604</v>
+        <v>1445.441</v>
       </c>
       <c r="G220" t="n">
-        <v>35.78833333333333</v>
+        <v>35.77166666666667</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8138,22 +8342,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="C221" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="D221" t="n">
         <v>36.4</v>
       </c>
       <c r="E221" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="F221" t="n">
-        <v>38400</v>
+        <v>3065.1604</v>
       </c>
       <c r="G221" t="n">
-        <v>35.81000000000001</v>
+        <v>35.78833333333333</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8173,22 +8377,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="C222" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="D222" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="E222" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="F222" t="n">
-        <v>16628.6899</v>
+        <v>38400</v>
       </c>
       <c r="G222" t="n">
-        <v>35.83000000000001</v>
+        <v>35.81000000000001</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8208,22 +8412,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="C223" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="D223" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
       <c r="E223" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="F223" t="n">
-        <v>30588.124</v>
+        <v>16628.6899</v>
       </c>
       <c r="G223" t="n">
-        <v>35.84833333333334</v>
+        <v>35.83000000000001</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8246,19 +8450,19 @@
         <v>36.3</v>
       </c>
       <c r="C224" t="n">
-        <v>36.4</v>
+        <v>36.1</v>
       </c>
       <c r="D224" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="E224" t="n">
-        <v>36.3</v>
+        <v>36.1</v>
       </c>
       <c r="F224" t="n">
-        <v>19200</v>
+        <v>30588.124</v>
       </c>
       <c r="G224" t="n">
-        <v>35.87166666666667</v>
+        <v>35.84833333333334</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8278,22 +8482,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="C225" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="D225" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="E225" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="F225" t="n">
-        <v>884.4977</v>
+        <v>19200</v>
       </c>
       <c r="G225" t="n">
-        <v>35.895</v>
+        <v>35.87166666666667</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8325,10 +8529,10 @@
         <v>36.2</v>
       </c>
       <c r="F226" t="n">
-        <v>3000</v>
+        <v>884.4977</v>
       </c>
       <c r="G226" t="n">
-        <v>35.90833333333332</v>
+        <v>35.895</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8351,19 +8555,19 @@
         <v>36.2</v>
       </c>
       <c r="C227" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="D227" t="n">
         <v>36.2</v>
       </c>
       <c r="E227" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="F227" t="n">
-        <v>2238.2427</v>
+        <v>3000</v>
       </c>
       <c r="G227" t="n">
-        <v>35.91999999999999</v>
+        <v>35.90833333333332</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8383,22 +8587,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="C228" t="n">
-        <v>36.3</v>
+        <v>36.1</v>
       </c>
       <c r="D228" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="E228" t="n">
-        <v>36.3</v>
+        <v>36.1</v>
       </c>
       <c r="F228" t="n">
-        <v>10774.8103</v>
+        <v>2238.2427</v>
       </c>
       <c r="G228" t="n">
-        <v>35.93499999999999</v>
+        <v>35.91999999999999</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8418,22 +8622,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="C229" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="D229" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="E229" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="F229" t="n">
-        <v>12502.1249</v>
+        <v>10774.8103</v>
       </c>
       <c r="G229" t="n">
-        <v>35.95166666666666</v>
+        <v>35.93499999999999</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8453,22 +8657,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="C230" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="D230" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="E230" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="F230" t="n">
-        <v>5749.0963</v>
+        <v>12502.1249</v>
       </c>
       <c r="G230" t="n">
-        <v>35.96333333333332</v>
+        <v>35.95166666666666</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8488,22 +8692,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="C231" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="D231" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="E231" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="F231" t="n">
-        <v>860.1196</v>
+        <v>5749.0963</v>
       </c>
       <c r="G231" t="n">
-        <v>35.98499999999999</v>
+        <v>35.96333333333332</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8523,22 +8727,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C232" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="D232" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="E232" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F232" t="n">
-        <v>879.1128</v>
+        <v>860.1196</v>
       </c>
       <c r="G232" t="n">
-        <v>35.99999999999999</v>
+        <v>35.98499999999999</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8570,10 +8774,10 @@
         <v>36.5</v>
       </c>
       <c r="F233" t="n">
-        <v>500</v>
+        <v>879.1128</v>
       </c>
       <c r="G233" t="n">
-        <v>36.01499999999999</v>
+        <v>35.99999999999999</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8596,19 +8800,19 @@
         <v>36.5</v>
       </c>
       <c r="C234" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D234" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E234" t="n">
         <v>36.5</v>
       </c>
       <c r="F234" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G234" t="n">
-        <v>36.03166666666666</v>
+        <v>36.01499999999999</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8628,7 +8832,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C235" t="n">
         <v>36.6</v>
@@ -8637,13 +8841,13 @@
         <v>36.6</v>
       </c>
       <c r="E235" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F235" t="n">
-        <v>1246.7794</v>
+        <v>1000</v>
       </c>
       <c r="G235" t="n">
-        <v>36.04666666666666</v>
+        <v>36.03166666666666</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8663,22 +8867,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="C236" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="D236" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="E236" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="F236" t="n">
-        <v>1556.9556</v>
+        <v>1246.7794</v>
       </c>
       <c r="G236" t="n">
-        <v>36.05833333333333</v>
+        <v>36.04666666666666</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8698,22 +8902,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="C237" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="D237" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="E237" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="F237" t="n">
-        <v>1060.5237</v>
+        <v>1556.9556</v>
       </c>
       <c r="G237" t="n">
-        <v>36.07166666666667</v>
+        <v>36.05833333333333</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8733,22 +8937,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="C238" t="n">
         <v>36.3</v>
       </c>
       <c r="D238" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="E238" t="n">
         <v>36.3</v>
       </c>
       <c r="F238" t="n">
-        <v>17513.4413</v>
+        <v>1060.5237</v>
       </c>
       <c r="G238" t="n">
-        <v>36.07333333333334</v>
+        <v>36.07166666666667</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8768,22 +8972,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="C239" t="n">
         <v>36.3</v>
       </c>
       <c r="D239" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="E239" t="n">
         <v>36.3</v>
       </c>
       <c r="F239" t="n">
-        <v>1000</v>
+        <v>17513.4413</v>
       </c>
       <c r="G239" t="n">
-        <v>36.07833333333335</v>
+        <v>36.07333333333334</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8803,22 +9007,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="C240" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="D240" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="E240" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="F240" t="n">
-        <v>18095.7922</v>
+        <v>1000</v>
       </c>
       <c r="G240" t="n">
-        <v>36.09000000000001</v>
+        <v>36.07833333333335</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8838,7 +9042,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C241" t="n">
         <v>36.5</v>
@@ -8847,13 +9051,13 @@
         <v>36.5</v>
       </c>
       <c r="E241" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F241" t="n">
-        <v>1154.4475</v>
+        <v>18095.7922</v>
       </c>
       <c r="G241" t="n">
-        <v>36.09833333333334</v>
+        <v>36.09000000000001</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8876,19 +9080,19 @@
         <v>36.5</v>
       </c>
       <c r="C242" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D242" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E242" t="n">
         <v>36.5</v>
       </c>
       <c r="F242" t="n">
-        <v>4263.9453</v>
+        <v>1154.4475</v>
       </c>
       <c r="G242" t="n">
-        <v>36.10166666666667</v>
+        <v>36.09833333333334</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8908,22 +9112,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="C243" t="n">
-        <v>35.8</v>
+        <v>36.6</v>
       </c>
       <c r="D243" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="E243" t="n">
-        <v>35.8</v>
+        <v>36.5</v>
       </c>
       <c r="F243" t="n">
-        <v>112612</v>
+        <v>4263.9453</v>
       </c>
       <c r="G243" t="n">
-        <v>36.09166666666668</v>
+        <v>36.10166666666667</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8943,22 +9147,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="C244" t="n">
-        <v>36.5</v>
+        <v>35.8</v>
       </c>
       <c r="D244" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="E244" t="n">
-        <v>36.2</v>
+        <v>35.8</v>
       </c>
       <c r="F244" t="n">
-        <v>26738.3424</v>
+        <v>112612</v>
       </c>
       <c r="G244" t="n">
-        <v>36.09333333333334</v>
+        <v>36.09166666666668</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8978,7 +9182,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="C245" t="n">
         <v>36.5</v>
@@ -8987,13 +9191,13 @@
         <v>36.5</v>
       </c>
       <c r="E245" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="F245" t="n">
-        <v>5000</v>
+        <v>26738.3424</v>
       </c>
       <c r="G245" t="n">
-        <v>36.09166666666668</v>
+        <v>36.09333333333334</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9013,7 +9217,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="C246" t="n">
         <v>36.5</v>
@@ -9022,10 +9226,10 @@
         <v>36.5</v>
       </c>
       <c r="E246" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="F246" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="G246" t="n">
         <v>36.09166666666668</v>
@@ -9048,19 +9252,19 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="C247" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="D247" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="E247" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="F247" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="G247" t="n">
         <v>36.09166666666668</v>
@@ -9086,19 +9290,19 @@
         <v>36.4</v>
       </c>
       <c r="C248" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="D248" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="E248" t="n">
         <v>36.4</v>
       </c>
       <c r="F248" t="n">
-        <v>12533</v>
+        <v>5000</v>
       </c>
       <c r="G248" t="n">
-        <v>36.09500000000001</v>
+        <v>36.09166666666668</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9118,22 +9322,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="C249" t="n">
         <v>36.6</v>
       </c>
-      <c r="C249" t="n">
-        <v>36.8</v>
-      </c>
       <c r="D249" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="E249" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="F249" t="n">
-        <v>15000</v>
+        <v>12533</v>
       </c>
       <c r="G249" t="n">
-        <v>36.10166666666667</v>
+        <v>36.09500000000001</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9153,22 +9357,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="C250" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="D250" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="E250" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="F250" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="G250" t="n">
-        <v>36.10666666666667</v>
+        <v>36.10166666666667</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9200,10 +9404,10 @@
         <v>36.7</v>
       </c>
       <c r="F251" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="G251" t="n">
-        <v>36.11666666666667</v>
+        <v>36.10666666666667</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9223,22 +9427,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="C252" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="D252" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="E252" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="F252" t="n">
-        <v>782.7041</v>
+        <v>4000</v>
       </c>
       <c r="G252" t="n">
-        <v>36.11833333333333</v>
+        <v>36.11666666666667</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9270,10 +9474,10 @@
         <v>36.6</v>
       </c>
       <c r="F253" t="n">
-        <v>10111.2899</v>
+        <v>782.7041</v>
       </c>
       <c r="G253" t="n">
-        <v>36.125</v>
+        <v>36.11833333333333</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9305,10 +9509,10 @@
         <v>36.6</v>
       </c>
       <c r="F254" t="n">
-        <v>5000</v>
+        <v>10111.2899</v>
       </c>
       <c r="G254" t="n">
-        <v>36.13</v>
+        <v>36.125</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9328,22 +9532,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="C255" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="D255" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="E255" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F255" t="n">
-        <v>146649.7041</v>
+        <v>5000</v>
       </c>
       <c r="G255" t="n">
-        <v>36.13166666666666</v>
+        <v>36.13</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9363,22 +9567,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="C256" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="D256" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="E256" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="F256" t="n">
-        <v>11000</v>
+        <v>146649.7041</v>
       </c>
       <c r="G256" t="n">
-        <v>36.135</v>
+        <v>36.13166666666666</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9398,22 +9602,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>36.5</v>
+        <v>36.8</v>
       </c>
       <c r="C257" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="D257" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="E257" t="n">
-        <v>36.5</v>
+        <v>36.8</v>
       </c>
       <c r="F257" t="n">
-        <v>1781.9765</v>
+        <v>11000</v>
       </c>
       <c r="G257" t="n">
-        <v>36.13666666666666</v>
+        <v>36.135</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9433,22 +9637,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C258" t="n">
         <v>36.6</v>
-      </c>
-      <c r="C258" t="n">
-        <v>36.4</v>
       </c>
       <c r="D258" t="n">
         <v>36.6</v>
       </c>
       <c r="E258" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="F258" t="n">
-        <v>12030.7686</v>
+        <v>1781.9765</v>
       </c>
       <c r="G258" t="n">
-        <v>36.14</v>
+        <v>36.13666666666666</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9468,22 +9672,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C259" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="D259" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E259" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F259" t="n">
-        <v>1581.425</v>
+        <v>12030.7686</v>
       </c>
       <c r="G259" t="n">
-        <v>36.14833333333333</v>
+        <v>36.14</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9515,10 +9719,10 @@
         <v>36.5</v>
       </c>
       <c r="F260" t="n">
-        <v>1694.6147</v>
+        <v>1581.425</v>
       </c>
       <c r="G260" t="n">
-        <v>36.155</v>
+        <v>36.14833333333333</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9550,10 +9754,10 @@
         <v>36.5</v>
       </c>
       <c r="F261" t="n">
-        <v>1607.3964</v>
+        <v>1694.6147</v>
       </c>
       <c r="G261" t="n">
-        <v>36.16166666666667</v>
+        <v>36.155</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9585,10 +9789,10 @@
         <v>36.5</v>
       </c>
       <c r="F262" t="n">
-        <v>783.3413</v>
+        <v>1607.3964</v>
       </c>
       <c r="G262" t="n">
-        <v>36.17</v>
+        <v>36.16166666666667</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9608,22 +9812,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="C263" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="D263" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="E263" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="F263" t="n">
-        <v>1121.349</v>
+        <v>783.3413</v>
       </c>
       <c r="G263" t="n">
-        <v>36.18166666666668</v>
+        <v>36.17</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9655,10 +9859,10 @@
         <v>36.4</v>
       </c>
       <c r="F264" t="n">
-        <v>809.6289</v>
+        <v>1121.349</v>
       </c>
       <c r="G264" t="n">
-        <v>36.20666666666668</v>
+        <v>36.18166666666668</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9678,22 +9882,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="C265" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="D265" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="E265" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="F265" t="n">
-        <v>10000</v>
+        <v>809.6289</v>
       </c>
       <c r="G265" t="n">
-        <v>36.23333333333335</v>
+        <v>36.20666666666668</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9716,19 +9920,19 @@
         <v>36.3</v>
       </c>
       <c r="C266" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="D266" t="n">
         <v>36.3</v>
       </c>
       <c r="E266" t="n">
-        <v>35.9</v>
+        <v>36.3</v>
       </c>
       <c r="F266" t="n">
-        <v>293255.8195</v>
+        <v>10000</v>
       </c>
       <c r="G266" t="n">
-        <v>36.24500000000001</v>
+        <v>36.23333333333335</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9751,19 +9955,19 @@
         <v>36.3</v>
       </c>
       <c r="C267" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="D267" t="n">
         <v>36.3</v>
       </c>
       <c r="E267" t="n">
-        <v>36.3</v>
+        <v>35.9</v>
       </c>
       <c r="F267" t="n">
-        <v>19000</v>
+        <v>293255.8195</v>
       </c>
       <c r="G267" t="n">
-        <v>36.26333333333335</v>
+        <v>36.24500000000001</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9795,10 +9999,10 @@
         <v>36.3</v>
       </c>
       <c r="F268" t="n">
-        <v>8693.5465</v>
+        <v>19000</v>
       </c>
       <c r="G268" t="n">
-        <v>36.27666666666669</v>
+        <v>36.26333333333335</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9821,19 +10025,19 @@
         <v>36.3</v>
       </c>
       <c r="C269" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="D269" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="E269" t="n">
         <v>36.3</v>
       </c>
       <c r="F269" t="n">
-        <v>23485.4971</v>
+        <v>8693.5465</v>
       </c>
       <c r="G269" t="n">
-        <v>36.2966666666667</v>
+        <v>36.27666666666669</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9853,22 +10057,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="C270" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="D270" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="E270" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="F270" t="n">
-        <v>878.1847</v>
+        <v>23485.4971</v>
       </c>
       <c r="G270" t="n">
-        <v>36.31000000000002</v>
+        <v>36.2966666666667</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9888,22 +10092,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="C271" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="D271" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="E271" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="F271" t="n">
-        <v>13740.92907884615</v>
+        <v>878.1847</v>
       </c>
       <c r="G271" t="n">
-        <v>36.32666666666669</v>
+        <v>36.31000000000002</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9926,19 +10130,19 @@
         <v>36.3</v>
       </c>
       <c r="C272" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="D272" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="E272" t="n">
         <v>36.3</v>
       </c>
       <c r="F272" t="n">
-        <v>14095.412</v>
+        <v>13740.92907884615</v>
       </c>
       <c r="G272" t="n">
-        <v>36.34500000000003</v>
+        <v>36.32666666666669</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9958,22 +10162,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="C273" t="n">
-        <v>36.7</v>
+        <v>36.3</v>
       </c>
       <c r="D273" t="n">
-        <v>36.7</v>
+        <v>36.3</v>
       </c>
       <c r="E273" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="F273" t="n">
-        <v>125800</v>
+        <v>14095.412</v>
       </c>
       <c r="G273" t="n">
-        <v>36.36500000000002</v>
+        <v>36.34500000000003</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -9996,19 +10200,19 @@
         <v>36.5</v>
       </c>
       <c r="C274" t="n">
-        <v>36.4</v>
+        <v>36.7</v>
       </c>
       <c r="D274" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="E274" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="F274" t="n">
-        <v>1702.2498</v>
+        <v>125800</v>
       </c>
       <c r="G274" t="n">
-        <v>36.38000000000002</v>
+        <v>36.36500000000002</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10031,19 +10235,19 @@
         <v>36.5</v>
       </c>
       <c r="C275" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="D275" t="n">
         <v>36.5</v>
       </c>
       <c r="E275" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F275" t="n">
-        <v>851.1249</v>
+        <v>1702.2498</v>
       </c>
       <c r="G275" t="n">
-        <v>36.39666666666669</v>
+        <v>36.38000000000002</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10063,22 +10267,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="C276" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="D276" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="E276" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="F276" t="n">
-        <v>4573.8916</v>
+        <v>851.1249</v>
       </c>
       <c r="G276" t="n">
-        <v>36.40833333333337</v>
+        <v>36.39666666666669</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10093,6 +10297,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="C277" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="D277" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="E277" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="F277" t="n">
+        <v>4573.8916</v>
+      </c>
+      <c r="G277" t="n">
+        <v>36.40833333333337</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-24 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-24 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N345"/>
+  <dimension ref="A1:M345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-225029.2494</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-236731.0518</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-237696.7018</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-223473.7018</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-317164.6504</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3355,19 @@
         <v>-405106.2092478734</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="J90" t="n">
+        <v>34.6</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3394,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3431,23 @@
         <v>-447906.2092478734</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3472,23 @@
         <v>-444294.8953478734</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>34.4</v>
+      </c>
+      <c r="J93" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3513,23 @@
         <v>-444294.8953478734</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>34.5</v>
+      </c>
+      <c r="J94" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3554,23 @@
         <v>-497327.4170478734</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>34.5</v>
+      </c>
+      <c r="J95" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,22 +3595,23 @@
         <v>-497327.4170478734</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c r="J96" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K96" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3880,26 +3636,23 @@
         <v>-508988.4279478734</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c r="J97" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K97" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3924,26 +3677,23 @@
         <v>-600580.3561478733</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>34.3</v>
       </c>
       <c r="J98" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K98" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3968,26 +3718,23 @@
         <v>-573011.5954478733</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="J99" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="K99" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4012,26 +3759,23 @@
         <v>-577344.0792478734</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>34.3</v>
       </c>
       <c r="J100" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K100" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4056,26 +3800,23 @@
         <v>-577344.0792478734</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>34.1</v>
       </c>
       <c r="J101" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="K101" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4100,26 +3841,23 @@
         <v>-572844.0792478734</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>34.1</v>
       </c>
       <c r="J102" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="K102" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4144,26 +3882,23 @@
         <v>-572844.0792478734</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="J103" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K103" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4188,26 +3923,23 @@
         <v>-602102.4633478734</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="J104" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K104" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4232,26 +3964,23 @@
         <v>-602102.4633478734</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>33.9</v>
       </c>
       <c r="J105" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="K105" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4276,26 +4005,23 @@
         <v>-602102.4633478734</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>33.9</v>
       </c>
       <c r="J106" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="K106" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4320,26 +4046,23 @@
         <v>-592102.4633478734</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>33.9</v>
       </c>
       <c r="J107" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="K107" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4364,26 +4087,23 @@
         <v>-570702.4633478734</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="J108" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K108" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4408,26 +4128,23 @@
         <v>-570702.4633478734</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="J109" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K109" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4452,26 +4169,23 @@
         <v>-570702.4633478734</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="J110" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K110" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4496,26 +4210,23 @@
         <v>-570802.2133478734</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="J111" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K111" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4540,26 +4251,21 @@
         <v>-570802.2133478734</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K112" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4584,26 +4290,23 @@
         <v>-570802.2133478734</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c r="J113" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K113" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4628,26 +4331,23 @@
         <v>-570802.2133478734</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c r="J114" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K114" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4672,26 +4372,23 @@
         <v>-607790.4200478734</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c r="J115" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K115" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4716,26 +4413,23 @@
         <v>-646266.5776478734</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="J116" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K116" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4760,26 +4454,23 @@
         <v>-648266.5776478734</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>34.1</v>
       </c>
       <c r="J117" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="K117" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4804,26 +4495,23 @@
         <v>-629766.5776478734</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J118" t="n">
-        <v>34</v>
-      </c>
-      <c r="K118" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4848,26 +4536,23 @@
         <v>-629766.5776478734</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>34.1</v>
       </c>
       <c r="J119" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="K119" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4892,26 +4577,23 @@
         <v>-629766.5776478734</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>34.1</v>
       </c>
       <c r="J120" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="K120" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4936,26 +4618,23 @@
         <v>-629754.0176478734</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>34.1</v>
       </c>
       <c r="J121" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="K121" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4980,26 +4659,23 @@
         <v>-630578.2716478733</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="J122" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K122" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5024,26 +4700,23 @@
         <v>-629192.3908478733</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>34.1</v>
       </c>
       <c r="J123" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="K123" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5068,26 +4741,23 @@
         <v>-629192.3908478733</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c r="J124" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K124" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5112,26 +4782,23 @@
         <v>-629192.3908478733</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c r="J125" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K125" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5156,26 +4823,23 @@
         <v>-629192.3908478733</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c r="J126" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K126" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5200,26 +4864,23 @@
         <v>-599695.6474478733</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c r="J127" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K127" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5244,26 +4905,23 @@
         <v>-597302.3388478733</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>34.6</v>
       </c>
       <c r="J128" t="n">
         <v>34.6</v>
       </c>
-      <c r="K128" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5290,22 +4948,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5332,22 +4987,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5374,22 +5026,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5414,26 +5063,23 @@
         <v>-684095.1326478733</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="J132" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K132" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5458,26 +5104,21 @@
         <v>-681491.1870478733</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="K133" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5502,26 +5143,23 @@
         <v>-681491.1870478733</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>34.9</v>
       </c>
       <c r="J134" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="K134" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>34.6</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5546,24 +5184,23 @@
         <v>-571496.1033478733</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>34.9</v>
+      </c>
+      <c r="J135" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5588,24 +5225,23 @@
         <v>-542022.2893478733</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>35.3</v>
+      </c>
+      <c r="J136" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5632,22 +5268,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5674,22 +5307,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5716,22 +5346,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5758,22 +5385,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5800,22 +5424,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5842,22 +5463,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5884,22 +5502,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5926,22 +5541,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5968,22 +5580,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6010,22 +5619,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6052,22 +5658,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6094,24 +5697,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1.070581395348837</v>
-      </c>
-      <c r="N148" t="n">
-        <v>1.075801749271137</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6138,16 +5736,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6174,16 +5775,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6210,16 +5814,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6246,16 +5853,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6282,16 +5892,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6318,16 +5931,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6354,16 +5970,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6390,16 +6009,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6426,16 +6048,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6460,18 +6085,21 @@
         <v>-485166.5192478732</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6498,16 +6126,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6534,16 +6165,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6570,16 +6204,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6604,18 +6241,21 @@
         <v>-362029.6905478732</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6640,18 +6280,21 @@
         <v>-362029.6905478732</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6676,18 +6319,21 @@
         <v>-373435.9431478732</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6712,18 +6358,21 @@
         <v>-377338.2370478732</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6748,18 +6397,21 @@
         <v>-377338.2370478732</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6786,16 +6438,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6820,18 +6475,21 @@
         <v>-381338.2370478732</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6856,18 +6514,21 @@
         <v>-392941.2729478732</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6892,18 +6553,21 @@
         <v>-348300.2013478732</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6928,18 +6592,21 @@
         <v>-348980.5620478732</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6964,18 +6631,21 @@
         <v>-349180.5620478732</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7000,18 +6670,21 @@
         <v>-342603.7963478732</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7036,18 +6709,21 @@
         <v>-342603.7963478732</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7072,18 +6748,21 @@
         <v>-351749.5597478732</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7110,16 +6789,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7146,16 +6828,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7182,16 +6867,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7218,16 +6906,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7254,16 +6945,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7290,16 +6984,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7326,16 +7023,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7362,16 +7062,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7396,18 +7099,21 @@
         <v>-309183.8464478732</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7434,16 +7140,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7470,16 +7179,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7506,16 +7218,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7542,16 +7257,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7578,16 +7296,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7614,16 +7335,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7650,16 +7374,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7686,16 +7413,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7722,16 +7452,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7758,16 +7491,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7794,16 +7530,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7830,16 +7569,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7866,16 +7608,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7902,16 +7647,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7938,16 +7686,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7974,16 +7725,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8010,16 +7764,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8046,16 +7803,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8082,16 +7842,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8118,16 +7881,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8154,16 +7920,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8190,16 +7959,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8226,16 +7998,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8262,16 +8037,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8298,16 +8076,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8334,16 +8115,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8370,16 +8154,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8406,16 +8193,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8442,16 +8232,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8478,16 +8271,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8514,16 +8310,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8550,16 +8349,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8586,16 +8388,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8622,16 +8427,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8658,16 +8466,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8694,16 +8505,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8730,16 +8544,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8766,16 +8583,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8802,16 +8622,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8838,16 +8661,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8874,16 +8700,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8910,16 +8739,19 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8946,16 +8778,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8982,16 +8817,19 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9018,16 +8856,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9054,16 +8895,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9090,16 +8934,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9126,16 +8973,19 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9162,16 +9012,19 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9198,16 +9051,19 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9234,16 +9090,19 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9270,16 +9129,19 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9306,16 +9168,19 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9342,16 +9207,19 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9378,16 +9246,19 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9414,16 +9285,19 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9450,16 +9324,19 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9486,16 +9363,19 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9522,16 +9402,19 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9558,16 +9441,19 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9594,16 +9480,19 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9630,16 +9519,19 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9666,16 +9558,19 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9700,18 +9595,21 @@
         <v>-466211.7519617768</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1.047023121387283</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9736,18 +9634,15 @@
         <v>-466211.7519617768</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9772,18 +9667,15 @@
         <v>-468711.7519617768</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9808,18 +9700,15 @@
         <v>-459785.0111617768</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9844,18 +9733,15 @@
         <v>-460739.4900617768</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9880,18 +9766,15 @@
         <v>-457839.4900617768</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9916,18 +9799,15 @@
         <v>-457103.4763617768</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9954,16 +9834,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9990,16 +9867,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10026,16 +9900,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10062,16 +9933,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10096,18 +9964,15 @@
         <v>-476700.0762617768</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10132,18 +9997,15 @@
         <v>-476700.0762617768</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10168,18 +10030,15 @@
         <v>-529445.6974617768</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10206,16 +10065,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10242,16 +10098,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10278,16 +10131,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10314,16 +10164,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10350,16 +10197,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10386,16 +10230,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10422,16 +10263,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10458,16 +10296,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10494,16 +10329,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10530,16 +10362,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10566,16 +10395,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10602,16 +10428,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10638,16 +10461,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10674,16 +10494,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10710,16 +10527,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10746,16 +10560,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10782,16 +10593,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10818,16 +10626,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10854,16 +10659,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10890,16 +10692,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10926,16 +10725,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10962,16 +10758,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10998,16 +10791,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11034,16 +10824,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11070,16 +10857,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11106,16 +10890,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11142,16 +10923,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11176,18 +10954,15 @@
         <v>-556217.6097617765</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11212,18 +10987,15 @@
         <v>-555357.4901617765</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11248,18 +11020,15 @@
         <v>-554478.3773617765</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11284,18 +11053,15 @@
         <v>-554478.3773617765</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11320,18 +11086,15 @@
         <v>-553478.3773617765</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11356,18 +11119,15 @@
         <v>-553478.3773617765</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11392,18 +11152,15 @@
         <v>-555035.3329617765</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11428,18 +11185,15 @@
         <v>-556095.8566617765</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11466,16 +11220,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11502,16 +11253,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11538,16 +11286,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11574,16 +11319,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11608,18 +11350,15 @@
         <v>-533736.1191617765</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11644,18 +11383,15 @@
         <v>-646348.1191617765</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11680,18 +11416,15 @@
         <v>-619609.7767617765</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11716,18 +11449,15 @@
         <v>-619609.7767617765</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11754,16 +11484,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11790,16 +11517,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11826,16 +11550,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11862,16 +11583,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11898,16 +11616,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11934,16 +11649,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11970,16 +11682,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12006,16 +11715,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12042,16 +11748,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12078,16 +11781,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12114,16 +11814,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12150,16 +11847,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12186,16 +11880,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12222,16 +11913,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12258,16 +11946,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12294,16 +11979,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12330,16 +12012,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12366,16 +12045,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12402,16 +12078,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12438,16 +12111,13 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12474,16 +12144,13 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12510,16 +12177,13 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12546,16 +12210,13 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12582,16 +12243,13 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12618,16 +12276,13 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12654,16 +12309,13 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12690,16 +12342,13 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12726,16 +12375,13 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12762,16 +12408,13 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12798,16 +12441,13 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12834,16 +12474,13 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12870,16 +12507,13 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -12906,16 +12540,13 @@
       <c r="H337" t="n">
         <v>0</v>
       </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -12942,16 +12573,13 @@
       <c r="H338" t="n">
         <v>0</v>
       </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -12978,16 +12606,13 @@
       <c r="H339" t="n">
         <v>0</v>
       </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -13014,16 +12639,13 @@
       <c r="H340" t="n">
         <v>0</v>
       </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -13050,16 +12672,13 @@
       <c r="H341" t="n">
         <v>0</v>
       </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -13086,16 +12705,13 @@
       <c r="H342" t="n">
         <v>0</v>
       </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -13122,16 +12738,13 @@
       <c r="H343" t="n">
         <v>0</v>
       </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -13158,16 +12771,13 @@
       <c r="H344" t="n">
         <v>0</v>
       </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -13194,18 +12804,15 @@
       <c r="H345" t="n">
         <v>0</v>
       </c>
-      <c r="I345" t="n">
-        <v>0</v>
-      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-24 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>-225029.2494</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-236731.0518</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-237696.7018</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-223473.7018</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-317164.6504</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -3355,14 +3355,10 @@
         <v>-405106.2092478734</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="J90" t="n">
-        <v>34.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
@@ -3395,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3431,511 +3421,413 @@
         <v>-447906.2092478734</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="J92" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K92" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C93" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D93" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E93" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F93" t="n">
+        <v>3611.3139</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-444294.8953478734</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C94" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D94" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E94" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F94" t="n">
+        <v>5341.9222</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-444294.8953478734</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C95" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D95" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E95" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F95" t="n">
+        <v>53032.5217</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-497327.4170478734</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C96" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D96" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E96" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F96" t="n">
+        <v>37022.803</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-497327.4170478734</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="C97" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D97" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E97" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F97" t="n">
+        <v>11661.0109</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-508988.4279478734</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="C98" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="D98" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E98" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="F98" t="n">
+        <v>91591.92819999999</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-600580.3561478733</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="C99" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D99" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E99" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="F99" t="n">
+        <v>27568.7607</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-573011.5954478733</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E100" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>4332.4838</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-577344.0792478734</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E101" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-577344.0792478734</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="C102" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E102" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="F102" t="n">
+        <v>4500</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-572844.0792478734</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="C103" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D103" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E103" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="F103" t="n">
+        <v>4500</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-572844.0792478734</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="C104" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="D104" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="F104" t="n">
+        <v>29258.3841</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-602102.4633478734</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C93" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D93" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E93" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F93" t="n">
-        <v>3611.3139</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-444294.8953478734</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="J93" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C94" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="D94" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E94" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F94" t="n">
-        <v>5341.9222</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-444294.8953478734</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="J94" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="C95" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="D95" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="E95" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="F95" t="n">
-        <v>53032.5217</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-497327.4170478734</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="C96" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="D96" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="E96" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="F96" t="n">
-        <v>37022.803</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-497327.4170478734</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="J96" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="C97" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="D97" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E97" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="F97" t="n">
-        <v>11661.0109</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-508988.4279478734</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="J97" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="C98" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="D98" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E98" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="F98" t="n">
-        <v>91591.92819999999</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-600580.3561478733</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="J98" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="C99" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="D99" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E99" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="F99" t="n">
-        <v>27568.7607</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-573011.5954478733</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="J99" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="C100" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="D100" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="E100" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="F100" t="n">
-        <v>4332.4838</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-577344.0792478734</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="J100" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="C101" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="D101" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="E101" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="F101" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-577344.0792478734</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="C102" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="D102" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="E102" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="F102" t="n">
-        <v>4500</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-572844.0792478734</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="C103" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="D103" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="E103" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="F103" t="n">
-        <v>4500</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-572844.0792478734</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J103" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="C104" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="D104" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="E104" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="F104" t="n">
-        <v>29258.3841</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-602102.4633478734</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J104" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3964,14 +3856,12 @@
         <v>-602102.4633478734</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>33.9</v>
       </c>
-      <c r="J105" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4005,14 +3895,12 @@
         <v>-602102.4633478734</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>33.9</v>
       </c>
-      <c r="J106" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4046,14 +3934,12 @@
         <v>-592102.4633478734</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>33.9</v>
       </c>
-      <c r="J107" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4087,14 +3973,12 @@
         <v>-570702.4633478734</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>34.2</v>
       </c>
-      <c r="J108" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4128,14 +4012,12 @@
         <v>-570702.4633478734</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>34.5</v>
       </c>
-      <c r="J109" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4169,14 +4051,12 @@
         <v>-570702.4633478734</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>34.5</v>
       </c>
-      <c r="J110" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4210,14 +4090,10 @@
         <v>-570802.2133478734</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="J111" t="n">
-        <v>34.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4251,12 +4127,12 @@
         <v>-570802.2133478734</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>34.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4290,14 +4166,12 @@
         <v>-570802.2133478734</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>34.4</v>
       </c>
-      <c r="J113" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4331,14 +4205,10 @@
         <v>-570802.2133478734</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="J114" t="n">
-        <v>34.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4372,14 +4242,10 @@
         <v>-607790.4200478734</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="J115" t="n">
-        <v>34.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4413,14 +4279,10 @@
         <v>-646266.5776478734</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J116" t="n">
-        <v>34.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4454,14 +4316,12 @@
         <v>-648266.5776478734</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>34.1</v>
       </c>
-      <c r="J117" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4495,14 +4355,12 @@
         <v>-629766.5776478734</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>34</v>
       </c>
-      <c r="J118" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4536,14 +4394,12 @@
         <v>-629766.5776478734</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>34.1</v>
       </c>
-      <c r="J119" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4577,14 +4433,12 @@
         <v>-629766.5776478734</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>34.1</v>
       </c>
-      <c r="J120" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4618,14 +4472,12 @@
         <v>-629754.0176478734</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>34.1</v>
       </c>
-      <c r="J121" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4659,14 +4511,12 @@
         <v>-630578.2716478733</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>34.5</v>
       </c>
-      <c r="J122" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4700,14 +4550,12 @@
         <v>-629192.3908478733</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>34.1</v>
       </c>
-      <c r="J123" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4741,14 +4589,12 @@
         <v>-629192.3908478733</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>34.4</v>
       </c>
-      <c r="J124" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4782,14 +4628,12 @@
         <v>-629192.3908478733</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>34.4</v>
       </c>
-      <c r="J125" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4823,14 +4667,12 @@
         <v>-629192.3908478733</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>34.4</v>
       </c>
-      <c r="J126" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4864,14 +4706,12 @@
         <v>-599695.6474478733</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>34.4</v>
       </c>
-      <c r="J127" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4905,14 +4745,12 @@
         <v>-597302.3388478733</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>34.6</v>
       </c>
-      <c r="J128" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4946,12 +4784,12 @@
         <v>-568504.7790478732</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>34.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4985,12 +4823,12 @@
         <v>-618104.7790478732</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>34.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5024,12 +4862,12 @@
         <v>-684095.1326478733</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>34.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5063,14 +4901,12 @@
         <v>-684095.1326478733</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>34.5</v>
       </c>
-      <c r="J132" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5104,12 +4940,12 @@
         <v>-681491.1870478733</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>34.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5143,14 +4979,12 @@
         <v>-681491.1870478733</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>34.9</v>
       </c>
-      <c r="J134" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5184,14 +5018,12 @@
         <v>-571496.1033478733</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>34.9</v>
       </c>
-      <c r="J135" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5225,14 +5057,10 @@
         <v>-542022.2893478733</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="J136" t="n">
-        <v>34.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5269,9 +5097,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5308,9 +5134,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5347,9 +5171,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5386,9 +5208,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5425,9 +5245,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5464,9 +5282,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5503,9 +5319,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5542,9 +5356,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5581,9 +5393,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5620,9 +5430,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5659,9 +5467,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5698,9 +5504,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5737,9 +5541,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5776,9 +5578,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5815,9 +5615,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5854,9 +5652,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5893,9 +5689,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5932,9 +5726,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5971,9 +5763,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6010,9 +5800,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6049,9 +5837,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6085,12 +5871,10 @@
         <v>-485166.5192478732</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6127,9 +5911,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6166,9 +5948,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6205,9 +5985,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6241,12 +6019,10 @@
         <v>-362029.6905478732</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6280,12 +6056,10 @@
         <v>-362029.6905478732</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6319,12 +6093,10 @@
         <v>-373435.9431478732</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6358,12 +6130,10 @@
         <v>-377338.2370478732</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6397,12 +6167,10 @@
         <v>-377338.2370478732</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6439,9 +6207,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6475,12 +6241,10 @@
         <v>-381338.2370478732</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6514,12 +6278,10 @@
         <v>-392941.2729478732</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6553,12 +6315,10 @@
         <v>-348300.2013478732</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6592,12 +6352,10 @@
         <v>-348980.5620478732</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6631,12 +6389,10 @@
         <v>-349180.5620478732</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6670,12 +6426,10 @@
         <v>-342603.7963478732</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6709,20 +6463,16 @@
         <v>-342603.7963478732</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>34.6</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
@@ -6748,17 +6498,11 @@
         <v>-351749.5597478732</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6787,17 +6531,11 @@
         <v>-343354.2228478732</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6826,17 +6564,11 @@
         <v>-351795.0764478732</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6865,17 +6597,11 @@
         <v>-400178.0764478732</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6904,17 +6630,11 @@
         <v>-388031.3383478732</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6943,17 +6663,11 @@
         <v>-400318.6547478732</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6982,17 +6696,11 @@
         <v>-386929.6941478732</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7021,17 +6729,11 @@
         <v>-394933.9853478732</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7060,17 +6762,11 @@
         <v>-309183.8464478732</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7099,17 +6795,11 @@
         <v>-309183.8464478732</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7138,17 +6828,11 @@
         <v>-309183.8464478732</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7177,17 +6861,11 @@
         <v>-310683.8464478732</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7216,17 +6894,11 @@
         <v>-310683.8464478732</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7255,17 +6927,11 @@
         <v>-311683.8464478732</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7294,17 +6960,11 @@
         <v>-311673.2864478732</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7333,17 +6993,11 @@
         <v>-311673.2864478732</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7372,17 +7026,11 @@
         <v>-312505.1150478732</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7411,17 +7059,11 @@
         <v>-287105.1150478732</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7450,17 +7092,11 @@
         <v>-263022.1377617769</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7489,17 +7125,11 @@
         <v>-263522.1377617769</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7528,17 +7158,11 @@
         <v>-263522.1377617769</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7567,17 +7191,11 @@
         <v>-263522.1377617769</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7606,17 +7224,11 @@
         <v>-266522.1377617769</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7645,17 +7257,11 @@
         <v>-269522.1377617769</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7684,17 +7290,11 @@
         <v>-269522.1377617769</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7723,17 +7323,11 @@
         <v>-269522.1377617769</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7762,17 +7356,11 @@
         <v>-269522.1377617769</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7801,17 +7389,11 @@
         <v>-267958.9832617769</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7840,17 +7422,11 @@
         <v>-297365.1372617769</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7879,17 +7455,11 @@
         <v>-297365.1372617769</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7918,17 +7488,11 @@
         <v>-317365.1372617769</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7957,17 +7521,11 @@
         <v>-369065.1372617769</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7996,17 +7554,11 @@
         <v>-438155.1372617769</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8035,17 +7587,11 @@
         <v>-462879.2483617769</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8074,17 +7620,11 @@
         <v>-464467.6819617769</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8113,17 +7653,11 @@
         <v>-463967.6819617769</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8152,17 +7686,11 @@
         <v>-488425.6819617769</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8191,17 +7719,11 @@
         <v>-467752.9595617768</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8230,17 +7752,11 @@
         <v>-466755.4595617768</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8269,17 +7785,11 @@
         <v>-465449.1468617768</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8308,17 +7818,11 @@
         <v>-448808.9381617768</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8350,14 +7854,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8389,14 +7887,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8428,14 +7920,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8467,14 +7953,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8506,14 +7986,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8545,14 +8019,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8584,14 +8052,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8623,14 +8085,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8662,14 +8118,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8701,14 +8151,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8740,14 +8184,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8779,14 +8217,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8818,14 +8250,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8857,14 +8283,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8896,14 +8316,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8935,14 +8349,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8974,14 +8382,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9013,14 +8415,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9052,14 +8448,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9091,14 +8481,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9130,14 +8514,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9169,14 +8547,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9208,14 +8580,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9247,14 +8613,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9286,14 +8646,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9325,14 +8679,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9364,14 +8712,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9403,14 +8745,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9442,14 +8778,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9481,14 +8811,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9520,14 +8844,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9559,14 +8877,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9595,19 +8907,13 @@
         <v>-466211.7519617768</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
-        <v>1.047023121387283</v>
+        <v>1</v>
       </c>
       <c r="M248" t="inlineStr"/>
     </row>
@@ -9634,7 +8940,7 @@
         <v>-466211.7519617768</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9667,7 +8973,7 @@
         <v>-468711.7519617768</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9700,7 +9006,7 @@
         <v>-459785.0111617768</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9733,7 +9039,7 @@
         <v>-460739.4900617768</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9766,7 +9072,7 @@
         <v>-457839.4900617768</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9799,7 +9105,7 @@
         <v>-457103.4763617768</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9964,7 +9270,7 @@
         <v>-476700.0762617768</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9997,7 +9303,7 @@
         <v>-476700.0762617768</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10030,7 +9336,7 @@
         <v>-529445.6974617768</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10954,7 +10260,7 @@
         <v>-556217.6097617765</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10987,7 +10293,7 @@
         <v>-555357.4901617765</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11020,7 +10326,7 @@
         <v>-554478.3773617765</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11053,7 +10359,7 @@
         <v>-554478.3773617765</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11086,7 +10392,7 @@
         <v>-553478.3773617765</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11119,7 +10425,7 @@
         <v>-553478.3773617765</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11152,7 +10458,7 @@
         <v>-555035.3329617765</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11185,7 +10491,7 @@
         <v>-556095.8566617765</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11350,7 +10656,7 @@
         <v>-533736.1191617765</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11383,7 +10689,7 @@
         <v>-646348.1191617765</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11416,7 +10722,7 @@
         <v>-619609.7767617765</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11449,7 +10755,7 @@
         <v>-619609.7767617765</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12813,6 +12119,6 @@
       <c r="M345" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-24 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-193355.486</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-193355.486</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-225029.2494</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-236731.0518</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-237696.7018</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-236873.7018</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-241866.3248</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-240218.3248</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-240218.3248</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-270718.3248</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-270718.3248</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-271218.3248</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-317164.6504</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-317164.6504</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-350764.6504</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-350764.6504</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-350764.6504</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-352369.7538</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-352602.7538</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-353314.5072</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-353665.0756</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-353382.5897242938</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-359382.5897242938</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-359372.4697242938</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-360209.7102242938</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-360209.7102242938</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-360209.7102242938</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-360957.3849242938</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -3751,11 +3751,17 @@
         <v>-572844.0792478734</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>34.1</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3790,17 @@
         <v>-572844.0792478734</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>34.2</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3825,7 +3837,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L104" t="n">
@@ -4012,11 +4024,9 @@
         <v>-570702.4633478734</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>34.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4051,11 +4061,9 @@
         <v>-570702.4633478734</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>34.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4127,11 +4135,9 @@
         <v>-570802.2133478734</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4166,11 +4172,9 @@
         <v>-570802.2133478734</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4316,11 +4320,9 @@
         <v>-648266.5776478734</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>34.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4355,11 +4357,9 @@
         <v>-629766.5776478734</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -4394,11 +4394,9 @@
         <v>-629766.5776478734</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>34.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -4433,11 +4431,9 @@
         <v>-629766.5776478734</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>34.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -4472,11 +4468,9 @@
         <v>-629754.0176478734</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>34.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -4511,11 +4505,9 @@
         <v>-630578.2716478733</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>34.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -4550,11 +4542,9 @@
         <v>-629192.3908478733</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>34.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -4628,11 +4618,9 @@
         <v>-629192.3908478733</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -4667,11 +4655,9 @@
         <v>-629192.3908478733</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -4706,11 +4692,9 @@
         <v>-599695.6474478733</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -4745,11 +4729,9 @@
         <v>-597302.3388478733</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>34.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -4784,11 +4766,9 @@
         <v>-568504.7790478732</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>34.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -4823,11 +4803,9 @@
         <v>-618104.7790478732</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>34.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -4862,11 +4840,9 @@
         <v>-684095.1326478733</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>34.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -4901,11 +4877,9 @@
         <v>-684095.1326478733</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>34.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -4940,11 +4914,9 @@
         <v>-681491.1870478733</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>34.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -4979,11 +4951,9 @@
         <v>-681491.1870478733</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>34.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5018,11 +4988,9 @@
         <v>-571496.1033478733</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>34.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5316,18 +5284,16 @@
         <v>-556299.9553478733</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
@@ -5353,15 +5319,11 @@
         <v>-544699.9553478733</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5390,15 +5352,11 @@
         <v>-504372.9553478733</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5427,15 +5385,11 @@
         <v>-504245.9553478733</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5464,15 +5418,11 @@
         <v>-494363.9553478733</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5501,15 +5451,11 @@
         <v>-526602.9554478732</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5542,11 +5488,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5579,11 +5521,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5616,11 +5554,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5653,11 +5587,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5690,11 +5620,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5727,11 +5653,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5686,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5801,11 +5719,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5838,11 +5752,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5875,11 +5785,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5912,11 +5818,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5949,11 +5851,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5986,11 +5884,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6023,11 +5917,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6060,11 +5950,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6097,11 +5983,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6134,11 +6016,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6171,11 +6049,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6208,11 +6082,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6245,11 +6115,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6282,11 +6148,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6319,11 +6181,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6356,11 +6214,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6393,11 +6247,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6430,11 +6280,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6463,16 +6309,14 @@
         <v>-342603.7963478732</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
       <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
@@ -6498,7 +6342,7 @@
         <v>-351749.5597478732</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6531,7 +6375,7 @@
         <v>-343354.2228478732</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6564,7 +6408,7 @@
         <v>-351795.0764478732</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6597,7 +6441,7 @@
         <v>-400178.0764478732</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6630,7 +6474,7 @@
         <v>-388031.3383478732</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6663,7 +6507,7 @@
         <v>-400318.6547478732</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6696,7 +6540,7 @@
         <v>-386929.6941478732</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6729,7 +6573,7 @@
         <v>-394933.9853478732</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6762,7 +6606,7 @@
         <v>-309183.8464478732</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6795,7 +6639,7 @@
         <v>-309183.8464478732</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6828,7 +6672,7 @@
         <v>-309183.8464478732</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6861,7 +6705,7 @@
         <v>-310683.8464478732</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6894,7 +6738,7 @@
         <v>-310683.8464478732</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6927,7 +6771,7 @@
         <v>-311683.8464478732</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6960,7 +6804,7 @@
         <v>-311673.2864478732</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6993,7 +6837,7 @@
         <v>-311673.2864478732</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7026,7 +6870,7 @@
         <v>-312505.1150478732</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7059,7 +6903,7 @@
         <v>-287105.1150478732</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7092,7 +6936,7 @@
         <v>-263022.1377617769</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7125,7 +6969,7 @@
         <v>-263522.1377617769</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7158,7 +7002,7 @@
         <v>-263522.1377617769</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7191,7 +7035,7 @@
         <v>-263522.1377617769</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7224,7 +7068,7 @@
         <v>-266522.1377617769</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7257,7 +7101,7 @@
         <v>-269522.1377617769</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7290,7 +7134,7 @@
         <v>-269522.1377617769</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7323,7 +7167,7 @@
         <v>-269522.1377617769</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7356,7 +7200,7 @@
         <v>-269522.1377617769</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7389,7 +7233,7 @@
         <v>-267958.9832617769</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7422,7 +7266,7 @@
         <v>-297365.1372617769</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7455,7 +7299,7 @@
         <v>-297365.1372617769</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7488,7 +7332,7 @@
         <v>-317365.1372617769</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7521,7 +7365,7 @@
         <v>-369065.1372617769</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7554,7 +7398,7 @@
         <v>-438155.1372617769</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7587,7 +7431,7 @@
         <v>-462879.2483617769</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7620,7 +7464,7 @@
         <v>-464467.6819617769</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7653,7 +7497,7 @@
         <v>-463967.6819617769</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7686,7 +7530,7 @@
         <v>-488425.6819617769</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7719,7 +7563,7 @@
         <v>-467752.9595617768</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7752,7 +7596,7 @@
         <v>-466755.4595617768</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7785,7 +7629,7 @@
         <v>-465449.1468617768</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7818,7 +7662,7 @@
         <v>-448808.9381617768</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -12119,6 +11963,6 @@
       <c r="M345" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-24 BackTest LAMB.xlsx
@@ -451,7 +451,7 @@
         <v>-193355.486</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-193355.486</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-225029.2494</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-236731.0518</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-237696.7018</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-236873.7018</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-241866.3248</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-240218.3248</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-240218.3248</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-270718.3248</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-270718.3248</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-271218.3248</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-317164.6504</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-317164.6504</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-350764.6504</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-350764.6504</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-350764.6504</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-352369.7538</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-352602.7538</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-353314.5072</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-353665.0756</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-353382.5897242938</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-359382.5897242938</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-359372.4697242938</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-360209.7102242938</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-360209.7102242938</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-360209.7102242938</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-360957.3849242938</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -3487,10 +3487,14 @@
         <v>-444294.8953478734</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J94" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
@@ -3520,11 +3524,19 @@
         <v>-497327.4170478734</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J95" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3565,19 @@
         <v>-497327.4170478734</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="J96" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3606,19 @@
         <v>-508988.4279478734</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="J97" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3647,19 @@
         <v>-600580.3561478733</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="J98" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3688,19 @@
         <v>-573011.5954478733</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="J99" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +3732,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3768,19 @@
         <v>-577344.0792478734</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3756,10 +3814,12 @@
       <c r="I102" t="n">
         <v>34.1</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L102" t="n">
@@ -3795,7 +3855,9 @@
       <c r="I103" t="n">
         <v>34.2</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3834,7 +3896,9 @@
       <c r="I104" t="n">
         <v>34.2</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3873,7 +3937,9 @@
       <c r="I105" t="n">
         <v>33.9</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3912,7 +3978,9 @@
       <c r="I106" t="n">
         <v>33.9</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3951,7 +4019,9 @@
       <c r="I107" t="n">
         <v>33.9</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3990,7 +4060,9 @@
       <c r="I108" t="n">
         <v>34.2</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4027,7 +4099,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4064,7 +4138,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4101,7 +4177,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4135,10 +4213,14 @@
         <v>-570802.2133478734</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="J112" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4172,10 +4254,14 @@
         <v>-570802.2133478734</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="J113" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4209,10 +4295,14 @@
         <v>-570802.2133478734</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="J114" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4246,10 +4336,14 @@
         <v>-607790.4200478734</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="J115" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4283,10 +4377,14 @@
         <v>-646266.5776478734</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J116" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4320,10 +4418,14 @@
         <v>-648266.5776478734</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4357,10 +4459,14 @@
         <v>-629766.5776478734</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>34</v>
+      </c>
+      <c r="J118" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4394,10 +4500,14 @@
         <v>-629766.5776478734</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4431,10 +4541,14 @@
         <v>-629766.5776478734</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4468,10 +4582,14 @@
         <v>-629754.0176478734</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4505,10 +4623,14 @@
         <v>-630578.2716478733</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J122" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4542,10 +4664,14 @@
         <v>-629192.3908478733</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4584,7 +4710,9 @@
       <c r="I124" t="n">
         <v>34.4</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4618,10 +4746,14 @@
         <v>-629192.3908478733</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="J125" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4655,10 +4787,14 @@
         <v>-629192.3908478733</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="J126" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4692,10 +4828,14 @@
         <v>-599695.6474478733</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="J127" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4729,10 +4869,14 @@
         <v>-597302.3388478733</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="J128" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4766,10 +4910,14 @@
         <v>-568504.7790478732</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J129" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4803,10 +4951,14 @@
         <v>-618104.7790478732</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="J130" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4840,10 +4992,14 @@
         <v>-684095.1326478733</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="J131" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4877,10 +5033,14 @@
         <v>-684095.1326478733</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J132" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4914,10 +5074,14 @@
         <v>-681491.1870478733</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="J133" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4951,10 +5115,14 @@
         <v>-681491.1870478733</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="J134" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4988,10 +5156,14 @@
         <v>-571496.1033478733</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="J135" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5025,10 +5197,14 @@
         <v>-542022.2893478733</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="J136" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5062,10 +5238,14 @@
         <v>-542022.2893478733</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="J137" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5099,10 +5279,14 @@
         <v>-526710.3739478732</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="J138" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5136,10 +5320,14 @@
         <v>-559973.2393478733</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="J139" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5173,10 +5361,14 @@
         <v>-555756.1924478733</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="J140" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5213,7 +5405,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5250,7 +5444,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5284,16 +5480,22 @@
         <v>-556299.9553478733</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="J143" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
       <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
@@ -5319,11 +5521,17 @@
         <v>-544699.9553478733</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5352,11 +5560,17 @@
         <v>-504372.9553478733</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5385,11 +5599,17 @@
         <v>-504245.9553478733</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5418,11 +5638,17 @@
         <v>-494363.9553478733</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5451,11 +5677,17 @@
         <v>-526602.9554478732</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5487,8 +5719,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5520,8 +5758,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5553,8 +5797,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5586,8 +5836,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5619,8 +5875,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5652,8 +5914,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5685,8 +5953,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5718,8 +5992,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5751,8 +6031,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5784,8 +6070,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5817,8 +6109,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5850,8 +6148,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5883,8 +6187,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5913,15 +6223,23 @@
         <v>-362029.6905478732</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>1.087753623188406</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1.072674418604651</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5946,7 +6264,7 @@
         <v>-362029.6905478732</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5979,7 +6297,7 @@
         <v>-373435.9431478732</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6012,7 +6330,7 @@
         <v>-377338.2370478732</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6045,7 +6363,7 @@
         <v>-377338.2370478732</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6078,7 +6396,7 @@
         <v>-381338.2370478732</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6111,7 +6429,7 @@
         <v>-381338.2370478732</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6144,7 +6462,7 @@
         <v>-392941.2729478732</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6177,7 +6495,7 @@
         <v>-348300.2013478732</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6210,7 +6528,7 @@
         <v>-348980.5620478732</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6243,7 +6561,7 @@
         <v>-349180.5620478732</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6276,7 +6594,7 @@
         <v>-342603.7963478732</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6309,7 +6627,7 @@
         <v>-342603.7963478732</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6342,7 +6660,7 @@
         <v>-351749.5597478732</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6375,7 +6693,7 @@
         <v>-343354.2228478732</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6408,7 +6726,7 @@
         <v>-351795.0764478732</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6441,7 +6759,7 @@
         <v>-400178.0764478732</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6474,7 +6792,7 @@
         <v>-388031.3383478732</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6639,7 +6957,7 @@
         <v>-309183.8464478732</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6672,7 +6990,7 @@
         <v>-309183.8464478732</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6705,7 +7023,7 @@
         <v>-310683.8464478732</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6837,7 +7155,7 @@
         <v>-311673.2864478732</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6870,7 +7188,7 @@
         <v>-312505.1150478732</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6936,7 +7254,7 @@
         <v>-263022.1377617769</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6969,7 +7287,7 @@
         <v>-263522.1377617769</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7002,7 +7320,7 @@
         <v>-263522.1377617769</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7035,7 +7353,7 @@
         <v>-263522.1377617769</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7068,7 +7386,7 @@
         <v>-266522.1377617769</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7101,7 +7419,7 @@
         <v>-269522.1377617769</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -9444,10 +9762,14 @@
         <v>-568949.0700617768</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="J269" t="n">
+        <v>35.2</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
@@ -9480,8 +9802,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9513,8 +9841,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9546,8 +9880,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9579,8 +9919,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9612,8 +9958,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9645,8 +9997,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9678,8 +10036,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9711,8 +10075,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9744,8 +10114,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9777,8 +10153,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9810,8 +10192,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9843,8 +10231,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9876,8 +10270,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9909,8 +10309,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9942,8 +10348,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9975,8 +10387,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10008,8 +10426,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10041,8 +10465,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10074,8 +10504,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10107,8 +10543,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10140,8 +10582,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10173,8 +10621,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10206,8 +10660,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10239,8 +10699,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10272,8 +10738,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10305,8 +10777,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10338,8 +10816,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10371,8 +10855,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10404,8 +10894,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10437,8 +10933,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10470,8 +10972,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10503,8 +11011,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10536,8 +11050,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10569,8 +11089,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10602,8 +11128,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10635,8 +11167,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10668,8 +11206,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10701,8 +11245,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10734,8 +11284,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10767,8 +11323,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10800,8 +11362,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10833,8 +11401,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10866,8 +11440,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10899,8 +11479,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10932,8 +11518,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10965,8 +11557,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10998,8 +11596,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11031,8 +11635,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11061,11 +11671,19 @@
         <v>-753740.5050617764</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J318" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11094,11 +11712,19 @@
         <v>-753740.5050617764</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J319" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11127,11 +11753,19 @@
         <v>-753740.5050617764</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J320" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11160,11 +11794,19 @@
         <v>-753740.5050617764</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J321" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11193,11 +11835,19 @@
         <v>-754861.8540617764</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J322" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11226,11 +11876,19 @@
         <v>-754861.8540617764</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J323" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11259,11 +11917,19 @@
         <v>-764861.8540617764</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J324" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11292,11 +11958,19 @@
         <v>-1058117.673561777</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="J325" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11325,11 +11999,19 @@
         <v>-1039117.673561777</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="J326" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11358,11 +12040,19 @@
         <v>-1039117.673561777</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="J327" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11391,11 +12081,19 @@
         <v>-1015632.176461776</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="J328" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11424,11 +12122,19 @@
         <v>-1016510.361161776</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J329" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11457,11 +12163,19 @@
         <v>-1002769.43208293</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="J330" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11490,11 +12204,19 @@
         <v>-1016864.84408293</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J331" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11523,11 +12245,19 @@
         <v>-891064.8440829304</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="J332" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11556,11 +12286,19 @@
         <v>-892767.0938829303</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="J333" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11589,11 +12327,19 @@
         <v>-891915.9689829303</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J334" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11622,11 +12368,19 @@
         <v>-896489.8605829303</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J335" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11655,11 +12409,19 @@
         <v>-895639.1041829303</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J336" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11688,11 +12450,19 @@
         <v>-910940.4174829304</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J337" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11721,11 +12491,19 @@
         <v>-910940.4174829304</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="J338" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11754,11 +12532,19 @@
         <v>-884078.0313829303</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="J339" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11787,11 +12573,19 @@
         <v>-884078.0313829303</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J340" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11820,11 +12614,19 @@
         <v>-993321.4826829303</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J341" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11853,11 +12655,19 @@
         <v>-993321.4826829303</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="J342" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11886,11 +12696,19 @@
         <v>-993321.4826829303</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="J343" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11919,11 +12737,19 @@
         <v>-993321.4826829303</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="J344" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11952,11 +12778,19 @@
         <v>-993311.4826829303</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="J345" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
